--- a/out/SUM.xlsx
+++ b/out/SUM.xlsx
@@ -603,38 +603,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -643,6 +612,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Наша модель</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -4569,6 +4541,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Модель Басса</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -8492,3934 +8467,7 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>sum!$C$1:$C$1300</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1300"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.00280504292495</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0112403935454899</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.02533649772622</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.0451239526037197</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.0706335071832296</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.1018960629356496</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.1389426743953601</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.1818045497579792</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.2305130514789901</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.285099696872299</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.345596158709601</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12.412034265819299</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13.484446003686701</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14.5628635150535</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15.647319100518001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16.7378452191356</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17.834474489018799</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18.937239687938298</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20.046173753923</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21.161309785861199</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22.2826810441011</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23.4103209510513</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24.544263091781598</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25.6845412146236</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26.8311892317708</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27.984241219879301</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>29.1437314206674</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>30.309694241515501</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>31.4821642560659</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>32.6611762048217</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>33.846764995746</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>35.038965704859898</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>36.237813576841297</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>37.443344025621698</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>38.655592634983897</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>39.874595159157998</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>41.100387523417901</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>42.333005824676199</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>43.572486332079002</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44.818865487599602</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>46.072179906632002</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>47.332466378582801</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>48.599761867463101</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>49.874103512478797</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>51.155528628619997</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>52.444074707250202</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>53.739779416693402</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>55.042680602820703</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>56.352816289635797</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>57.670224679858798</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>58.9949441555096</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>60.327013278488799</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>61.666470791158702</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>63.0133556169218</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>64.367706860797995</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>65.729563810001096</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>67.098965934512293</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>68.475952887653904</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>69.860564506659699</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>71.252840813244305</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>72.652822014171207</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>74.060548501817905</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>75.476060854740098</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>76.899399838233407</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>78.330606404893103</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>79.769721695171995</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>81.216787037936001</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>82.671843951017607</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>84.134934141766905</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>85.606099507600305</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>87.085382136547295</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>88.572824307794093</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>90.068468492225094</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>91.572357352961902</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>93.084533745899293</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>94.605040720238904</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>96.133921519019594</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>97.671219579645495</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>99.2169785344106</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>100.771242211021</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>102.334054633113</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>103.905460020771</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>105.485502791035</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>107.07422755841399</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>108.67167913539301</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>110.277902532928</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>111.892942960954</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>113.516845828873</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>115.149656746047</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>116.791421522291</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>118.442186168348</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>120.10199689637599</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>121.770900120421</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>123.44894245688801</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>125.136170725011</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>126.832631947316</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>128.538373350076</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>130.25344236377299</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>131.977886623541</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>133.71175396961399</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>135.455092447769</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>137.20795030975901</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>138.970376013747</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>140.742418224727</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>142.52412581495</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>144.315547864341</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>146.11673366090201</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>147.92773270112599</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>149.748594690392</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>151.57936954336</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>153.42010738436201</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>155.27085854778099</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>157.13167357843199</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>159.00260323192899</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>160.88369847505601</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>162.77501048611899</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>164.676590655306</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>166.58849058502599</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>168.51076209025501</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>170.44345719886499</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>172.38662815195499</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>174.34032740416501</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>176.30460762399599</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>178.27952169410901</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>180.265122711629</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>182.261463988435</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>184.26859905144201</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>186.286581642881</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>188.315465720567</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>190.35530545815999</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>192.406155245419</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>194.468069688448</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>196.541103609933</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>198.62531204937099</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>200.72075026329401</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>202.827473725479</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>204.94553812715199</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>207.07499937718501</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>209.215913602282</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>211.368337147159</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>213.53232657470599</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>215.707938666156</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>217.89523042122701</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>220.094259058266</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>222.30508201438201</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>224.52775694556399</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>226.76234172679401</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>229.00889445214901</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>231.26747343489001</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>233.538137207548</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>235.820944521988</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>238.115954349476</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>240.42322588072199</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>242.74281852592401</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>245.074791914792</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>247.41920589656499</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>249.77612054001801</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>252.14559613345401</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>254.527693184686</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>256.92247242100899</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>259.32999478915599</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>261.75032145524699</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>264.183513804722</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>266.62963344226398</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>269.08874219170599</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>271.56090209592998</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>274.046175416751</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>276.544624634787</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>279.05631244931698</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>281.58130177812501</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>284.11965575733501</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>286.67143774122098</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>289.23671130202001</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>291.81554022971301</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>294.40798853180598</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>297.01412043309102</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>299.634000375391</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>302.26769301729098</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>304.91526323386199</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>307.57677611635597</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>310.25229697189798</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>312.94189132315603</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>315.64562490799898</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>318.36356367913601</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>321.09577380374299</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>323.84232166307203</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>326.603273852043</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>329.37869717882103</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>332.16865866437502</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>334.97322554202202</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>337.79246525695299</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>340.62644546574501</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>343.475234035847</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>346.33889904505997</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>349.21750878098902</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>352.111131740487</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>355.01983662907202</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>357.94369236032901</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>360.88276805530001</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>363.83713304184101</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>366.80685685397702</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>369.79200923122397</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>372.79266011789798</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>375.80887966240999</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>378.840738216528</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>381.88830633463101</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>384.95165477293699</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>388.030854488714</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>391.125976639469</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>394.23709258211699</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>397.364273872127</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>400.50759226265001</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>403.667119703624</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>406.84292834086199</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>410.035090515109</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>413.24367876108602</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>416.46876580651002</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>419.710424571087</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>422.96872816549097</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>426.24374989031003</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>429.535563234981</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>432.84424187668998</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>436.16985967925899</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>439.51249069200099</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>442.87220914855902</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>446.249089465716</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>449.64320624218198</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>453.05463425735599</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>456.48344847006803</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>459.929724017289</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>463.39353621282299</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>466.87496054596602</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>470.37407268015102</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>473.890948451555</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>477.42566386768999</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>480.97829510595898</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>484.54891851219702</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>488.13761059917198</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>491.74444804507499</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>495.369507691965</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>499.01286654420397</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>502.67460176685501</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>506.35479068405402</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>510.05351077735497</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>513.770839684046</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>517.50685519544197</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>521.26163525514005</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>525.035257957255</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>528.82780154461898</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>532.639344406958</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>536.46996507903702</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>540.31974223877103</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>544.188754705316</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>548.07708143712</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>551.98480152995103</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>555.91199421488898</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>559.85873885629599</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>563.82511494974403</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>567.81120211992004</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>571.81708011849901</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>575.84282882198204</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>579.88852822950503</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>583.95425846061698</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>588.04009975301994</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>592.14613246028898</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>596.27243704954503</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>600.41909409910704</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>604.58618429610203</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>608.77378843404904</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>612.98198741040596</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>617.21086222408701</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>621.46049397293598</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>625.73096385118299</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>630.02235314684901</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>634.33474323912696</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>638.66821559572702</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>643.02285177018496</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>647.39873339913504</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>651.79594219955004</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>656.214559965945</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>660.65466856754495</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>665.11634994542101</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>669.59968610958094</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>674.104759136035</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>678.63165116381697</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>683.18044439197399</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>687.75122107651998</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>692.34406352734504</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>696.95905410509602</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>701.59627521801804</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>706.25580931875504</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>710.93773890111595</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>715.64214649680298</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>720.36911467210496</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>725.11872602454105</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>729.89106317948199</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>734.68620878672402</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>739.50424551702201</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>744.34525605859301</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>749.20932311357205</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>754.09652939443504</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>759.00695762037606</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>763.94069051365398</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>768.89781079589602</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>773.87840118435201</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>778.88254438812896</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>783.91032310436799</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>788.96182001439001</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>794.03711777979595</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>799.13629903853803</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>804.25944640093201</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>809.40664244564903</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>814.57796971565301</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>819.77351071409998</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>824.99334790020396</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>830.23756368505201</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>835.50624042738502</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>840.79946042933398</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>846.11730593211701</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>851.45985911169305</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>856.82720207437706</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>862.21941685241097</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>867.63658539949495</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>873.07878958627498</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>878.54611119579397</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>884.03863191889297</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>889.55643334957495</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>895.09959698033197</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>900.66820419741998</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>906.26233627609804</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>911.88207437582798</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>917.52749953542298</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>923.19869266816397</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>928.89573455686798</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>934.61870584891506</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>940.36768705123905</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>946.14275852526202</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>951.94400048180705</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>957.77149297594895</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>963.62531590183403</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>969.50554898745997</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>975.41227178940301</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>981.345563687511</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>987.30550387955395</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>993.292171375831</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>999.30564499373304</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>1005.34600335227</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>1011.4133248665401</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>1017.50768774221</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>1023.62916996985</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>1029.77784931934</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>1035.9538033341501</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>1042.15710932566</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>1048.38784436734</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>1054.64608528897</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>1060.9319086708001</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>1067.2453908376101</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>1073.58660785283</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>1079.9556355125601</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>1086.35254933952</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>1092.7774245770399</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>1099.2303361829099</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>1105.7113588233201</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>1112.22056686663</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>1118.7580343771699</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>1125.3238351089899</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>1131.91804249955</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>1138.5407296634201</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>1145.1919693858799</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>1151.8718341165199</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>1158.5803959627899</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>1165.3177266835</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>1172.08389768232</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>1178.87898000119</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>1185.7030443137401</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>1192.55616091864</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>1199.4383997329101</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>1206.3498302852599</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>1213.29052170926</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>1220.26054273663</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>1227.2599616903799</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>1234.2888464779601</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>1241.3472645843799</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>1248.4352830652499</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>1255.5529685398801</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>1262.7003871842001</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>1269.87760472382</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>1277.0846864268999</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>1284.32169709709</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>1291.5887010664001</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>1298.8857621880099</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>1306.2129438291199</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>1313.5703088636801</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>1320.9579196652001</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>1328.37583809938</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>1335.82412551688</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>1343.3028427459201</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>1350.81205008492</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>1358.3518072950999</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>1365.9221735930601</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>1373.5232076433001</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>1381.1549675507499</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>1388.8175108532801</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>1396.5108945140901</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>1404.2351749142399</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>1411.9904078449899</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>1419.7766485002301</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>1427.59395146883</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>1435.44237072696</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>1443.32195963045</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>1451.2327709070501</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>1459.1748566487499</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>1467.1482683039701</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>1475.15305666985</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>1483.1892718844399</c:v>
-                </c:pt>
-                <c:pt idx="416">
-                  <c:v>1491.2569634189099</c:v>
-                </c:pt>
-                <c:pt idx="417">
-                  <c:v>1499.35618006971</c:v>
-                </c:pt>
-                <c:pt idx="418">
-                  <c:v>1507.4869699507501</c:v>
-                </c:pt>
-                <c:pt idx="419">
-                  <c:v>1515.6493804855299</c:v>
-                </c:pt>
-                <c:pt idx="420">
-                  <c:v>1523.8434583992901</c:v>
-                </c:pt>
-                <c:pt idx="421">
-                  <c:v>1532.0692497110999</c:v>
-                </c:pt>
-                <c:pt idx="422">
-                  <c:v>1540.32679972599</c:v>
-                </c:pt>
-                <c:pt idx="423">
-                  <c:v>1548.6161530269801</c:v>
-                </c:pt>
-                <c:pt idx="424">
-                  <c:v>1556.93735346722</c:v>
-                </c:pt>
-                <c:pt idx="425">
-                  <c:v>1565.2904441620201</c:v>
-                </c:pt>
-                <c:pt idx="426">
-                  <c:v>1573.6754674808899</c:v>
-                </c:pt>
-                <c:pt idx="427">
-                  <c:v>1582.09246503958</c:v>
-                </c:pt>
-                <c:pt idx="428">
-                  <c:v>1590.54147769215</c:v>
-                </c:pt>
-                <c:pt idx="429">
-                  <c:v>1599.0225455229199</c:v>
-                </c:pt>
-                <c:pt idx="430">
-                  <c:v>1607.53570783856</c:v>
-                </c:pt>
-                <c:pt idx="431">
-                  <c:v>1616.0810031600399</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>1624.65846921463</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>1633.2681429279501</c:v>
-                </c:pt>
-                <c:pt idx="434">
-                  <c:v>1641.91006041586</c:v>
-                </c:pt>
-                <c:pt idx="435">
-                  <c:v>1650.58425697657</c:v>
-                </c:pt>
-                <c:pt idx="436">
-                  <c:v>1659.2907670825</c:v>
-                </c:pt>
-                <c:pt idx="437">
-                  <c:v>1668.0296243723401</c:v>
-                </c:pt>
-                <c:pt idx="438">
-                  <c:v>1676.800861643</c:v>
-                </c:pt>
-                <c:pt idx="439">
-                  <c:v>1685.6045108415899</c:v>
-                </c:pt>
-                <c:pt idx="440">
-                  <c:v>1694.44060305741</c:v>
-                </c:pt>
-                <c:pt idx="441">
-                  <c:v>1703.3091685139</c:v>
-                </c:pt>
-                <c:pt idx="442">
-                  <c:v>1712.21023656068</c:v>
-                </c:pt>
-                <c:pt idx="443">
-                  <c:v>1721.1438356654801</c:v>
-                </c:pt>
-                <c:pt idx="444">
-                  <c:v>1730.1099934061699</c:v>
-                </c:pt>
-                <c:pt idx="445">
-                  <c:v>1739.1087364627299</c:v>
-                </c:pt>
-                <c:pt idx="446">
-                  <c:v>1748.1400906092899</c:v>
-                </c:pt>
-                <c:pt idx="447">
-                  <c:v>1757.2040807061101</c:v>
-                </c:pt>
-                <c:pt idx="448">
-                  <c:v>1766.3007306916099</c:v>
-                </c:pt>
-                <c:pt idx="449">
-                  <c:v>1775.43006357441</c:v>
-                </c:pt>
-                <c:pt idx="450">
-                  <c:v>1784.5921014253699</c:v>
-                </c:pt>
-                <c:pt idx="451">
-                  <c:v>1793.78686536962</c:v>
-                </c:pt>
-                <c:pt idx="452">
-                  <c:v>1803.0143755786601</c:v>
-                </c:pt>
-                <c:pt idx="453">
-                  <c:v>1812.2746512624201</c:v>
-                </c:pt>
-                <c:pt idx="454">
-                  <c:v>1821.56771066135</c:v>
-                </c:pt>
-                <c:pt idx="455">
-                  <c:v>1830.8935710385499</c:v>
-                </c:pt>
-                <c:pt idx="456">
-                  <c:v>1840.2522486718899</c:v>
-                </c:pt>
-                <c:pt idx="457">
-                  <c:v>1849.6437588461399</c:v>
-                </c:pt>
-                <c:pt idx="458">
-                  <c:v>1859.06811584516</c:v>
-                </c:pt>
-                <c:pt idx="459">
-                  <c:v>1868.52533294409</c:v>
-                </c:pt>
-                <c:pt idx="460">
-                  <c:v>1878.01542240151</c:v>
-                </c:pt>
-                <c:pt idx="461">
-                  <c:v>1887.5383954517299</c:v>
-                </c:pt>
-                <c:pt idx="462">
-                  <c:v>1897.0942622970399</c:v>
-                </c:pt>
-                <c:pt idx="463">
-                  <c:v>1906.68303209992</c:v>
-                </c:pt>
-                <c:pt idx="464">
-                  <c:v>1916.30471297545</c:v>
-                </c:pt>
-                <c:pt idx="465">
-                  <c:v>1925.9593119835499</c:v>
-                </c:pt>
-                <c:pt idx="466">
-                  <c:v>1935.6468351214201</c:v>
-                </c:pt>
-                <c:pt idx="467">
-                  <c:v>1945.36728731587</c:v>
-                </c:pt>
-                <c:pt idx="468">
-                  <c:v>1955.1206724157901</c:v>
-                </c:pt>
-                <c:pt idx="469">
-                  <c:v>1964.90699318457</c:v>
-                </c:pt>
-                <c:pt idx="470">
-                  <c:v>1974.72625129262</c:v>
-                </c:pt>
-                <c:pt idx="471">
-                  <c:v>1984.5784473098699</c:v>
-                </c:pt>
-                <c:pt idx="472">
-                  <c:v>1994.4635806983499</c:v>
-                </c:pt>
-                <c:pt idx="473">
-                  <c:v>2004.38164980478</c:v>
-                </c:pt>
-                <c:pt idx="474">
-                  <c:v>2014.3326518531901</c:v>
-                </c:pt>
-                <c:pt idx="475">
-                  <c:v>2024.3165829376401</c:v>
-                </c:pt>
-                <c:pt idx="476">
-                  <c:v>2034.3334380148699</c:v>
-                </c:pt>
-                <c:pt idx="477">
-                  <c:v>2044.3832108971301</c:v>
-                </c:pt>
-                <c:pt idx="478">
-                  <c:v>2054.46589424494</c:v>
-                </c:pt>
-                <c:pt idx="479">
-                  <c:v>2064.5814795599299</c:v>
-                </c:pt>
-                <c:pt idx="480">
-                  <c:v>2074.7299571777799</c:v>
-                </c:pt>
-                <c:pt idx="481">
-                  <c:v>2084.9113162611102</c:v>
-                </c:pt>
-                <c:pt idx="482">
-                  <c:v>2095.12554479252</c:v>
-                </c:pt>
-                <c:pt idx="483">
-                  <c:v>2105.3726295675601</c:v>
-                </c:pt>
-                <c:pt idx="484">
-                  <c:v>2115.6525561879098</c:v>
-                </c:pt>
-                <c:pt idx="485">
-                  <c:v>2125.9653090544598</c:v>
-                </c:pt>
-                <c:pt idx="486">
-                  <c:v>2136.3108713605102</c:v>
-                </c:pt>
-                <c:pt idx="487">
-                  <c:v>2146.6892250850701</c:v>
-                </c:pt>
-                <c:pt idx="488">
-                  <c:v>2157.1003509861198</c:v>
-                </c:pt>
-                <c:pt idx="489">
-                  <c:v>2167.5442285940198</c:v>
-                </c:pt>
-                <c:pt idx="490">
-                  <c:v>2178.0208362048802</c:v>
-                </c:pt>
-                <c:pt idx="491">
-                  <c:v>2188.53015087412</c:v>
-                </c:pt>
-                <c:pt idx="492">
-                  <c:v>2199.0721484099799</c:v>
-                </c:pt>
-                <c:pt idx="493">
-                  <c:v>2209.6468033671199</c:v>
-                </c:pt>
-                <c:pt idx="494">
-                  <c:v>2220.2540890403302</c:v>
-                </c:pt>
-                <c:pt idx="495">
-                  <c:v>2230.89397745825</c:v>
-                </c:pt>
-                <c:pt idx="496">
-                  <c:v>2241.5664393772299</c:v>
-                </c:pt>
-                <c:pt idx="497">
-                  <c:v>2252.2714442751098</c:v>
-                </c:pt>
-                <c:pt idx="498">
-                  <c:v>2263.0089603452998</c:v>
-                </c:pt>
-                <c:pt idx="499">
-                  <c:v>2273.7789544907</c:v>
-                </c:pt>
-                <c:pt idx="500">
-                  <c:v>2284.5813923178298</c:v>
-                </c:pt>
-                <c:pt idx="501">
-                  <c:v>2295.4162381310198</c:v>
-                </c:pt>
-                <c:pt idx="502">
-                  <c:v>2306.2834549266299</c:v>
-                </c:pt>
-                <c:pt idx="503">
-                  <c:v>2317.1830043873701</c:v>
-                </c:pt>
-                <c:pt idx="504">
-                  <c:v>2328.1148468767301</c:v>
-                </c:pt>
-                <c:pt idx="505">
-                  <c:v>2339.0789414334099</c:v>
-                </c:pt>
-                <c:pt idx="506">
-                  <c:v>2350.07524576593</c:v>
-                </c:pt>
-                <c:pt idx="507">
-                  <c:v>2361.1037162472498</c:v>
-                </c:pt>
-                <c:pt idx="508">
-                  <c:v>2372.1643079095002</c:v>
-                </c:pt>
-                <c:pt idx="509">
-                  <c:v>2383.2569744387802</c:v>
-                </c:pt>
-                <c:pt idx="510">
-                  <c:v>2394.3816681701001</c:v>
-                </c:pt>
-                <c:pt idx="511">
-                  <c:v>2405.5383400823198</c:v>
-                </c:pt>
-                <c:pt idx="512">
-                  <c:v>2416.72693979324</c:v>
-                </c:pt>
-                <c:pt idx="513">
-                  <c:v>2427.94741555478</c:v>
-                </c:pt>
-                <c:pt idx="514">
-                  <c:v>2439.1997142482301</c:v>
-                </c:pt>
-                <c:pt idx="515">
-                  <c:v>2450.4837813795998</c:v>
-                </c:pt>
-                <c:pt idx="516">
-                  <c:v>2461.79956107506</c:v>
-                </c:pt>
-                <c:pt idx="517">
-                  <c:v>2473.1469960764898</c:v>
-                </c:pt>
-                <c:pt idx="518">
-                  <c:v>2484.5260277371299</c:v>
-                </c:pt>
-                <c:pt idx="519">
-                  <c:v>2495.93659601729</c:v>
-                </c:pt>
-                <c:pt idx="520">
-                  <c:v>2507.37863948022</c:v>
-                </c:pt>
-                <c:pt idx="521">
-                  <c:v>2518.8520952880199</c:v>
-                </c:pt>
-                <c:pt idx="522">
-                  <c:v>2530.3568991976999</c:v>
-                </c:pt>
-                <c:pt idx="523">
-                  <c:v>2541.8929855573101</c:v>
-                </c:pt>
-                <c:pt idx="524">
-                  <c:v>2553.46028730221</c:v>
-                </c:pt>
-                <c:pt idx="525">
-                  <c:v>2565.0587359514202</c:v>
-                </c:pt>
-                <c:pt idx="526">
-                  <c:v>2576.6882616040598</c:v>
-                </c:pt>
-                <c:pt idx="527">
-                  <c:v>2588.3487929359699</c:v>
-                </c:pt>
-                <c:pt idx="528">
-                  <c:v>2600.04025719634</c:v>
-                </c:pt>
-                <c:pt idx="529">
-                  <c:v>2611.76258020457</c:v>
-                </c:pt>
-                <c:pt idx="530">
-                  <c:v>2623.5156863470902</c:v>
-                </c:pt>
-                <c:pt idx="531">
-                  <c:v>2635.2994985744799</c:v>
-                </c:pt>
-                <c:pt idx="532">
-                  <c:v>2647.1139383985301</c:v>
-                </c:pt>
-                <c:pt idx="533">
-                  <c:v>2658.9589258895198</c:v>
-                </c:pt>
-                <c:pt idx="534">
-                  <c:v>2670.8343796736199</c:v>
-                </c:pt>
-                <c:pt idx="535">
-                  <c:v>2682.74021693033</c:v>
-                </c:pt>
-                <c:pt idx="536">
-                  <c:v>2694.6763533901099</c:v>
-                </c:pt>
-                <c:pt idx="537">
-                  <c:v>2706.6427033321302</c:v>
-                </c:pt>
-                <c:pt idx="538">
-                  <c:v>2718.63917958209</c:v>
-                </c:pt>
-                <c:pt idx="539">
-                  <c:v>2730.6656935102301</c:v>
-                </c:pt>
-                <c:pt idx="540">
-                  <c:v>2742.7221550294098</c:v>
-                </c:pt>
-                <c:pt idx="541">
-                  <c:v>2754.8084725933199</c:v>
-                </c:pt>
-                <c:pt idx="542">
-                  <c:v>2766.9245531949</c:v>
-                </c:pt>
-                <c:pt idx="543">
-                  <c:v>2779.0703023647402</c:v>
-                </c:pt>
-                <c:pt idx="544">
-                  <c:v>2791.24562416975</c:v>
-                </c:pt>
-                <c:pt idx="545">
-                  <c:v>2803.45042121188</c:v>
-                </c:pt>
-                <c:pt idx="546">
-                  <c:v>2815.68459462698</c:v>
-                </c:pt>
-                <c:pt idx="547">
-                  <c:v>2827.9480440838402</c:v>
-                </c:pt>
-                <c:pt idx="548">
-                  <c:v>2840.2406677832901</c:v>
-                </c:pt>
-                <c:pt idx="549">
-                  <c:v>2852.5623624575001</c:v>
-                </c:pt>
-                <c:pt idx="550">
-                  <c:v>2864.91302336937</c:v>
-                </c:pt>
-                <c:pt idx="551">
-                  <c:v>2877.2925443120998</c:v>
-                </c:pt>
-                <c:pt idx="552">
-                  <c:v>2889.7008176088202</c:v>
-                </c:pt>
-                <c:pt idx="553">
-                  <c:v>2902.1377341124798</c:v>
-                </c:pt>
-                <c:pt idx="554">
-                  <c:v>2914.6031832057602</c:v>
-                </c:pt>
-                <c:pt idx="555">
-                  <c:v>2927.0970528011599</c:v>
-                </c:pt>
-                <c:pt idx="556">
-                  <c:v>2939.6192293412801</c:v>
-                </c:pt>
-                <c:pt idx="557">
-                  <c:v>2952.1695977991799</c:v>
-                </c:pt>
-                <c:pt idx="558">
-                  <c:v>2964.7480416789199</c:v>
-                </c:pt>
-                <c:pt idx="559">
-                  <c:v>2977.3544430161801</c:v>
-                </c:pt>
-                <c:pt idx="560">
-                  <c:v>2989.9886823791298</c:v>
-                </c:pt>
-                <c:pt idx="561">
-                  <c:v>3002.6506388693701</c:v>
-                </c:pt>
-                <c:pt idx="562">
-                  <c:v>3015.340190123</c:v>
-                </c:pt>
-                <c:pt idx="563">
-                  <c:v>3028.05721231193</c:v>
-                </c:pt>
-                <c:pt idx="564">
-                  <c:v>3040.8015801452202</c:v>
-                </c:pt>
-                <c:pt idx="565">
-                  <c:v>3053.5731668706499</c:v>
-                </c:pt>
-                <c:pt idx="566">
-                  <c:v>3066.3718442764198</c:v>
-                </c:pt>
-                <c:pt idx="567">
-                  <c:v>3079.197482693</c:v>
-                </c:pt>
-                <c:pt idx="568">
-                  <c:v>3092.0499509950801</c:v>
-                </c:pt>
-                <c:pt idx="569">
-                  <c:v>3104.9291166037601</c:v>
-                </c:pt>
-                <c:pt idx="570">
-                  <c:v>3117.8348454888401</c:v>
-                </c:pt>
-                <c:pt idx="571">
-                  <c:v>3130.7670021712602</c:v>
-                </c:pt>
-                <c:pt idx="572">
-                  <c:v>3143.7254497256599</c:v>
-                </c:pt>
-                <c:pt idx="573">
-                  <c:v>3156.7100497832298</c:v>
-                </c:pt>
-                <c:pt idx="574">
-                  <c:v>3169.7206625345102</c:v>
-                </c:pt>
-                <c:pt idx="575">
-                  <c:v>3182.7571467325201</c:v>
-                </c:pt>
-                <c:pt idx="576">
-                  <c:v>3195.81935969597</c:v>
-                </c:pt>
-                <c:pt idx="577">
-                  <c:v>3208.9071573125698</c:v>
-                </c:pt>
-                <c:pt idx="578">
-                  <c:v>3222.02039404265</c:v>
-                </c:pt>
-                <c:pt idx="579">
-                  <c:v>3235.1589229227502</c:v>
-                </c:pt>
-                <c:pt idx="580">
-                  <c:v>3248.3225955695202</c:v>
-                </c:pt>
-                <c:pt idx="581">
-                  <c:v>3261.5112621836902</c:v>
-                </c:pt>
-                <c:pt idx="582">
-                  <c:v>3274.7247715542098</c:v>
-                </c:pt>
-                <c:pt idx="583">
-                  <c:v>3287.96297106257</c:v>
-                </c:pt>
-                <c:pt idx="584">
-                  <c:v>3301.2257066872799</c:v>
-                </c:pt>
-                <c:pt idx="585">
-                  <c:v>3314.5128230084501</c:v>
-                </c:pt>
-                <c:pt idx="586">
-                  <c:v>3327.8241632126001</c:v>
-                </c:pt>
-                <c:pt idx="587">
-                  <c:v>3341.1595690976001</c:v>
-                </c:pt>
-                <c:pt idx="588">
-                  <c:v>3354.5188810777499</c:v>
-                </c:pt>
-                <c:pt idx="589">
-                  <c:v>3367.9019381890198</c:v>
-                </c:pt>
-                <c:pt idx="590">
-                  <c:v>3381.3085780944998</c:v>
-                </c:pt>
-                <c:pt idx="591">
-                  <c:v>3394.7386370899399</c:v>
-                </c:pt>
-                <c:pt idx="592">
-                  <c:v>3408.1919501094699</c:v>
-                </c:pt>
-                <c:pt idx="593">
-                  <c:v>3421.6683507315302</c:v>
-                </c:pt>
-                <c:pt idx="594">
-                  <c:v>3435.16767118485</c:v>
-                </c:pt>
-                <c:pt idx="595">
-                  <c:v>3448.6897423546998</c:v>
-                </c:pt>
-                <c:pt idx="596">
-                  <c:v>3462.2343937892501</c:v>
-                </c:pt>
-                <c:pt idx="597">
-                  <c:v>3475.8014537060299</c:v>
-                </c:pt>
-                <c:pt idx="598">
-                  <c:v>3489.39074899869</c:v>
-                </c:pt>
-                <c:pt idx="599">
-                  <c:v>3503.0021052437501</c:v>
-                </c:pt>
-                <c:pt idx="600">
-                  <c:v>3516.6353467076701</c:v>
-                </c:pt>
-                <c:pt idx="601">
-                  <c:v>3530.29029635392</c:v>
-                </c:pt>
-                <c:pt idx="602">
-                  <c:v>3543.9667758503301</c:v>
-                </c:pt>
-                <c:pt idx="603">
-                  <c:v>3557.66460557655</c:v>
-                </c:pt>
-                <c:pt idx="604">
-                  <c:v>3571.3836046316401</c:v>
-                </c:pt>
-                <c:pt idx="605">
-                  <c:v>3585.1235908418698</c:v>
-                </c:pt>
-                <c:pt idx="606">
-                  <c:v>3598.8843807686198</c:v>
-                </c:pt>
-                <c:pt idx="607">
-                  <c:v>3612.6657897165001</c:v>
-                </c:pt>
-                <c:pt idx="608">
-                  <c:v>3626.4676317415301</c:v>
-                </c:pt>
-                <c:pt idx="609">
-                  <c:v>3640.28971965961</c:v>
-                </c:pt>
-                <c:pt idx="610">
-                  <c:v>3654.1318650549802</c:v>
-                </c:pt>
-                <c:pt idx="611">
-                  <c:v>3667.9938782889699</c:v>
-                </c:pt>
-                <c:pt idx="612">
-                  <c:v>3681.8755685088499</c:v>
-                </c:pt>
-                <c:pt idx="613">
-                  <c:v>3695.7767436568101</c:v>
-                </c:pt>
-                <c:pt idx="614">
-                  <c:v>3709.6972104790998</c:v>
-                </c:pt>
-                <c:pt idx="615">
-                  <c:v>3723.63677453538</c:v>
-                </c:pt>
-                <c:pt idx="616">
-                  <c:v>3737.5952402081298</c:v>
-                </c:pt>
-                <c:pt idx="617">
-                  <c:v>3751.5724107122801</c:v>
-                </c:pt>
-                <c:pt idx="618">
-                  <c:v>3765.5680881049502</c:v>
-                </c:pt>
-                <c:pt idx="619">
-                  <c:v>3779.5820732953198</c:v>
-                </c:pt>
-                <c:pt idx="620">
-                  <c:v>3793.61416605473</c:v>
-                </c:pt>
-                <c:pt idx="621">
-                  <c:v>3807.6641650268102</c:v>
-                </c:pt>
-                <c:pt idx="622">
-                  <c:v>3821.7318677378698</c:v>
-                </c:pt>
-                <c:pt idx="623">
-                  <c:v>3835.8170706073402</c:v>
-                </c:pt>
-                <c:pt idx="624">
-                  <c:v>3849.9195689583898</c:v>
-                </c:pt>
-                <c:pt idx="625">
-                  <c:v>3864.0391570287202</c:v>
-                </c:pt>
-                <c:pt idx="626">
-                  <c:v>3878.1756279814499</c:v>
-                </c:pt>
-                <c:pt idx="627">
-                  <c:v>3892.3287739161501</c:v>
-                </c:pt>
-                <c:pt idx="628">
-                  <c:v>3906.4983858800701</c:v>
-                </c:pt>
-                <c:pt idx="629">
-                  <c:v>3920.6842538793799</c:v>
-                </c:pt>
-                <c:pt idx="630">
-                  <c:v>3934.8861668907198</c:v>
-                </c:pt>
-                <c:pt idx="631">
-                  <c:v>3949.1039128727298</c:v>
-                </c:pt>
-                <c:pt idx="632">
-                  <c:v>3963.3372787777798</c:v>
-                </c:pt>
-                <c:pt idx="633">
-                  <c:v>3977.5860505638698</c:v>
-                </c:pt>
-                <c:pt idx="634">
-                  <c:v>3991.8500132065701</c:v>
-                </c:pt>
-                <c:pt idx="635">
-                  <c:v>4006.1289507112001</c:v>
-                </c:pt>
-                <c:pt idx="636">
-                  <c:v>4020.42264612504</c:v>
-                </c:pt>
-                <c:pt idx="637">
-                  <c:v>4034.7308815496899</c:v>
-                </c:pt>
-                <c:pt idx="638">
-                  <c:v>4049.0534381536399</c:v>
-                </c:pt>
-                <c:pt idx="639">
-                  <c:v>4063.3900961848499</c:v>
-                </c:pt>
-                <c:pt idx="640">
-                  <c:v>4077.7406349835301</c:v>
-                </c:pt>
-                <c:pt idx="641">
-                  <c:v>4092.1048329949899</c:v>
-                </c:pt>
-                <c:pt idx="642">
-                  <c:v>4106.48246778267</c:v>
-                </c:pt>
-                <c:pt idx="643">
-                  <c:v>4120.8733160412103</c:v>
-                </c:pt>
-                <c:pt idx="644">
-                  <c:v>4135.2771536097598</c:v>
-                </c:pt>
-                <c:pt idx="645">
-                  <c:v>4149.6937554852302</c:v>
-                </c:pt>
-                <c:pt idx="646">
-                  <c:v>4164.1228958358497</c:v>
-                </c:pt>
-                <c:pt idx="647">
-                  <c:v>4178.56434801467</c:v>
-                </c:pt>
-                <c:pt idx="648">
-                  <c:v>4193.0178845733099</c:v>
-                </c:pt>
-                <c:pt idx="649">
-                  <c:v>4207.48327727571</c:v>
-                </c:pt>
-                <c:pt idx="650">
-                  <c:v>4221.9602971120803</c:v>
-                </c:pt>
-                <c:pt idx="651">
-                  <c:v>4236.4487143128599</c:v>
-                </c:pt>
-                <c:pt idx="652">
-                  <c:v>4250.9482983628805</c:v>
-                </c:pt>
-                <c:pt idx="653">
-                  <c:v>4265.4588180155497</c:v>
-                </c:pt>
-                <c:pt idx="654">
-                  <c:v>4279.9800413072198</c:v>
-                </c:pt>
-                <c:pt idx="655">
-                  <c:v>4294.5117355715402</c:v>
-                </c:pt>
-                <c:pt idx="656">
-                  <c:v>4309.0536674540199</c:v>
-                </c:pt>
-                <c:pt idx="657">
-                  <c:v>4323.6056029266301</c:v>
-                </c:pt>
-                <c:pt idx="658">
-                  <c:v>4338.1673073025004</c:v>
-                </c:pt>
-                <c:pt idx="659">
-                  <c:v>4352.7385452507197</c:v>
-                </c:pt>
-                <c:pt idx="660">
-                  <c:v>4367.3190808112104</c:v>
-                </c:pt>
-                <c:pt idx="661">
-                  <c:v>4381.9086774097304</c:v>
-                </c:pt>
-                <c:pt idx="662">
-                  <c:v>4396.5070978729</c:v>
-                </c:pt>
-                <c:pt idx="663">
-                  <c:v>4411.1141044433698</c:v>
-                </c:pt>
-                <c:pt idx="664">
-                  <c:v>4425.72945879501</c:v>
-                </c:pt>
-                <c:pt idx="665">
-                  <c:v>4440.3529220482496</c:v>
-                </c:pt>
-                <c:pt idx="666">
-                  <c:v>4454.9842547854596</c:v>
-                </c:pt>
-                <c:pt idx="667">
-                  <c:v>4469.6232170663698</c:v>
-                </c:pt>
-                <c:pt idx="668">
-                  <c:v>4484.2695684436403</c:v>
-                </c:pt>
-                <c:pt idx="669">
-                  <c:v>4498.9230679784296</c:v>
-                </c:pt>
-                <c:pt idx="670">
-                  <c:v>4513.5834742561001</c:v>
-                </c:pt>
-                <c:pt idx="671">
-                  <c:v>4528.2505454019401</c:v>
-                </c:pt>
-                <c:pt idx="672">
-                  <c:v>4542.9240390969399</c:v>
-                </c:pt>
-                <c:pt idx="673">
-                  <c:v>4557.60371259371</c:v>
-                </c:pt>
-                <c:pt idx="674">
-                  <c:v>4572.2893227323502</c:v>
-                </c:pt>
-                <c:pt idx="675">
-                  <c:v>4586.9806259564803</c:v>
-                </c:pt>
-                <c:pt idx="676">
-                  <c:v>4601.6773783292701</c:v>
-                </c:pt>
-                <c:pt idx="677">
-                  <c:v>4616.3793355495</c:v>
-                </c:pt>
-                <c:pt idx="678">
-                  <c:v>4631.0862529677597</c:v>
-                </c:pt>
-                <c:pt idx="679">
-                  <c:v>4645.7978856025802</c:v>
-                </c:pt>
-                <c:pt idx="680">
-                  <c:v>4660.5139881567502</c:v>
-                </c:pt>
-                <c:pt idx="681">
-                  <c:v>4675.23431503354</c:v>
-                </c:pt>
-                <c:pt idx="682">
-                  <c:v>4689.9586203530698</c:v>
-                </c:pt>
-                <c:pt idx="683">
-                  <c:v>4704.6866579686603</c:v>
-                </c:pt>
-                <c:pt idx="684">
-                  <c:v>4719.41818148325</c:v>
-                </c:pt>
-                <c:pt idx="685">
-                  <c:v>4734.1529442658402</c:v>
-                </c:pt>
-                <c:pt idx="686">
-                  <c:v>4748.8906994679601</c:v>
-                </c:pt>
-                <c:pt idx="687">
-                  <c:v>4763.6312000401704</c:v>
-                </c:pt>
-                <c:pt idx="688">
-                  <c:v>4778.3741987486501</c:v>
-                </c:pt>
-                <c:pt idx="689">
-                  <c:v>4793.11944819168</c:v>
-                </c:pt>
-                <c:pt idx="690">
-                  <c:v>4807.8667008163002</c:v>
-                </c:pt>
-                <c:pt idx="691">
-                  <c:v>4822.6157089348899</c:v>
-                </c:pt>
-                <c:pt idx="692">
-                  <c:v>4837.3662247417597</c:v>
-                </c:pt>
-                <c:pt idx="693">
-                  <c:v>4852.1180003298896</c:v>
-                </c:pt>
-                <c:pt idx="694">
-                  <c:v>4866.8707877074703</c:v>
-                </c:pt>
-                <c:pt idx="695">
-                  <c:v>4881.6243388146804</c:v>
-                </c:pt>
-                <c:pt idx="696">
-                  <c:v>4896.3784055403103</c:v>
-                </c:pt>
-                <c:pt idx="697">
-                  <c:v>4911.1327397384503</c:v>
-                </c:pt>
-                <c:pt idx="698">
-                  <c:v>4925.8870932452</c:v>
-                </c:pt>
-                <c:pt idx="699">
-                  <c:v>4940.6412178953597</c:v>
-                </c:pt>
-                <c:pt idx="700">
-                  <c:v>4955.3948655391396</c:v>
-                </c:pt>
-                <c:pt idx="701">
-                  <c:v>4970.14778805882</c:v>
-                </c:pt>
-                <c:pt idx="702">
-                  <c:v>4984.89973738549</c:v>
-                </c:pt>
-                <c:pt idx="703">
-                  <c:v>4999.6504655156596</c:v>
-                </c:pt>
-                <c:pt idx="704">
-                  <c:v>5014.3997245280198</c:v>
-                </c:pt>
-                <c:pt idx="705">
-                  <c:v>5029.14726660002</c:v>
-                </c:pt>
-                <c:pt idx="706">
-                  <c:v>5043.89284402458</c:v>
-                </c:pt>
-                <c:pt idx="707">
-                  <c:v>5058.63620922668</c:v>
-                </c:pt>
-                <c:pt idx="708">
-                  <c:v>5073.3771147799898</c:v>
-                </c:pt>
-                <c:pt idx="709">
-                  <c:v>5088.1153134234601</c:v>
-                </c:pt>
-                <c:pt idx="710">
-                  <c:v>5102.8505580778901</c:v>
-                </c:pt>
-                <c:pt idx="711">
-                  <c:v>5117.5826018624402</c:v>
-                </c:pt>
-                <c:pt idx="712">
-                  <c:v>5132.3111981111897</c:v>
-                </c:pt>
-                <c:pt idx="713">
-                  <c:v>5147.0361003895896</c:v>
-                </c:pt>
-                <c:pt idx="714">
-                  <c:v>5161.7570625109302</c:v>
-                </c:pt>
-                <c:pt idx="715">
-                  <c:v>5176.4738385527198</c:v>
-                </c:pt>
-                <c:pt idx="716">
-                  <c:v>5191.1861828731098</c:v>
-                </c:pt>
-                <c:pt idx="717">
-                  <c:v>5205.8938501271996</c:v>
-                </c:pt>
-                <c:pt idx="718">
-                  <c:v>5220.5965952833303</c:v>
-                </c:pt>
-                <c:pt idx="719">
-                  <c:v>5235.2941736393404</c:v>
-                </c:pt>
-                <c:pt idx="720">
-                  <c:v>5249.9863408387901</c:v>
-                </c:pt>
-                <c:pt idx="721">
-                  <c:v>5264.6728528870699</c:v>
-                </c:pt>
-                <c:pt idx="722">
-                  <c:v>5279.3534661675403</c:v>
-                </c:pt>
-                <c:pt idx="723">
-                  <c:v>5294.0279374575703</c:v>
-                </c:pt>
-                <c:pt idx="724">
-                  <c:v>5308.6960239445098</c:v>
-                </c:pt>
-                <c:pt idx="725">
-                  <c:v>5323.3574832416598</c:v>
-                </c:pt>
-                <c:pt idx="726">
-                  <c:v>5338.0120734041302</c:v>
-                </c:pt>
-                <c:pt idx="727">
-                  <c:v>5352.6595529446504</c:v>
-                </c:pt>
-                <c:pt idx="728">
-                  <c:v>5367.2996808493199</c:v>
-                </c:pt>
-                <c:pt idx="729">
-                  <c:v>5381.9322165932799</c:v>
-                </c:pt>
-                <c:pt idx="730">
-                  <c:v>5396.5569201563303</c:v>
-                </c:pt>
-                <c:pt idx="731">
-                  <c:v>5411.17355203851</c:v>
-                </c:pt>
-                <c:pt idx="732">
-                  <c:v>5425.7818732754904</c:v>
-                </c:pt>
-                <c:pt idx="733">
-                  <c:v>5440.3816454540402</c:v>
-                </c:pt>
-                <c:pt idx="734">
-                  <c:v>5454.9726307272704</c:v>
-                </c:pt>
-                <c:pt idx="735">
-                  <c:v>5469.5545918299604</c:v>
-                </c:pt>
-                <c:pt idx="736">
-                  <c:v>5484.1272920936199</c:v>
-                </c:pt>
-                <c:pt idx="737">
-                  <c:v>5498.6904954616302</c:v>
-                </c:pt>
-                <c:pt idx="738">
-                  <c:v>5513.2439665041902</c:v>
-                </c:pt>
-                <c:pt idx="739">
-                  <c:v>5527.7874704332498</c:v>
-                </c:pt>
-                <c:pt idx="740">
-                  <c:v>5542.3207731172697</c:v>
-                </c:pt>
-                <c:pt idx="741">
-                  <c:v>5556.8436410959903</c:v>
-                </c:pt>
-                <c:pt idx="742">
-                  <c:v>5571.3558415950401</c:v>
-                </c:pt>
-                <c:pt idx="743">
-                  <c:v>5585.8571425404598</c:v>
-                </c:pt>
-                <c:pt idx="744">
-                  <c:v>5600.3473125731398</c:v>
-                </c:pt>
-                <c:pt idx="745">
-                  <c:v>5614.8261210631499</c:v>
-                </c:pt>
-                <c:pt idx="746">
-                  <c:v>5629.29333812399</c:v>
-                </c:pt>
-                <c:pt idx="747">
-                  <c:v>5643.7487346266998</c:v>
-                </c:pt>
-                <c:pt idx="748">
-                  <c:v>5658.19208221393</c:v>
-                </c:pt>
-                <c:pt idx="749">
-                  <c:v>5672.6231533137898</c:v>
-                </c:pt>
-                <c:pt idx="750">
-                  <c:v>5687.0417211537497</c:v>
-                </c:pt>
-                <c:pt idx="751">
-                  <c:v>5701.4475597742603</c:v>
-                </c:pt>
-                <c:pt idx="752">
-                  <c:v>5715.8404440424201</c:v>
-                </c:pt>
-                <c:pt idx="753">
-                  <c:v>5730.2201496654197</c:v>
-                </c:pt>
-                <c:pt idx="754">
-                  <c:v>5744.5864532039204</c:v>
-                </c:pt>
-                <c:pt idx="755">
-                  <c:v>5758.9391320853001</c:v>
-                </c:pt>
-                <c:pt idx="756">
-                  <c:v>5773.2779646167801</c:v>
-                </c:pt>
-                <c:pt idx="757">
-                  <c:v>5787.6027299984698</c:v>
-                </c:pt>
-                <c:pt idx="758">
-                  <c:v>5801.9132083362401</c:v>
-                </c:pt>
-                <c:pt idx="759">
-                  <c:v>5816.2091806544804</c:v>
-                </c:pt>
-                <c:pt idx="760">
-                  <c:v>5830.4904289087899</c:v>
-                </c:pt>
-                <c:pt idx="761">
-                  <c:v>5844.7567359984696</c:v>
-                </c:pt>
-                <c:pt idx="762">
-                  <c:v>5859.0078857789404</c:v>
-                </c:pt>
-                <c:pt idx="763">
-                  <c:v>5873.2436630740003</c:v>
-                </c:pt>
-                <c:pt idx="764">
-                  <c:v>5887.4638536879802</c:v>
-                </c:pt>
-                <c:pt idx="765">
-                  <c:v>5901.6682444177404</c:v>
-                </c:pt>
-                <c:pt idx="766">
-                  <c:v>5915.8566230645602</c:v>
-                </c:pt>
-                <c:pt idx="767">
-                  <c:v>5930.0287784458897</c:v>
-                </c:pt>
-                <c:pt idx="768">
-                  <c:v>5944.1845004069701</c:v>
-                </c:pt>
-                <c:pt idx="769">
-                  <c:v>5958.3235798322703</c:v>
-                </c:pt>
-                <c:pt idx="770">
-                  <c:v>5972.4458086568802</c:v>
-                </c:pt>
-                <c:pt idx="771">
-                  <c:v>5986.5509798776902</c:v>
-                </c:pt>
-                <c:pt idx="772">
-                  <c:v>6000.6388875644698</c:v>
-                </c:pt>
-                <c:pt idx="773">
-                  <c:v>6014.7093268707804</c:v>
-                </c:pt>
-                <c:pt idx="774">
-                  <c:v>6028.7620940447496</c:v>
-                </c:pt>
-                <c:pt idx="775">
-                  <c:v>6042.7969864397501</c:v>
-                </c:pt>
-                <c:pt idx="776">
-                  <c:v>6056.81380252487</c:v>
-                </c:pt>
-                <c:pt idx="777">
-                  <c:v>6070.81234189528</c:v>
-                </c:pt>
-                <c:pt idx="778">
-                  <c:v>6084.7924052824701</c:v>
-                </c:pt>
-                <c:pt idx="779">
-                  <c:v>6098.7537945642498</c:v>
-                </c:pt>
-                <c:pt idx="780">
-                  <c:v>6112.6963127747304</c:v>
-                </c:pt>
-                <c:pt idx="781">
-                  <c:v>6126.6197641140998</c:v>
-                </c:pt>
-                <c:pt idx="782">
-                  <c:v>6140.5239539581898</c:v>
-                </c:pt>
-                <c:pt idx="783">
-                  <c:v>6154.4086888680204</c:v>
-                </c:pt>
-                <c:pt idx="784">
-                  <c:v>6168.2737765990496</c:v>
-                </c:pt>
-                <c:pt idx="785">
-                  <c:v>6182.1190261104502</c:v>
-                </c:pt>
-                <c:pt idx="786">
-                  <c:v>6195.9442475740198</c:v>
-                </c:pt>
-                <c:pt idx="787">
-                  <c:v>6209.7492523831597</c:v>
-                </c:pt>
-                <c:pt idx="788">
-                  <c:v>6223.5338531615198</c:v>
-                </c:pt>
-                <c:pt idx="789">
-                  <c:v>6237.2978637716096</c:v>
-                </c:pt>
-                <c:pt idx="790">
-                  <c:v>6251.0410993231899</c:v>
-                </c:pt>
-                <c:pt idx="791">
-                  <c:v>6264.7633761815396</c:v>
-                </c:pt>
-                <c:pt idx="792">
-                  <c:v>6278.4645119755796</c:v>
-                </c:pt>
-                <c:pt idx="793">
-                  <c:v>6292.1443256058001</c:v>
-                </c:pt>
-                <c:pt idx="794">
-                  <c:v>6305.8026372520699</c:v>
-                </c:pt>
-                <c:pt idx="795">
-                  <c:v>6319.4392683812703</c:v>
-                </c:pt>
-                <c:pt idx="796">
-                  <c:v>6333.05404175478</c:v>
-                </c:pt>
-                <c:pt idx="797">
-                  <c:v>6346.6467814358202</c:v>
-                </c:pt>
-                <c:pt idx="798">
-                  <c:v>6360.2173127965998</c:v>
-                </c:pt>
-                <c:pt idx="799">
-                  <c:v>6373.7654625253399</c:v>
-                </c:pt>
-                <c:pt idx="800">
-                  <c:v>6387.29105863314</c:v>
-                </c:pt>
-                <c:pt idx="801">
-                  <c:v>6400.7939304606698</c:v>
-                </c:pt>
-                <c:pt idx="802">
-                  <c:v>6414.2739086846996</c:v>
-                </c:pt>
-                <c:pt idx="803">
-                  <c:v>6427.7308253245201</c:v>
-                </c:pt>
-                <c:pt idx="804">
-                  <c:v>6441.16451374811</c:v>
-                </c:pt>
-                <c:pt idx="805">
-                  <c:v>6454.5748086782696</c:v>
-                </c:pt>
-                <c:pt idx="806">
-                  <c:v>6467.9615461984904</c:v>
-                </c:pt>
-                <c:pt idx="807">
-                  <c:v>6481.3245637587097</c:v>
-                </c:pt>
-                <c:pt idx="808">
-                  <c:v>6494.6637001809204</c:v>
-                </c:pt>
-                <c:pt idx="809">
-                  <c:v>6507.9787956645796</c:v>
-                </c:pt>
-                <c:pt idx="810">
-                  <c:v>6521.2696917919202</c:v>
-                </c:pt>
-                <c:pt idx="811">
-                  <c:v>6534.5362315330503</c:v>
-                </c:pt>
-                <c:pt idx="812">
-                  <c:v>6547.7782592509102</c:v>
-                </c:pt>
-                <c:pt idx="813">
-                  <c:v>6560.9956207060904</c:v>
-                </c:pt>
-                <c:pt idx="814">
-                  <c:v>6574.1881630614598</c:v>
-                </c:pt>
-                <c:pt idx="815">
-                  <c:v>6587.3557348866898</c:v>
-                </c:pt>
-                <c:pt idx="816">
-                  <c:v>6600.4981861625301</c:v>
-                </c:pt>
-                <c:pt idx="817">
-                  <c:v>6613.6153682850399</c:v>
-                </c:pt>
-                <c:pt idx="818">
-                  <c:v>6626.7071340695502</c:v>
-                </c:pt>
-                <c:pt idx="819">
-                  <c:v>6639.7733377545901</c:v>
-                </c:pt>
-                <c:pt idx="820">
-                  <c:v>6652.8138350055297</c:v>
-                </c:pt>
-                <c:pt idx="821">
-                  <c:v>6665.8284829181703</c:v>
-                </c:pt>
-                <c:pt idx="822">
-                  <c:v>6678.8171400221199</c:v>
-                </c:pt>
-                <c:pt idx="823">
-                  <c:v>6691.7796662840301</c:v>
-                </c:pt>
-                <c:pt idx="824">
-                  <c:v>6704.7159231106998</c:v>
-                </c:pt>
-                <c:pt idx="825">
-                  <c:v>6717.6257733519897</c:v>
-                </c:pt>
-                <c:pt idx="826">
-                  <c:v>6730.5090813036004</c:v>
-                </c:pt>
-                <c:pt idx="827">
-                  <c:v>6743.3657127097104</c:v>
-                </c:pt>
-                <c:pt idx="828">
-                  <c:v>6756.1955347654102</c:v>
-                </c:pt>
-                <c:pt idx="829">
-                  <c:v>6768.9984161190896</c:v>
-                </c:pt>
-                <c:pt idx="830">
-                  <c:v>6781.7742268745296</c:v>
-                </c:pt>
-                <c:pt idx="831">
-                  <c:v>6794.5228385929604</c:v>
-                </c:pt>
-                <c:pt idx="832">
-                  <c:v>6807.2441242949299</c:v>
-                </c:pt>
-                <c:pt idx="833">
-                  <c:v>6819.9379584620201</c:v>
-                </c:pt>
-                <c:pt idx="834">
-                  <c:v>6832.6042170383898</c:v>
-                </c:pt>
-                <c:pt idx="835">
-                  <c:v>6845.2427774322196</c:v>
-                </c:pt>
-                <c:pt idx="836">
-                  <c:v>6857.8535185169803</c:v>
-                </c:pt>
-                <c:pt idx="837">
-                  <c:v>6870.4363206325697</c:v>
-                </c:pt>
-                <c:pt idx="838">
-                  <c:v>6882.9910655862604</c:v>
-                </c:pt>
-                <c:pt idx="839">
-                  <c:v>6895.5176366535597</c:v>
-                </c:pt>
-                <c:pt idx="840">
-                  <c:v>6908.0159185788998</c:v>
-                </c:pt>
-                <c:pt idx="841">
-                  <c:v>6920.4857975761697</c:v>
-                </c:pt>
-                <c:pt idx="842">
-                  <c:v>6932.9271613291403</c:v>
-                </c:pt>
-                <c:pt idx="843">
-                  <c:v>6945.3398989916996</c:v>
-                </c:pt>
-                <c:pt idx="844">
-                  <c:v>6957.7239011879901</c:v>
-                </c:pt>
-                <c:pt idx="845">
-                  <c:v>6970.0790600124001</c:v>
-                </c:pt>
-                <c:pt idx="846">
-                  <c:v>6982.4052690293802</c:v>
-                </c:pt>
-                <c:pt idx="847">
-                  <c:v>6994.7024232731601</c:v>
-                </c:pt>
-                <c:pt idx="848">
-                  <c:v>7006.97041924731</c:v>
-                </c:pt>
-                <c:pt idx="849">
-                  <c:v>7019.2091549241604</c:v>
-                </c:pt>
-                <c:pt idx="850">
-                  <c:v>7031.41852974414</c:v>
-                </c:pt>
-                <c:pt idx="851">
-                  <c:v>7043.5984446148595</c:v>
-                </c:pt>
-                <c:pt idx="852">
-                  <c:v>7055.7488019102202</c:v>
-                </c:pt>
-                <c:pt idx="853">
-                  <c:v>7067.8695054692198</c:v>
-                </c:pt>
-                <c:pt idx="854">
-                  <c:v>7079.9604605947998</c:v>
-                </c:pt>
-                <c:pt idx="855">
-                  <c:v>7092.02157405242</c:v>
-                </c:pt>
-                <c:pt idx="856">
-                  <c:v>7104.0527540685898</c:v>
-                </c:pt>
-                <c:pt idx="857">
-                  <c:v>7116.0539103292103</c:v>
-                </c:pt>
-                <c:pt idx="858">
-                  <c:v>7128.0249539778497</c:v>
-                </c:pt>
-                <c:pt idx="859">
-                  <c:v>7139.9657976138797</c:v>
-                </c:pt>
-                <c:pt idx="860">
-                  <c:v>7151.8763552904102</c:v>
-                </c:pt>
-                <c:pt idx="861">
-                  <c:v>7163.7565425122202</c:v>
-                </c:pt>
-                <c:pt idx="862">
-                  <c:v>7175.6062762334996</c:v>
-                </c:pt>
-                <c:pt idx="863">
-                  <c:v>7187.4254748554304</c:v>
-                </c:pt>
-                <c:pt idx="864">
-                  <c:v>7199.2140582237598</c:v>
-                </c:pt>
-                <c:pt idx="865">
-                  <c:v>7210.9719476261598</c:v>
-                </c:pt>
-                <c:pt idx="866">
-                  <c:v>7222.6990657894703</c:v>
-                </c:pt>
-                <c:pt idx="867">
-                  <c:v>7234.3953368769198</c:v>
-                </c:pt>
-                <c:pt idx="868">
-                  <c:v>7246.0606864850997</c:v>
-                </c:pt>
-                <c:pt idx="869">
-                  <c:v>7257.69504164092</c:v>
-                </c:pt>
-                <c:pt idx="870">
-                  <c:v>7269.2983307984496</c:v>
-                </c:pt>
-                <c:pt idx="871">
-                  <c:v>7280.8704838355397</c:v>
-                </c:pt>
-                <c:pt idx="872">
-                  <c:v>7292.4114320504996</c:v>
-                </c:pt>
-                <c:pt idx="873">
-                  <c:v>7303.9211081585299</c:v>
-                </c:pt>
-                <c:pt idx="874">
-                  <c:v>7315.3994462880901</c:v>
-                </c:pt>
-                <c:pt idx="875">
-                  <c:v>7326.8463819771896</c:v>
-                </c:pt>
-                <c:pt idx="876">
-                  <c:v>7338.2618521695604</c:v>
-                </c:pt>
-                <c:pt idx="877">
-                  <c:v>7349.6457952106603</c:v>
-                </c:pt>
-                <c:pt idx="878">
-                  <c:v>7360.9981508436904</c:v>
-                </c:pt>
-                <c:pt idx="879">
-                  <c:v>7372.3188602053997</c:v>
-                </c:pt>
-                <c:pt idx="880">
-                  <c:v>7383.6078658218803</c:v>
-                </c:pt>
-                <c:pt idx="881">
-                  <c:v>7394.8651116041801</c:v>
-                </c:pt>
-                <c:pt idx="882">
-                  <c:v>7406.09054284389</c:v>
-                </c:pt>
-                <c:pt idx="883">
-                  <c:v>7417.2841062086</c:v>
-                </c:pt>
-                <c:pt idx="884">
-                  <c:v>7428.4457497372396</c:v>
-                </c:pt>
-                <c:pt idx="885">
-                  <c:v>7439.5754228353999</c:v>
-                </c:pt>
-                <c:pt idx="886">
-                  <c:v>7450.6730762704601</c:v>
-                </c:pt>
-                <c:pt idx="887">
-                  <c:v>7461.7386621667301</c:v>
-                </c:pt>
-                <c:pt idx="888">
-                  <c:v>7472.77213400039</c:v>
-                </c:pt>
-                <c:pt idx="889">
-                  <c:v>7483.7734465944604</c:v>
-                </c:pt>
-                <c:pt idx="890">
-                  <c:v>7494.7425561135997</c:v>
-                </c:pt>
-                <c:pt idx="891">
-                  <c:v>7505.6794200588502</c:v>
-                </c:pt>
-                <c:pt idx="892">
-                  <c:v>7516.5839972622898</c:v>
-                </c:pt>
-                <c:pt idx="893">
-                  <c:v>7527.4562478815997</c:v>
-                </c:pt>
-                <c:pt idx="894">
-                  <c:v>7538.2961333945896</c:v>
-                </c:pt>
-                <c:pt idx="895">
-                  <c:v>7549.1036165935702</c:v>
-                </c:pt>
-                <c:pt idx="896">
-                  <c:v>7559.8786615796898</c:v>
-                </c:pt>
-                <c:pt idx="897">
-                  <c:v>7570.6212337572497</c:v>
-                </c:pt>
-                <c:pt idx="898">
-                  <c:v>7581.3312998278097</c:v>
-                </c:pt>
-                <c:pt idx="899">
-                  <c:v>7592.0088277843197</c:v>
-                </c:pt>
-                <c:pt idx="900">
-                  <c:v>7602.6537869051799</c:v>
-                </c:pt>
-                <c:pt idx="901">
-                  <c:v>7613.2661477481697</c:v>
-                </c:pt>
-                <c:pt idx="902">
-                  <c:v>7623.8458821443601</c:v>
-                </c:pt>
-                <c:pt idx="903">
-                  <c:v>7634.39296319192</c:v>
-                </c:pt>
-                <c:pt idx="904">
-                  <c:v>7644.9073652499001</c:v>
-                </c:pt>
-                <c:pt idx="905">
-                  <c:v>7655.3890639318697</c:v>
-                </c:pt>
-                <c:pt idx="906">
-                  <c:v>7665.8380360995798</c:v>
-                </c:pt>
-                <c:pt idx="907">
-                  <c:v>7676.2542598565396</c:v>
-                </c:pt>
-                <c:pt idx="908">
-                  <c:v>7686.6377145414599</c:v>
-                </c:pt>
-                <c:pt idx="909">
-                  <c:v>7696.9883807217302</c:v>
-                </c:pt>
-                <c:pt idx="910">
-                  <c:v>7707.3062401867801</c:v>
-                </c:pt>
-                <c:pt idx="911">
-                  <c:v>7717.5912759414095</c:v>
-                </c:pt>
-                <c:pt idx="912">
-                  <c:v>7727.8434721990598</c:v>
-                </c:pt>
-                <c:pt idx="913">
-                  <c:v>7738.06281437496</c:v>
-                </c:pt>
-                <c:pt idx="914">
-                  <c:v>7748.2492890793801</c:v>
-                </c:pt>
-                <c:pt idx="915">
-                  <c:v>7758.4028841106301</c:v>
-                </c:pt>
-                <c:pt idx="916">
-                  <c:v>7768.5235884481799</c:v>
-                </c:pt>
-                <c:pt idx="917">
-                  <c:v>7778.6113922456198</c:v>
-                </c:pt>
-                <c:pt idx="918">
-                  <c:v>7788.6662868236299</c:v>
-                </c:pt>
-                <c:pt idx="919">
-                  <c:v>7798.6882646628601</c:v>
-                </c:pt>
-                <c:pt idx="920">
-                  <c:v>7808.6773193968002</c:v>
-                </c:pt>
-                <c:pt idx="921">
-                  <c:v>7818.6334458045903</c:v>
-                </c:pt>
-                <c:pt idx="922">
-                  <c:v>7828.5566398037699</c:v>
-                </c:pt>
-                <c:pt idx="923">
-                  <c:v>7838.4468984430296</c:v>
-                </c:pt>
-                <c:pt idx="924">
-                  <c:v>7848.3042198948597</c:v>
-                </c:pt>
-                <c:pt idx="925">
-                  <c:v>7858.12860344823</c:v>
-                </c:pt>
-                <c:pt idx="926">
-                  <c:v>7867.9200495011601</c:v>
-                </c:pt>
-                <c:pt idx="927">
-                  <c:v>7877.6785595533001</c:v>
-                </c:pt>
-                <c:pt idx="928">
-                  <c:v>7887.40413619846</c:v>
-                </c:pt>
-                <c:pt idx="929">
-                  <c:v>7897.0967831171001</c:v>
-                </c:pt>
-                <c:pt idx="930">
-                  <c:v>7906.7565050687999</c:v>
-                </c:pt>
-                <c:pt idx="931">
-                  <c:v>7916.3833078847001</c:v>
-                </c:pt>
-                <c:pt idx="932">
-                  <c:v>7925.9771984598401</c:v>
-                </c:pt>
-                <c:pt idx="933">
-                  <c:v>7935.5381847456101</c:v>
-                </c:pt>
-                <c:pt idx="934">
-                  <c:v>7945.0662757420296</c:v>
-                </c:pt>
-                <c:pt idx="935">
-                  <c:v>7954.56148149008</c:v>
-                </c:pt>
-                <c:pt idx="936">
-                  <c:v>7964.02381306396</c:v>
-                </c:pt>
-                <c:pt idx="937">
-                  <c:v>7973.4532825634196</c:v>
-                </c:pt>
-                <c:pt idx="938">
-                  <c:v>7982.84990310589</c:v>
-                </c:pt>
-                <c:pt idx="939">
-                  <c:v>7992.2136888187897</c:v>
-                </c:pt>
-                <c:pt idx="940">
-                  <c:v>8001.5446548316504</c:v>
-                </c:pt>
-                <c:pt idx="941">
-                  <c:v>8010.8428172683298</c:v>
-                </c:pt>
-                <c:pt idx="942">
-                  <c:v>8020.1081932391198</c:v>
-                </c:pt>
-                <c:pt idx="943">
-                  <c:v>8029.3408008329097</c:v>
-                </c:pt>
-                <c:pt idx="944">
-                  <c:v>8038.5406591092897</c:v>
-                </c:pt>
-                <c:pt idx="945">
-                  <c:v>8047.70778809064</c:v>
-                </c:pt>
-                <c:pt idx="946">
-                  <c:v>8056.8422087542303</c:v>
-                </c:pt>
-                <c:pt idx="947">
-                  <c:v>8065.9439430242801</c:v>
-                </c:pt>
-                <c:pt idx="948">
-                  <c:v>8075.0130137639899</c:v>
-                </c:pt>
-                <c:pt idx="949">
-                  <c:v>8084.0494447676301</c:v>
-                </c:pt>
-                <c:pt idx="950">
-                  <c:v>8093.0532607525402</c:v>
-                </c:pt>
-                <c:pt idx="951">
-                  <c:v>8102.0244873511501</c:v>
-                </c:pt>
-                <c:pt idx="952">
-                  <c:v>8110.9631511030302</c:v>
-                </c:pt>
-                <c:pt idx="953">
-                  <c:v>8119.8692794468398</c:v>
-                </c:pt>
-                <c:pt idx="954">
-                  <c:v>8128.7429007123701</c:v>
-                </c:pt>
-                <c:pt idx="955">
-                  <c:v>8137.5840441125301</c:v>
-                </c:pt>
-                <c:pt idx="956">
-                  <c:v>8146.39273973532</c:v>
-                </c:pt>
-                <c:pt idx="957">
-                  <c:v>8155.1690185358202</c:v>
-                </c:pt>
-                <c:pt idx="958">
-                  <c:v>8163.9129123282</c:v>
-                </c:pt>
-                <c:pt idx="959">
-                  <c:v>8172.6244537776502</c:v>
-                </c:pt>
-                <c:pt idx="960">
-                  <c:v>8181.3036763923901</c:v>
-                </c:pt>
-                <c:pt idx="961">
-                  <c:v>8189.9506145156502</c:v>
-                </c:pt>
-                <c:pt idx="962">
-                  <c:v>8198.5653033176404</c:v>
-                </c:pt>
-                <c:pt idx="963">
-                  <c:v>8207.1477787875392</c:v>
-                </c:pt>
-                <c:pt idx="964">
-                  <c:v>8215.6980777254703</c:v>
-                </c:pt>
-                <c:pt idx="965">
-                  <c:v>8224.2162377344903</c:v>
-                </c:pt>
-                <c:pt idx="966">
-                  <c:v>8232.7022972125997</c:v>
-                </c:pt>
-                <c:pt idx="967">
-                  <c:v>8241.1562953446992</c:v>
-                </c:pt>
-                <c:pt idx="968">
-                  <c:v>8249.5782720946609</c:v>
-                </c:pt>
-                <c:pt idx="969">
-                  <c:v>8257.9682681972699</c:v>
-                </c:pt>
-                <c:pt idx="970">
-                  <c:v>8266.3263251502703</c:v>
-                </c:pt>
-                <c:pt idx="971">
-                  <c:v>8274.6524852064194</c:v>
-                </c:pt>
-                <c:pt idx="972">
-                  <c:v>8282.9467913654807</c:v>
-                </c:pt>
-                <c:pt idx="973">
-                  <c:v>8291.2092873663205</c:v>
-                </c:pt>
-                <c:pt idx="974">
-                  <c:v>8299.4400176789004</c:v>
-                </c:pt>
-                <c:pt idx="975">
-                  <c:v>8307.6390274964197</c:v>
-                </c:pt>
-                <c:pt idx="976">
-                  <c:v>8315.8063627273605</c:v>
-                </c:pt>
-                <c:pt idx="977">
-                  <c:v>8323.94206998759</c:v>
-                </c:pt>
-                <c:pt idx="978">
-                  <c:v>8332.0461965924696</c:v>
-                </c:pt>
-                <c:pt idx="979">
-                  <c:v>8340.1187905489896</c:v>
-                </c:pt>
-                <c:pt idx="980">
-                  <c:v>8348.1599005479093</c:v>
-                </c:pt>
-                <c:pt idx="981">
-                  <c:v>8356.1695759559207</c:v>
-                </c:pt>
-                <c:pt idx="982">
-                  <c:v>8364.1478668078198</c:v>
-                </c:pt>
-                <c:pt idx="983">
-                  <c:v>8372.0948237986795</c:v>
-                </c:pt>
-                <c:pt idx="984">
-                  <c:v>8380.0104982761095</c:v>
-                </c:pt>
-                <c:pt idx="985">
-                  <c:v>8387.8949422324495</c:v>
-                </c:pt>
-                <c:pt idx="986">
-                  <c:v>8395.74820829702</c:v>
-                </c:pt>
-                <c:pt idx="987">
-                  <c:v>8403.5703497284303</c:v>
-                </c:pt>
-                <c:pt idx="988">
-                  <c:v>8411.3614204068199</c:v>
-                </c:pt>
-                <c:pt idx="989">
-                  <c:v>8419.1214748262391</c:v>
-                </c:pt>
-                <c:pt idx="990">
-                  <c:v>8426.8505680869093</c:v>
-                </c:pt>
-                <c:pt idx="991">
-                  <c:v>8434.5487558876503</c:v>
-                </c:pt>
-                <c:pt idx="992">
-                  <c:v>8442.2160945182295</c:v>
-                </c:pt>
-                <c:pt idx="993">
-                  <c:v>8449.8526408517791</c:v>
-                </c:pt>
-                <c:pt idx="994">
-                  <c:v>8457.4584523372196</c:v>
-                </c:pt>
-                <c:pt idx="995">
-                  <c:v>8465.0335869917399</c:v>
-                </c:pt>
-                <c:pt idx="996">
-                  <c:v>8472.5781033932599</c:v>
-                </c:pt>
-                <c:pt idx="997">
-                  <c:v>8480.0920606729596</c:v>
-                </c:pt>
-                <c:pt idx="998">
-                  <c:v>8487.5755185077996</c:v>
-                </c:pt>
-                <c:pt idx="999">
-                  <c:v>8495.0285371130994</c:v>
-                </c:pt>
-                <c:pt idx="1000">
-                  <c:v>8502.4511772351198</c:v>
-                </c:pt>
-                <c:pt idx="1001">
-                  <c:v>8509.8435001436992</c:v>
-                </c:pt>
-                <c:pt idx="1002">
-                  <c:v>8517.2055676248801</c:v>
-                </c:pt>
-                <c:pt idx="1003">
-                  <c:v>8524.5374419736199</c:v>
-                </c:pt>
-                <c:pt idx="1004">
-                  <c:v>8531.8391859864896</c:v>
-                </c:pt>
-                <c:pt idx="1005">
-                  <c:v>8539.1108629543996</c:v>
-                </c:pt>
-                <c:pt idx="1006">
-                  <c:v>8546.3525366553895</c:v>
-                </c:pt>
-                <c:pt idx="1007">
-                  <c:v>8553.5642713474208</c:v>
-                </c:pt>
-                <c:pt idx="1008">
-                  <c:v>8560.7461317612197</c:v>
-                </c:pt>
-                <c:pt idx="1009">
-                  <c:v>8567.8981830931498</c:v>
-                </c:pt>
-                <c:pt idx="1010">
-                  <c:v>8575.0204909980694</c:v>
-                </c:pt>
-                <c:pt idx="1011">
-                  <c:v>8582.1131215823298</c:v>
-                </c:pt>
-                <c:pt idx="1012">
-                  <c:v>8589.1761413966797</c:v>
-                </c:pt>
-                <c:pt idx="1013">
-                  <c:v>8596.2096174293201</c:v>
-                </c:pt>
-                <c:pt idx="1014">
-                  <c:v>8603.2136170988906</c:v>
-                </c:pt>
-                <c:pt idx="1015">
-                  <c:v>8610.1882082475495</c:v>
-                </c:pt>
-                <c:pt idx="1016">
-                  <c:v>8617.1334591340892</c:v>
-                </c:pt>
-                <c:pt idx="1017">
-                  <c:v>8624.0494384271005</c:v>
-                </c:pt>
-                <c:pt idx="1018">
-                  <c:v>8630.9362151980495</c:v>
-                </c:pt>
-                <c:pt idx="1019">
-                  <c:v>8637.7938589146106</c:v>
-                </c:pt>
-                <c:pt idx="1020">
-                  <c:v>8644.6224394338296</c:v>
-                </c:pt>
-                <c:pt idx="1021">
-                  <c:v>8651.4220269954094</c:v>
-                </c:pt>
-                <c:pt idx="1022">
-                  <c:v>8658.1926922150797</c:v>
-                </c:pt>
-                <c:pt idx="1023">
-                  <c:v>8664.9345060778996</c:v>
-                </c:pt>
-                <c:pt idx="1024">
-                  <c:v>8671.6475399316896</c:v>
-                </c:pt>
-                <c:pt idx="1025">
-                  <c:v>8678.3318654804207</c:v>
-                </c:pt>
-                <c:pt idx="1026">
-                  <c:v>8684.9875547777192</c:v>
-                </c:pt>
-                <c:pt idx="1027">
-                  <c:v>8691.6146802203493</c:v>
-                </c:pt>
-                <c:pt idx="1028">
-                  <c:v>8698.2133145417993</c:v>
-                </c:pt>
-                <c:pt idx="1029">
-                  <c:v>8704.7835308058002</c:v>
-                </c:pt>
-                <c:pt idx="1030">
-                  <c:v>8711.3254023999907</c:v>
-                </c:pt>
-                <c:pt idx="1031">
-                  <c:v>8717.8390030295704</c:v>
-                </c:pt>
-                <c:pt idx="1032">
-                  <c:v>8724.3244067109899</c:v>
-                </c:pt>
-                <c:pt idx="1033">
-                  <c:v>8730.7816877657297</c:v>
-                </c:pt>
-                <c:pt idx="1034">
-                  <c:v>8737.21092081401</c:v>
-                </c:pt>
-                <c:pt idx="1035">
-                  <c:v>8743.6121807686795</c:v>
-                </c:pt>
-                <c:pt idx="1036">
-                  <c:v>8749.9855428290193</c:v>
-                </c:pt>
-                <c:pt idx="1037">
-                  <c:v>8756.3310824746895</c:v>
-                </c:pt>
-                <c:pt idx="1038">
-                  <c:v>8762.6488754596303</c:v>
-                </c:pt>
-                <c:pt idx="1039">
-                  <c:v>8768.9389978060499</c:v>
-                </c:pt>
-                <c:pt idx="1040">
-                  <c:v>8775.2015257984895</c:v>
-                </c:pt>
-                <c:pt idx="1041">
-                  <c:v>8781.4365359778094</c:v>
-                </c:pt>
-                <c:pt idx="1042">
-                  <c:v>8787.6441051353504</c:v>
-                </c:pt>
-                <c:pt idx="1043">
-                  <c:v>8793.8243103070399</c:v>
-                </c:pt>
-                <c:pt idx="1044">
-                  <c:v>8799.9772287676205</c:v>
-                </c:pt>
-                <c:pt idx="1045">
-                  <c:v>8806.1029380248292</c:v>
-                </c:pt>
-                <c:pt idx="1046">
-                  <c:v>8812.2015158136801</c:v>
-                </c:pt>
-                <c:pt idx="1047">
-                  <c:v>8818.2730400907894</c:v>
-                </c:pt>
-                <c:pt idx="1048">
-                  <c:v>8824.3175890287093</c:v>
-                </c:pt>
-                <c:pt idx="1049">
-                  <c:v>8830.3352410103107</c:v>
-                </c:pt>
-                <c:pt idx="1050">
-                  <c:v>8836.3260746232409</c:v>
-                </c:pt>
-                <c:pt idx="1051">
-                  <c:v>8842.2901686543792</c:v>
-                </c:pt>
-                <c:pt idx="1052">
-                  <c:v>8848.2276020843801</c:v>
-                </c:pt>
-                <c:pt idx="1053">
-                  <c:v>8854.13845408218</c:v>
-                </c:pt>
-                <c:pt idx="1054">
-                  <c:v>8860.02280399964</c:v>
-                </c:pt>
-                <c:pt idx="1055">
-                  <c:v>8865.8807313662091</c:v>
-                </c:pt>
-                <c:pt idx="1056">
-                  <c:v>8871.7123158835402</c:v>
-                </c:pt>
-                <c:pt idx="1057">
-                  <c:v>8877.5176374202802</c:v>
-                </c:pt>
-                <c:pt idx="1058">
-                  <c:v>8883.2967760067895</c:v>
-                </c:pt>
-                <c:pt idx="1059">
-                  <c:v>8889.0498118300093</c:v>
-                </c:pt>
-                <c:pt idx="1060">
-                  <c:v>8894.7768252282494</c:v>
-                </c:pt>
-                <c:pt idx="1061">
-                  <c:v>8900.4778966861395</c:v>
-                </c:pt>
-                <c:pt idx="1062">
-                  <c:v>8906.1531068295408</c:v>
-                </c:pt>
-                <c:pt idx="1063">
-                  <c:v>8911.8025364205096</c:v>
-                </c:pt>
-                <c:pt idx="1064">
-                  <c:v>8917.4262663523696</c:v>
-                </c:pt>
-                <c:pt idx="1065">
-                  <c:v>8923.0243776447096</c:v>
-                </c:pt>
-                <c:pt idx="1066">
-                  <c:v>8928.5969514385306</c:v>
-                </c:pt>
-                <c:pt idx="1067">
-                  <c:v>8934.1440689913998</c:v>
-                </c:pt>
-                <c:pt idx="1068">
-                  <c:v>8939.6658116726194</c:v>
-                </c:pt>
-                <c:pt idx="1069">
-                  <c:v>8945.1622609584392</c:v>
-                </c:pt>
-                <c:pt idx="1070">
-                  <c:v>8950.6334984273999</c:v>
-                </c:pt>
-                <c:pt idx="1071">
-                  <c:v>8956.0796057555708</c:v>
-                </c:pt>
-                <c:pt idx="1072">
-                  <c:v>8961.5006647119408</c:v>
-                </c:pt>
-                <c:pt idx="1073">
-                  <c:v>8966.8967571538305</c:v>
-                </c:pt>
-                <c:pt idx="1074">
-                  <c:v>8972.2679650223199</c:v>
-                </c:pt>
-                <c:pt idx="1075">
-                  <c:v>8977.6143703377202</c:v>
-                </c:pt>
-                <c:pt idx="1076">
-                  <c:v>8982.9360551950995</c:v>
-                </c:pt>
-                <c:pt idx="1077">
-                  <c:v>8988.2331017598899</c:v>
-                </c:pt>
-                <c:pt idx="1078">
-                  <c:v>8993.5055922634292</c:v>
-                </c:pt>
-                <c:pt idx="1079">
-                  <c:v>8998.7536089986497</c:v>
-                </c:pt>
-                <c:pt idx="1080">
-                  <c:v>9003.9772343157692</c:v>
-                </c:pt>
-                <c:pt idx="1081">
-                  <c:v>9009.1765506180109</c:v>
-                </c:pt>
-                <c:pt idx="1082">
-                  <c:v>9014.3516403573594</c:v>
-                </c:pt>
-                <c:pt idx="1083">
-                  <c:v>9019.5025860304304</c:v>
-                </c:pt>
-                <c:pt idx="1084">
-                  <c:v>9024.6294701742499</c:v>
-                </c:pt>
-                <c:pt idx="1085">
-                  <c:v>9029.7323753622095</c:v>
-                </c:pt>
-                <c:pt idx="1086">
-                  <c:v>9034.8113841999493</c:v>
-                </c:pt>
-                <c:pt idx="1087">
-                  <c:v>9039.8665793213895</c:v>
-                </c:pt>
-                <c:pt idx="1088">
-                  <c:v>9044.8980433847191</c:v>
-                </c:pt>
-                <c:pt idx="1089">
-                  <c:v>9049.9058590684399</c:v>
-                </c:pt>
-                <c:pt idx="1090">
-                  <c:v>9054.8901090674899</c:v>
-                </c:pt>
-                <c:pt idx="1091">
-                  <c:v>9059.8508760893692</c:v>
-                </c:pt>
-                <c:pt idx="1092">
-                  <c:v>9064.7882428502999</c:v>
-                </c:pt>
-                <c:pt idx="1093">
-                  <c:v>9069.7022920714699</c:v>
-                </c:pt>
-                <c:pt idx="1094">
-                  <c:v>9074.5931064753004</c:v>
-                </c:pt>
-                <c:pt idx="1095">
-                  <c:v>9079.4607687817006</c:v>
-                </c:pt>
-                <c:pt idx="1096">
-                  <c:v>9084.3053617044097</c:v>
-                </c:pt>
-                <c:pt idx="1097">
-                  <c:v>9089.1269679474408</c:v>
-                </c:pt>
-                <c:pt idx="1098">
-                  <c:v>9093.9256702013899</c:v>
-                </c:pt>
-                <c:pt idx="1099">
-                  <c:v>9098.7015511399604</c:v>
-                </c:pt>
-                <c:pt idx="1100">
-                  <c:v>9103.4546934164391</c:v>
-                </c:pt>
-                <c:pt idx="1101">
-                  <c:v>9108.1851796602296</c:v>
-                </c:pt>
-                <c:pt idx="1102">
-                  <c:v>9112.8930924734104</c:v>
-                </c:pt>
-                <c:pt idx="1103">
-                  <c:v>9117.5785144273395</c:v>
-                </c:pt>
-                <c:pt idx="1104">
-                  <c:v>9122.2415280593195</c:v>
-                </c:pt>
-                <c:pt idx="1105">
-                  <c:v>9126.8822158692892</c:v>
-                </c:pt>
-                <c:pt idx="1106">
-                  <c:v>9131.5006603165002</c:v>
-                </c:pt>
-                <c:pt idx="1107">
-                  <c:v>9136.0969438163193</c:v>
-                </c:pt>
-                <c:pt idx="1108">
-                  <c:v>9140.6711487369994</c:v>
-                </c:pt>
-                <c:pt idx="1109">
-                  <c:v>9145.2233573965495</c:v>
-                </c:pt>
-                <c:pt idx="1110">
-                  <c:v>9149.7536520595604</c:v>
-                </c:pt>
-                <c:pt idx="1111">
-                  <c:v>9154.2621149341503</c:v>
-                </c:pt>
-                <c:pt idx="1112">
-                  <c:v>9158.7488281688893</c:v>
-                </c:pt>
-                <c:pt idx="1113">
-                  <c:v>9163.2138738497797</c:v>
-                </c:pt>
-                <c:pt idx="1114">
-                  <c:v>9167.6573339973202</c:v>
-                </c:pt>
-                <c:pt idx="1115">
-                  <c:v>9172.0792905634808</c:v>
-                </c:pt>
-                <c:pt idx="1116">
-                  <c:v>9176.4798254288598</c:v>
-                </c:pt>
-                <c:pt idx="1117">
-                  <c:v>9180.8590203997792</c:v>
-                </c:pt>
-                <c:pt idx="1118">
-                  <c:v>9185.2169572054809</c:v>
-                </c:pt>
-                <c:pt idx="1119">
-                  <c:v>9189.5537174952606</c:v>
-                </c:pt>
-                <c:pt idx="1120">
-                  <c:v>9193.8693828357791</c:v>
-                </c:pt>
-                <c:pt idx="1121">
-                  <c:v>9198.1640347082794</c:v>
-                </c:pt>
-                <c:pt idx="1122">
-                  <c:v>9202.4377545058906</c:v>
-                </c:pt>
-                <c:pt idx="1123">
-                  <c:v>9206.6906235310107</c:v>
-                </c:pt>
-                <c:pt idx="1124">
-                  <c:v>9210.9227229926291</c:v>
-                </c:pt>
-                <c:pt idx="1125">
-                  <c:v>9215.1341340037507</c:v>
-                </c:pt>
-                <c:pt idx="1126">
-                  <c:v>9219.32493757886</c:v>
-                </c:pt>
-                <c:pt idx="1127">
-                  <c:v>9223.4952146313608</c:v>
-                </c:pt>
-                <c:pt idx="1128">
-                  <c:v>9227.6450459711104</c:v>
-                </c:pt>
-                <c:pt idx="1129">
-                  <c:v>9231.7745123019504</c:v>
-                </c:pt>
-                <c:pt idx="1130">
-                  <c:v>9235.8836942192902</c:v>
-                </c:pt>
-                <c:pt idx="1131">
-                  <c:v>9239.9726722076994</c:v>
-                </c:pt>
-                <c:pt idx="1132">
-                  <c:v>9244.0415266386008</c:v>
-                </c:pt>
-                <c:pt idx="1133">
-                  <c:v>9248.0903377678496</c:v>
-                </c:pt>
-                <c:pt idx="1134">
-                  <c:v>9252.1191857335398</c:v>
-                </c:pt>
-                <c:pt idx="1135">
-                  <c:v>9256.1281505537008</c:v>
-                </c:pt>
-                <c:pt idx="1136">
-                  <c:v>9260.1173121240499</c:v>
-                </c:pt>
-                <c:pt idx="1137">
-                  <c:v>9264.0867502158399</c:v>
-                </c:pt>
-                <c:pt idx="1138">
-                  <c:v>9268.0365444736399</c:v>
-                </c:pt>
-                <c:pt idx="1139">
-                  <c:v>9271.9667744132803</c:v>
-                </c:pt>
-                <c:pt idx="1140">
-                  <c:v>9275.8775194196496</c:v>
-                </c:pt>
-                <c:pt idx="1141">
-                  <c:v>9279.7688587447192</c:v>
-                </c:pt>
-                <c:pt idx="1142">
-                  <c:v>9283.6408715054404</c:v>
-                </c:pt>
-                <c:pt idx="1143">
-                  <c:v>9287.4936366817492</c:v>
-                </c:pt>
-                <c:pt idx="1144">
-                  <c:v>9291.3272331146309</c:v>
-                </c:pt>
-                <c:pt idx="1145">
-                  <c:v>9295.1417395040808</c:v>
-                </c:pt>
-                <c:pt idx="1146">
-                  <c:v>9298.9372344072799</c:v>
-                </c:pt>
-                <c:pt idx="1147">
-                  <c:v>9302.7137962366396</c:v>
-                </c:pt>
-                <c:pt idx="1148">
-                  <c:v>9306.4715032579697</c:v>
-                </c:pt>
-                <c:pt idx="1149">
-                  <c:v>9310.2104335886506</c:v>
-                </c:pt>
-                <c:pt idx="1150">
-                  <c:v>9313.9306651958104</c:v>
-                </c:pt>
-                <c:pt idx="1151">
-                  <c:v>9317.6322758945807</c:v>
-                </c:pt>
-                <c:pt idx="1152">
-                  <c:v>9321.3153433463303</c:v>
-                </c:pt>
-                <c:pt idx="1153">
-                  <c:v>9324.9799450569608</c:v>
-                </c:pt>
-                <c:pt idx="1154">
-                  <c:v>9328.6261583752093</c:v>
-                </c:pt>
-                <c:pt idx="1155">
-                  <c:v>9332.2540604909991</c:v>
-                </c:pt>
-                <c:pt idx="1156">
-                  <c:v>9335.8637284338001</c:v>
-                </c:pt>
-                <c:pt idx="1157">
-                  <c:v>9339.4552390710505</c:v>
-                </c:pt>
-                <c:pt idx="1158">
-                  <c:v>9343.0286691065303</c:v>
-                </c:pt>
-                <c:pt idx="1159">
-                  <c:v>9346.5840950788406</c:v>
-                </c:pt>
-                <c:pt idx="1160">
-                  <c:v>9350.1215933598996</c:v>
-                </c:pt>
-                <c:pt idx="1161">
-                  <c:v>9353.6412401534308</c:v>
-                </c:pt>
-                <c:pt idx="1162">
-                  <c:v>9357.1431114934494</c:v>
-                </c:pt>
-                <c:pt idx="1163">
-                  <c:v>9360.6272832429095</c:v>
-                </c:pt>
-                <c:pt idx="1164">
-                  <c:v>9364.0938310922102</c:v>
-                </c:pt>
-                <c:pt idx="1165">
-                  <c:v>9367.5428305578298</c:v>
-                </c:pt>
-                <c:pt idx="1166">
-                  <c:v>9370.9743569809798</c:v>
-                </c:pt>
-                <c:pt idx="1167">
-                  <c:v>9374.3884855262204</c:v>
-                </c:pt>
-                <c:pt idx="1168">
-                  <c:v>9377.7852911802001</c:v>
-                </c:pt>
-                <c:pt idx="1169">
-                  <c:v>9381.1648487503207</c:v>
-                </c:pt>
-                <c:pt idx="1170">
-                  <c:v>9384.5272328634892</c:v>
-                </c:pt>
-                <c:pt idx="1171">
-                  <c:v>9387.87251796487</c:v>
-                </c:pt>
-                <c:pt idx="1172">
-                  <c:v>9391.2007783166991</c:v>
-                </c:pt>
-                <c:pt idx="1173">
-                  <c:v>9394.5120879970309</c:v>
-                </c:pt>
-                <c:pt idx="1174">
-                  <c:v>9397.80652089865</c:v>
-                </c:pt>
-                <c:pt idx="1175">
-                  <c:v>9401.0841507278401</c:v>
-                </c:pt>
-                <c:pt idx="1176">
-                  <c:v>9404.3450510033308</c:v>
-                </c:pt>
-                <c:pt idx="1177">
-                  <c:v>9407.5892950551697</c:v>
-                </c:pt>
-                <c:pt idx="1178">
-                  <c:v>9410.8169560236602</c:v>
-                </c:pt>
-                <c:pt idx="1179">
-                  <c:v>9414.0281068582808</c:v>
-                </c:pt>
-                <c:pt idx="1180">
-                  <c:v>9417.2228203166906</c:v>
-                </c:pt>
-                <c:pt idx="1181">
-                  <c:v>9420.4011689637191</c:v>
-                </c:pt>
-                <c:pt idx="1182">
-                  <c:v>9423.5632251703501</c:v>
-                </c:pt>
-                <c:pt idx="1183">
-                  <c:v>9426.7090611127896</c:v>
-                </c:pt>
-                <c:pt idx="1184">
-                  <c:v>9429.8387487715208</c:v>
-                </c:pt>
-                <c:pt idx="1185">
-                  <c:v>9432.9523599303793</c:v>
-                </c:pt>
-                <c:pt idx="1186">
-                  <c:v>9436.0499661756494</c:v>
-                </c:pt>
-                <c:pt idx="1187">
-                  <c:v>9439.1316388952</c:v>
-                </c:pt>
-                <c:pt idx="1188">
-                  <c:v>9442.1974492776208</c:v>
-                </c:pt>
-                <c:pt idx="1189">
-                  <c:v>9445.2474683113996</c:v>
-                </c:pt>
-                <c:pt idx="1190">
-                  <c:v>9448.2817667840809</c:v>
-                </c:pt>
-                <c:pt idx="1191">
-                  <c:v>9451.3004152815101</c:v>
-                </c:pt>
-                <c:pt idx="1192">
-                  <c:v>9454.3034841870394</c:v>
-                </c:pt>
-                <c:pt idx="1193">
-                  <c:v>9457.2910436807597</c:v>
-                </c:pt>
-                <c:pt idx="1194">
-                  <c:v>9460.2631637388004</c:v>
-                </c:pt>
-                <c:pt idx="1195">
-                  <c:v>9463.2199141325891</c:v>
-                </c:pt>
-                <c:pt idx="1196">
-                  <c:v>9466.1613644281806</c:v>
-                </c:pt>
-                <c:pt idx="1197">
-                  <c:v>9469.0875839855398</c:v>
-                </c:pt>
-                <c:pt idx="1198">
-                  <c:v>9471.9986419579509</c:v>
-                </c:pt>
-                <c:pt idx="1199">
-                  <c:v>9474.8946072913095</c:v>
-                </c:pt>
-                <c:pt idx="1200">
-                  <c:v>9477.7755487235609</c:v>
-                </c:pt>
-                <c:pt idx="1201">
-                  <c:v>9480.6415347840593</c:v>
-                </c:pt>
-                <c:pt idx="1202">
-                  <c:v>9483.4926337929992</c:v>
-                </c:pt>
-                <c:pt idx="1203">
-                  <c:v>9486.3289138608907</c:v>
-                </c:pt>
-                <c:pt idx="1204">
-                  <c:v>9489.1504428879307</c:v>
-                </c:pt>
-                <c:pt idx="1205">
-                  <c:v>9491.9572885635407</c:v>
-                </c:pt>
-                <c:pt idx="1206">
-                  <c:v>9494.7495183658502</c:v>
-                </c:pt>
-                <c:pt idx="1207">
-                  <c:v>9497.5271995611802</c:v>
-                </c:pt>
-                <c:pt idx="1208">
-                  <c:v>9500.2903992035608</c:v>
-                </c:pt>
-                <c:pt idx="1209">
-                  <c:v>9503.0391841343098</c:v>
-                </c:pt>
-                <c:pt idx="1210">
-                  <c:v>9505.7736209815503</c:v>
-                </c:pt>
-                <c:pt idx="1211">
-                  <c:v>9508.4937761598103</c:v>
-                </c:pt>
-                <c:pt idx="1212">
-                  <c:v>9511.1997158696195</c:v>
-                </c:pt>
-                <c:pt idx="1213">
-                  <c:v>9513.8915060970703</c:v>
-                </c:pt>
-                <c:pt idx="1214">
-                  <c:v>9516.5692126134909</c:v>
-                </c:pt>
-                <c:pt idx="1215">
-                  <c:v>9519.2329009750592</c:v>
-                </c:pt>
-                <c:pt idx="1216">
-                  <c:v>9521.8826365224704</c:v>
-                </c:pt>
-                <c:pt idx="1217">
-                  <c:v>9524.5184843805691</c:v>
-                </c:pt>
-                <c:pt idx="1218">
-                  <c:v>9527.1405094581096</c:v>
-                </c:pt>
-                <c:pt idx="1219">
-                  <c:v>9529.7487764473699</c:v>
-                </c:pt>
-                <c:pt idx="1220">
-                  <c:v>9532.3433498239192</c:v>
-                </c:pt>
-                <c:pt idx="1221">
-                  <c:v>9534.9242938463503</c:v>
-                </c:pt>
-                <c:pt idx="1222">
-                  <c:v>9537.4916725559797</c:v>
-                </c:pt>
-                <c:pt idx="1223">
-                  <c:v>9540.0455497766707</c:v>
-                </c:pt>
-                <c:pt idx="1224">
-                  <c:v>9542.5859891145501</c:v>
-                </c:pt>
-                <c:pt idx="1225">
-                  <c:v>9545.1130539578207</c:v>
-                </c:pt>
-                <c:pt idx="1226">
-                  <c:v>9547.6268074765703</c:v>
-                </c:pt>
-                <c:pt idx="1227">
-                  <c:v>9550.1273126225606</c:v>
-                </c:pt>
-                <c:pt idx="1228">
-                  <c:v>9552.6146321290798</c:v>
-                </c:pt>
-                <c:pt idx="1229">
-                  <c:v>9555.0888285107994</c:v>
-                </c:pt>
-                <c:pt idx="1230">
-                  <c:v>9557.5499640635808</c:v>
-                </c:pt>
-                <c:pt idx="1231">
-                  <c:v>9559.9981008643808</c:v>
-                </c:pt>
-                <c:pt idx="1232">
-                  <c:v>9562.4333007711302</c:v>
-                </c:pt>
-                <c:pt idx="1233">
-                  <c:v>9564.8556254226205</c:v>
-                </c:pt>
-                <c:pt idx="1234">
-                  <c:v>9567.2651362384004</c:v>
-                </c:pt>
-                <c:pt idx="1235">
-                  <c:v>9569.6618944187394</c:v>
-                </c:pt>
-                <c:pt idx="1236">
-                  <c:v>9572.0459609445006</c:v>
-                </c:pt>
-                <c:pt idx="1237">
-                  <c:v>9574.4173965771406</c:v>
-                </c:pt>
-                <c:pt idx="1238">
-                  <c:v>9576.7762618586203</c:v>
-                </c:pt>
-                <c:pt idx="1239">
-                  <c:v>9579.1226171113994</c:v>
-                </c:pt>
-                <c:pt idx="1240">
-                  <c:v>9581.4565224384205</c:v>
-                </c:pt>
-                <c:pt idx="1241">
-                  <c:v>9583.7780377230902</c:v>
-                </c:pt>
-                <c:pt idx="1242">
-                  <c:v>9586.0872226292595</c:v>
-                </c:pt>
-                <c:pt idx="1243">
-                  <c:v>9588.3841366013003</c:v>
-                </c:pt>
-                <c:pt idx="1244">
-                  <c:v>9590.6688388640596</c:v>
-                </c:pt>
-                <c:pt idx="1245">
-                  <c:v>9592.9413884229707</c:v>
-                </c:pt>
-                <c:pt idx="1246">
-                  <c:v>9595.2018440640095</c:v>
-                </c:pt>
-                <c:pt idx="1247">
-                  <c:v>9597.4502643538599</c:v>
-                </c:pt>
-                <c:pt idx="1248">
-                  <c:v>9599.6867076398703</c:v>
-                </c:pt>
-                <c:pt idx="1249">
-                  <c:v>9601.9112320502409</c:v>
-                </c:pt>
-                <c:pt idx="1250">
-                  <c:v>9604.1238954940309</c:v>
-                </c:pt>
-                <c:pt idx="1251">
-                  <c:v>9606.3247556613096</c:v>
-                </c:pt>
-                <c:pt idx="1252">
-                  <c:v>9608.5138700232201</c:v>
-                </c:pt>
-                <c:pt idx="1253">
-                  <c:v>9610.69129583215</c:v>
-                </c:pt>
-                <c:pt idx="1254">
-                  <c:v>9612.8570901218409</c:v>
-                </c:pt>
-                <c:pt idx="1255">
-                  <c:v>9615.0113097074991</c:v>
-                </c:pt>
-                <c:pt idx="1256">
-                  <c:v>9617.1540111859904</c:v>
-                </c:pt>
-                <c:pt idx="1257">
-                  <c:v>9619.28525093596</c:v>
-                </c:pt>
-                <c:pt idx="1258">
-                  <c:v>9621.40508511804</c:v>
-                </c:pt>
-                <c:pt idx="1259">
-                  <c:v>9623.5135696749803</c:v>
-                </c:pt>
-                <c:pt idx="1260">
-                  <c:v>9625.6107603318505</c:v>
-                </c:pt>
-                <c:pt idx="1261">
-                  <c:v>9627.6967125962601</c:v>
-                </c:pt>
-                <c:pt idx="1262">
-                  <c:v>9629.7714817585402</c:v>
-                </c:pt>
-                <c:pt idx="1263">
-                  <c:v>9631.83512289194</c:v>
-                </c:pt>
-                <c:pt idx="1264">
-                  <c:v>9633.8876908528691</c:v>
-                </c:pt>
-                <c:pt idx="1265">
-                  <c:v>9635.9292402811097</c:v>
-                </c:pt>
-                <c:pt idx="1266">
-                  <c:v>9637.95982560009</c:v>
-                </c:pt>
-                <c:pt idx="1267">
-                  <c:v>9639.9795010170601</c:v>
-                </c:pt>
-                <c:pt idx="1268">
-                  <c:v>9641.98832052342</c:v>
-                </c:pt>
-                <c:pt idx="1269">
-                  <c:v>9643.9863378949194</c:v>
-                </c:pt>
-                <c:pt idx="1270">
-                  <c:v>9645.9736066919704</c:v>
-                </c:pt>
-                <c:pt idx="1271">
-                  <c:v>9647.9501802598897</c:v>
-                </c:pt>
-                <c:pt idx="1272">
-                  <c:v>9649.9161117292006</c:v>
-                </c:pt>
-                <c:pt idx="1273">
-                  <c:v>9651.8714540159199</c:v>
-                </c:pt>
-                <c:pt idx="1274">
-                  <c:v>9653.8162598218496</c:v>
-                </c:pt>
-                <c:pt idx="1275">
-                  <c:v>9655.7505816348894</c:v>
-                </c:pt>
-                <c:pt idx="1276">
-                  <c:v>9657.6744717293495</c:v>
-                </c:pt>
-                <c:pt idx="1277">
-                  <c:v>9659.5879821662693</c:v>
-                </c:pt>
-                <c:pt idx="1278">
-                  <c:v>9661.4911647937097</c:v>
-                </c:pt>
-                <c:pt idx="1279">
-                  <c:v>9663.3840712471501</c:v>
-                </c:pt>
-                <c:pt idx="1280">
-                  <c:v>9665.2667529497794</c:v>
-                </c:pt>
-                <c:pt idx="1281">
-                  <c:v>9667.1392611128504</c:v>
-                </c:pt>
-                <c:pt idx="1282">
-                  <c:v>9669.0016467360401</c:v>
-                </c:pt>
-                <c:pt idx="1283">
-                  <c:v>9670.8539606077793</c:v>
-                </c:pt>
-                <c:pt idx="1284">
-                  <c:v>9672.6962533056994</c:v>
-                </c:pt>
-                <c:pt idx="1285">
-                  <c:v>9674.5285751968695</c:v>
-                </c:pt>
-                <c:pt idx="1286">
-                  <c:v>9676.3509764382907</c:v>
-                </c:pt>
-                <c:pt idx="1287">
-                  <c:v>9678.1635069772401</c:v>
-                </c:pt>
-                <c:pt idx="1288">
-                  <c:v>9679.9662165516202</c:v>
-                </c:pt>
-                <c:pt idx="1289">
-                  <c:v>9681.7591546904005</c:v>
-                </c:pt>
-                <c:pt idx="1290">
-                  <c:v>9683.5423707140199</c:v>
-                </c:pt>
-                <c:pt idx="1291">
-                  <c:v>9685.3159137347393</c:v>
-                </c:pt>
-                <c:pt idx="1292">
-                  <c:v>9687.0798326571003</c:v>
-                </c:pt>
-                <c:pt idx="1293">
-                  <c:v>9688.8341761783195</c:v>
-                </c:pt>
-                <c:pt idx="1294">
-                  <c:v>9690.5789927887308</c:v>
-                </c:pt>
-                <c:pt idx="1295">
-                  <c:v>9692.3143307721493</c:v>
-                </c:pt>
-                <c:pt idx="1296">
-                  <c:v>9694.0402382064094</c:v>
-                </c:pt>
-                <c:pt idx="1297">
-                  <c:v>9695.7567629636796</c:v>
-                </c:pt>
-                <c:pt idx="1298">
-                  <c:v>9697.4639527109794</c:v>
-                </c:pt>
-                <c:pt idx="1299">
-                  <c:v>9699.1618549106206</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -12428,11 +8476,3949 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="595812704"/>
-        <c:axId val="595813248"/>
+        <c:axId val="-2129550448"/>
+        <c:axId val="-2129539568"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>sum!$C$1:$C$1300</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1300"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.00280504292495</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.0112403935454899</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.02533649772622</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.0451239526037197</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.0706335071832296</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.1018960629356496</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.1389426743953601</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8.1818045497579792</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9.2305130514789901</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10.285099696872299</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11.345596158709601</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12.412034265819299</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13.484446003686701</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14.5628635150535</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15.647319100518001</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16.7378452191356</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>17.834474489018799</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>18.937239687938298</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20.046173753923</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>21.161309785861199</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>22.2826810441011</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>23.4103209510513</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>24.544263091781598</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>25.6845412146236</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>26.8311892317708</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>27.984241219879301</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>29.1437314206674</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>30.309694241515501</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>31.4821642560659</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>32.6611762048217</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>33.846764995746</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>35.038965704859898</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>36.237813576841297</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>37.443344025621698</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>38.655592634983897</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>39.874595159157998</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>41.100387523417901</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>42.333005824676199</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>43.572486332079002</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>44.818865487599602</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>46.072179906632002</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>47.332466378582801</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>48.599761867463101</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>49.874103512478797</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>51.155528628619997</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>52.444074707250202</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>53.739779416693402</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>55.042680602820703</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>56.352816289635797</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>57.670224679858798</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>58.9949441555096</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>60.327013278488799</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>61.666470791158702</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>63.0133556169218</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>64.367706860797995</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>65.729563810001096</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>67.098965934512293</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>68.475952887653904</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>69.860564506659699</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>71.252840813244305</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>72.652822014171207</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>74.060548501817905</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>75.476060854740098</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>76.899399838233407</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>78.330606404893103</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>79.769721695171995</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>81.216787037936001</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>82.671843951017607</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>84.134934141766905</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>85.606099507600305</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>87.085382136547295</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>88.572824307794093</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>90.068468492225094</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>91.572357352961902</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>93.084533745899293</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>94.605040720238904</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>96.133921519019594</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>97.671219579645495</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>99.2169785344106</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>100.771242211021</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>102.334054633113</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>103.905460020771</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>105.485502791035</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>107.07422755841399</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>108.67167913539301</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>110.277902532928</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>111.892942960954</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>113.516845828873</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>115.149656746047</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>116.791421522291</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>118.442186168348</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>120.10199689637599</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>121.770900120421</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>123.44894245688801</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>125.136170725011</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>126.832631947316</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>128.538373350076</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>130.25344236377299</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>131.977886623541</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>133.71175396961399</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>135.455092447769</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>137.20795030975901</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>138.970376013747</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>140.742418224727</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>142.52412581495</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>144.315547864341</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>146.11673366090201</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>147.92773270112599</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>149.748594690392</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>151.57936954336</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>153.42010738436201</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>155.27085854778099</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>157.13167357843199</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>159.00260323192899</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>160.88369847505601</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>162.77501048611899</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>164.676590655306</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>166.58849058502599</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>168.51076209025501</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>170.44345719886499</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>172.38662815195499</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>174.34032740416501</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>176.30460762399599</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>178.27952169410901</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>180.265122711629</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>182.261463988435</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>184.26859905144201</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>186.286581642881</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>188.315465720567</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>190.35530545815999</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>192.406155245419</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>194.468069688448</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>196.541103609933</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>198.62531204937099</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>200.72075026329401</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>202.827473725479</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>204.94553812715199</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>207.07499937718501</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>209.215913602282</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>211.368337147159</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>213.53232657470599</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>215.707938666156</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>217.89523042122701</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>220.094259058266</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>222.30508201438201</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>224.52775694556399</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>226.76234172679401</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>229.00889445214901</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>231.26747343489001</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>233.538137207548</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>235.820944521988</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>238.115954349476</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>240.42322588072199</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>242.74281852592401</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>245.074791914792</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>247.41920589656499</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>249.77612054001801</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>252.14559613345401</c:v>
+                      </c:pt>
+                      <c:pt idx="159">
+                        <c:v>254.527693184686</c:v>
+                      </c:pt>
+                      <c:pt idx="160">
+                        <c:v>256.92247242100899</c:v>
+                      </c:pt>
+                      <c:pt idx="161">
+                        <c:v>259.32999478915599</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>261.75032145524699</c:v>
+                      </c:pt>
+                      <c:pt idx="163">
+                        <c:v>264.183513804722</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>266.62963344226398</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>269.08874219170599</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>271.56090209592998</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>274.046175416751</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>276.544624634787</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>279.05631244931698</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>281.58130177812501</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>284.11965575733501</c:v>
+                      </c:pt>
+                      <c:pt idx="172">
+                        <c:v>286.67143774122098</c:v>
+                      </c:pt>
+                      <c:pt idx="173">
+                        <c:v>289.23671130202001</c:v>
+                      </c:pt>
+                      <c:pt idx="174">
+                        <c:v>291.81554022971301</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
+                        <c:v>294.40798853180598</c:v>
+                      </c:pt>
+                      <c:pt idx="176">
+                        <c:v>297.01412043309102</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>299.634000375391</c:v>
+                      </c:pt>
+                      <c:pt idx="178">
+                        <c:v>302.26769301729098</c:v>
+                      </c:pt>
+                      <c:pt idx="179">
+                        <c:v>304.91526323386199</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
+                        <c:v>307.57677611635597</c:v>
+                      </c:pt>
+                      <c:pt idx="181">
+                        <c:v>310.25229697189798</c:v>
+                      </c:pt>
+                      <c:pt idx="182">
+                        <c:v>312.94189132315603</c:v>
+                      </c:pt>
+                      <c:pt idx="183">
+                        <c:v>315.64562490799898</c:v>
+                      </c:pt>
+                      <c:pt idx="184">
+                        <c:v>318.36356367913601</c:v>
+                      </c:pt>
+                      <c:pt idx="185">
+                        <c:v>321.09577380374299</c:v>
+                      </c:pt>
+                      <c:pt idx="186">
+                        <c:v>323.84232166307203</c:v>
+                      </c:pt>
+                      <c:pt idx="187">
+                        <c:v>326.603273852043</c:v>
+                      </c:pt>
+                      <c:pt idx="188">
+                        <c:v>329.37869717882103</c:v>
+                      </c:pt>
+                      <c:pt idx="189">
+                        <c:v>332.16865866437502</c:v>
+                      </c:pt>
+                      <c:pt idx="190">
+                        <c:v>334.97322554202202</c:v>
+                      </c:pt>
+                      <c:pt idx="191">
+                        <c:v>337.79246525695299</c:v>
+                      </c:pt>
+                      <c:pt idx="192">
+                        <c:v>340.62644546574501</c:v>
+                      </c:pt>
+                      <c:pt idx="193">
+                        <c:v>343.475234035847</c:v>
+                      </c:pt>
+                      <c:pt idx="194">
+                        <c:v>346.33889904505997</c:v>
+                      </c:pt>
+                      <c:pt idx="195">
+                        <c:v>349.21750878098902</c:v>
+                      </c:pt>
+                      <c:pt idx="196">
+                        <c:v>352.111131740487</c:v>
+                      </c:pt>
+                      <c:pt idx="197">
+                        <c:v>355.01983662907202</c:v>
+                      </c:pt>
+                      <c:pt idx="198">
+                        <c:v>357.94369236032901</c:v>
+                      </c:pt>
+                      <c:pt idx="199">
+                        <c:v>360.88276805530001</c:v>
+                      </c:pt>
+                      <c:pt idx="200">
+                        <c:v>363.83713304184101</c:v>
+                      </c:pt>
+                      <c:pt idx="201">
+                        <c:v>366.80685685397702</c:v>
+                      </c:pt>
+                      <c:pt idx="202">
+                        <c:v>369.79200923122397</c:v>
+                      </c:pt>
+                      <c:pt idx="203">
+                        <c:v>372.79266011789798</c:v>
+                      </c:pt>
+                      <c:pt idx="204">
+                        <c:v>375.80887966240999</c:v>
+                      </c:pt>
+                      <c:pt idx="205">
+                        <c:v>378.840738216528</c:v>
+                      </c:pt>
+                      <c:pt idx="206">
+                        <c:v>381.88830633463101</c:v>
+                      </c:pt>
+                      <c:pt idx="207">
+                        <c:v>384.95165477293699</c:v>
+                      </c:pt>
+                      <c:pt idx="208">
+                        <c:v>388.030854488714</c:v>
+                      </c:pt>
+                      <c:pt idx="209">
+                        <c:v>391.125976639469</c:v>
+                      </c:pt>
+                      <c:pt idx="210">
+                        <c:v>394.23709258211699</c:v>
+                      </c:pt>
+                      <c:pt idx="211">
+                        <c:v>397.364273872127</c:v>
+                      </c:pt>
+                      <c:pt idx="212">
+                        <c:v>400.50759226265001</c:v>
+                      </c:pt>
+                      <c:pt idx="213">
+                        <c:v>403.667119703624</c:v>
+                      </c:pt>
+                      <c:pt idx="214">
+                        <c:v>406.84292834086199</c:v>
+                      </c:pt>
+                      <c:pt idx="215">
+                        <c:v>410.035090515109</c:v>
+                      </c:pt>
+                      <c:pt idx="216">
+                        <c:v>413.24367876108602</c:v>
+                      </c:pt>
+                      <c:pt idx="217">
+                        <c:v>416.46876580651002</c:v>
+                      </c:pt>
+                      <c:pt idx="218">
+                        <c:v>419.710424571087</c:v>
+                      </c:pt>
+                      <c:pt idx="219">
+                        <c:v>422.96872816549097</c:v>
+                      </c:pt>
+                      <c:pt idx="220">
+                        <c:v>426.24374989031003</c:v>
+                      </c:pt>
+                      <c:pt idx="221">
+                        <c:v>429.535563234981</c:v>
+                      </c:pt>
+                      <c:pt idx="222">
+                        <c:v>432.84424187668998</c:v>
+                      </c:pt>
+                      <c:pt idx="223">
+                        <c:v>436.16985967925899</c:v>
+                      </c:pt>
+                      <c:pt idx="224">
+                        <c:v>439.51249069200099</c:v>
+                      </c:pt>
+                      <c:pt idx="225">
+                        <c:v>442.87220914855902</c:v>
+                      </c:pt>
+                      <c:pt idx="226">
+                        <c:v>446.249089465716</c:v>
+                      </c:pt>
+                      <c:pt idx="227">
+                        <c:v>449.64320624218198</c:v>
+                      </c:pt>
+                      <c:pt idx="228">
+                        <c:v>453.05463425735599</c:v>
+                      </c:pt>
+                      <c:pt idx="229">
+                        <c:v>456.48344847006803</c:v>
+                      </c:pt>
+                      <c:pt idx="230">
+                        <c:v>459.929724017289</c:v>
+                      </c:pt>
+                      <c:pt idx="231">
+                        <c:v>463.39353621282299</c:v>
+                      </c:pt>
+                      <c:pt idx="232">
+                        <c:v>466.87496054596602</c:v>
+                      </c:pt>
+                      <c:pt idx="233">
+                        <c:v>470.37407268015102</c:v>
+                      </c:pt>
+                      <c:pt idx="234">
+                        <c:v>473.890948451555</c:v>
+                      </c:pt>
+                      <c:pt idx="235">
+                        <c:v>477.42566386768999</c:v>
+                      </c:pt>
+                      <c:pt idx="236">
+                        <c:v>480.97829510595898</c:v>
+                      </c:pt>
+                      <c:pt idx="237">
+                        <c:v>484.54891851219702</c:v>
+                      </c:pt>
+                      <c:pt idx="238">
+                        <c:v>488.13761059917198</c:v>
+                      </c:pt>
+                      <c:pt idx="239">
+                        <c:v>491.74444804507499</c:v>
+                      </c:pt>
+                      <c:pt idx="240">
+                        <c:v>495.369507691965</c:v>
+                      </c:pt>
+                      <c:pt idx="241">
+                        <c:v>499.01286654420397</c:v>
+                      </c:pt>
+                      <c:pt idx="242">
+                        <c:v>502.67460176685501</c:v>
+                      </c:pt>
+                      <c:pt idx="243">
+                        <c:v>506.35479068405402</c:v>
+                      </c:pt>
+                      <c:pt idx="244">
+                        <c:v>510.05351077735497</c:v>
+                      </c:pt>
+                      <c:pt idx="245">
+                        <c:v>513.770839684046</c:v>
+                      </c:pt>
+                      <c:pt idx="246">
+                        <c:v>517.50685519544197</c:v>
+                      </c:pt>
+                      <c:pt idx="247">
+                        <c:v>521.26163525514005</c:v>
+                      </c:pt>
+                      <c:pt idx="248">
+                        <c:v>525.035257957255</c:v>
+                      </c:pt>
+                      <c:pt idx="249">
+                        <c:v>528.82780154461898</c:v>
+                      </c:pt>
+                      <c:pt idx="250">
+                        <c:v>532.639344406958</c:v>
+                      </c:pt>
+                      <c:pt idx="251">
+                        <c:v>536.46996507903702</c:v>
+                      </c:pt>
+                      <c:pt idx="252">
+                        <c:v>540.31974223877103</c:v>
+                      </c:pt>
+                      <c:pt idx="253">
+                        <c:v>544.188754705316</c:v>
+                      </c:pt>
+                      <c:pt idx="254">
+                        <c:v>548.07708143712</c:v>
+                      </c:pt>
+                      <c:pt idx="255">
+                        <c:v>551.98480152995103</c:v>
+                      </c:pt>
+                      <c:pt idx="256">
+                        <c:v>555.91199421488898</c:v>
+                      </c:pt>
+                      <c:pt idx="257">
+                        <c:v>559.85873885629599</c:v>
+                      </c:pt>
+                      <c:pt idx="258">
+                        <c:v>563.82511494974403</c:v>
+                      </c:pt>
+                      <c:pt idx="259">
+                        <c:v>567.81120211992004</c:v>
+                      </c:pt>
+                      <c:pt idx="260">
+                        <c:v>571.81708011849901</c:v>
+                      </c:pt>
+                      <c:pt idx="261">
+                        <c:v>575.84282882198204</c:v>
+                      </c:pt>
+                      <c:pt idx="262">
+                        <c:v>579.88852822950503</c:v>
+                      </c:pt>
+                      <c:pt idx="263">
+                        <c:v>583.95425846061698</c:v>
+                      </c:pt>
+                      <c:pt idx="264">
+                        <c:v>588.04009975301994</c:v>
+                      </c:pt>
+                      <c:pt idx="265">
+                        <c:v>592.14613246028898</c:v>
+                      </c:pt>
+                      <c:pt idx="266">
+                        <c:v>596.27243704954503</c:v>
+                      </c:pt>
+                      <c:pt idx="267">
+                        <c:v>600.41909409910704</c:v>
+                      </c:pt>
+                      <c:pt idx="268">
+                        <c:v>604.58618429610203</c:v>
+                      </c:pt>
+                      <c:pt idx="269">
+                        <c:v>608.77378843404904</c:v>
+                      </c:pt>
+                      <c:pt idx="270">
+                        <c:v>612.98198741040596</c:v>
+                      </c:pt>
+                      <c:pt idx="271">
+                        <c:v>617.21086222408701</c:v>
+                      </c:pt>
+                      <c:pt idx="272">
+                        <c:v>621.46049397293598</c:v>
+                      </c:pt>
+                      <c:pt idx="273">
+                        <c:v>625.73096385118299</c:v>
+                      </c:pt>
+                      <c:pt idx="274">
+                        <c:v>630.02235314684901</c:v>
+                      </c:pt>
+                      <c:pt idx="275">
+                        <c:v>634.33474323912696</c:v>
+                      </c:pt>
+                      <c:pt idx="276">
+                        <c:v>638.66821559572702</c:v>
+                      </c:pt>
+                      <c:pt idx="277">
+                        <c:v>643.02285177018496</c:v>
+                      </c:pt>
+                      <c:pt idx="278">
+                        <c:v>647.39873339913504</c:v>
+                      </c:pt>
+                      <c:pt idx="279">
+                        <c:v>651.79594219955004</c:v>
+                      </c:pt>
+                      <c:pt idx="280">
+                        <c:v>656.214559965945</c:v>
+                      </c:pt>
+                      <c:pt idx="281">
+                        <c:v>660.65466856754495</c:v>
+                      </c:pt>
+                      <c:pt idx="282">
+                        <c:v>665.11634994542101</c:v>
+                      </c:pt>
+                      <c:pt idx="283">
+                        <c:v>669.59968610958094</c:v>
+                      </c:pt>
+                      <c:pt idx="284">
+                        <c:v>674.104759136035</c:v>
+                      </c:pt>
+                      <c:pt idx="285">
+                        <c:v>678.63165116381697</c:v>
+                      </c:pt>
+                      <c:pt idx="286">
+                        <c:v>683.18044439197399</c:v>
+                      </c:pt>
+                      <c:pt idx="287">
+                        <c:v>687.75122107651998</c:v>
+                      </c:pt>
+                      <c:pt idx="288">
+                        <c:v>692.34406352734504</c:v>
+                      </c:pt>
+                      <c:pt idx="289">
+                        <c:v>696.95905410509602</c:v>
+                      </c:pt>
+                      <c:pt idx="290">
+                        <c:v>701.59627521801804</c:v>
+                      </c:pt>
+                      <c:pt idx="291">
+                        <c:v>706.25580931875504</c:v>
+                      </c:pt>
+                      <c:pt idx="292">
+                        <c:v>710.93773890111595</c:v>
+                      </c:pt>
+                      <c:pt idx="293">
+                        <c:v>715.64214649680298</c:v>
+                      </c:pt>
+                      <c:pt idx="294">
+                        <c:v>720.36911467210496</c:v>
+                      </c:pt>
+                      <c:pt idx="295">
+                        <c:v>725.11872602454105</c:v>
+                      </c:pt>
+                      <c:pt idx="296">
+                        <c:v>729.89106317948199</c:v>
+                      </c:pt>
+                      <c:pt idx="297">
+                        <c:v>734.68620878672402</c:v>
+                      </c:pt>
+                      <c:pt idx="298">
+                        <c:v>739.50424551702201</c:v>
+                      </c:pt>
+                      <c:pt idx="299">
+                        <c:v>744.34525605859301</c:v>
+                      </c:pt>
+                      <c:pt idx="300">
+                        <c:v>749.20932311357205</c:v>
+                      </c:pt>
+                      <c:pt idx="301">
+                        <c:v>754.09652939443504</c:v>
+                      </c:pt>
+                      <c:pt idx="302">
+                        <c:v>759.00695762037606</c:v>
+                      </c:pt>
+                      <c:pt idx="303">
+                        <c:v>763.94069051365398</c:v>
+                      </c:pt>
+                      <c:pt idx="304">
+                        <c:v>768.89781079589602</c:v>
+                      </c:pt>
+                      <c:pt idx="305">
+                        <c:v>773.87840118435201</c:v>
+                      </c:pt>
+                      <c:pt idx="306">
+                        <c:v>778.88254438812896</c:v>
+                      </c:pt>
+                      <c:pt idx="307">
+                        <c:v>783.91032310436799</c:v>
+                      </c:pt>
+                      <c:pt idx="308">
+                        <c:v>788.96182001439001</c:v>
+                      </c:pt>
+                      <c:pt idx="309">
+                        <c:v>794.03711777979595</c:v>
+                      </c:pt>
+                      <c:pt idx="310">
+                        <c:v>799.13629903853803</c:v>
+                      </c:pt>
+                      <c:pt idx="311">
+                        <c:v>804.25944640093201</c:v>
+                      </c:pt>
+                      <c:pt idx="312">
+                        <c:v>809.40664244564903</c:v>
+                      </c:pt>
+                      <c:pt idx="313">
+                        <c:v>814.57796971565301</c:v>
+                      </c:pt>
+                      <c:pt idx="314">
+                        <c:v>819.77351071409998</c:v>
+                      </c:pt>
+                      <c:pt idx="315">
+                        <c:v>824.99334790020396</c:v>
+                      </c:pt>
+                      <c:pt idx="316">
+                        <c:v>830.23756368505201</c:v>
+                      </c:pt>
+                      <c:pt idx="317">
+                        <c:v>835.50624042738502</c:v>
+                      </c:pt>
+                      <c:pt idx="318">
+                        <c:v>840.79946042933398</c:v>
+                      </c:pt>
+                      <c:pt idx="319">
+                        <c:v>846.11730593211701</c:v>
+                      </c:pt>
+                      <c:pt idx="320">
+                        <c:v>851.45985911169305</c:v>
+                      </c:pt>
+                      <c:pt idx="321">
+                        <c:v>856.82720207437706</c:v>
+                      </c:pt>
+                      <c:pt idx="322">
+                        <c:v>862.21941685241097</c:v>
+                      </c:pt>
+                      <c:pt idx="323">
+                        <c:v>867.63658539949495</c:v>
+                      </c:pt>
+                      <c:pt idx="324">
+                        <c:v>873.07878958627498</c:v>
+                      </c:pt>
+                      <c:pt idx="325">
+                        <c:v>878.54611119579397</c:v>
+                      </c:pt>
+                      <c:pt idx="326">
+                        <c:v>884.03863191889297</c:v>
+                      </c:pt>
+                      <c:pt idx="327">
+                        <c:v>889.55643334957495</c:v>
+                      </c:pt>
+                      <c:pt idx="328">
+                        <c:v>895.09959698033197</c:v>
+                      </c:pt>
+                      <c:pt idx="329">
+                        <c:v>900.66820419741998</c:v>
+                      </c:pt>
+                      <c:pt idx="330">
+                        <c:v>906.26233627609804</c:v>
+                      </c:pt>
+                      <c:pt idx="331">
+                        <c:v>911.88207437582798</c:v>
+                      </c:pt>
+                      <c:pt idx="332">
+                        <c:v>917.52749953542298</c:v>
+                      </c:pt>
+                      <c:pt idx="333">
+                        <c:v>923.19869266816397</c:v>
+                      </c:pt>
+                      <c:pt idx="334">
+                        <c:v>928.89573455686798</c:v>
+                      </c:pt>
+                      <c:pt idx="335">
+                        <c:v>934.61870584891506</c:v>
+                      </c:pt>
+                      <c:pt idx="336">
+                        <c:v>940.36768705123905</c:v>
+                      </c:pt>
+                      <c:pt idx="337">
+                        <c:v>946.14275852526202</c:v>
+                      </c:pt>
+                      <c:pt idx="338">
+                        <c:v>951.94400048180705</c:v>
+                      </c:pt>
+                      <c:pt idx="339">
+                        <c:v>957.77149297594895</c:v>
+                      </c:pt>
+                      <c:pt idx="340">
+                        <c:v>963.62531590183403</c:v>
+                      </c:pt>
+                      <c:pt idx="341">
+                        <c:v>969.50554898745997</c:v>
+                      </c:pt>
+                      <c:pt idx="342">
+                        <c:v>975.41227178940301</c:v>
+                      </c:pt>
+                      <c:pt idx="343">
+                        <c:v>981.345563687511</c:v>
+                      </c:pt>
+                      <c:pt idx="344">
+                        <c:v>987.30550387955395</c:v>
+                      </c:pt>
+                      <c:pt idx="345">
+                        <c:v>993.292171375831</c:v>
+                      </c:pt>
+                      <c:pt idx="346">
+                        <c:v>999.30564499373304</c:v>
+                      </c:pt>
+                      <c:pt idx="347">
+                        <c:v>1005.34600335227</c:v>
+                      </c:pt>
+                      <c:pt idx="348">
+                        <c:v>1011.4133248665401</c:v>
+                      </c:pt>
+                      <c:pt idx="349">
+                        <c:v>1017.50768774221</c:v>
+                      </c:pt>
+                      <c:pt idx="350">
+                        <c:v>1023.62916996985</c:v>
+                      </c:pt>
+                      <c:pt idx="351">
+                        <c:v>1029.77784931934</c:v>
+                      </c:pt>
+                      <c:pt idx="352">
+                        <c:v>1035.9538033341501</c:v>
+                      </c:pt>
+                      <c:pt idx="353">
+                        <c:v>1042.15710932566</c:v>
+                      </c:pt>
+                      <c:pt idx="354">
+                        <c:v>1048.38784436734</c:v>
+                      </c:pt>
+                      <c:pt idx="355">
+                        <c:v>1054.64608528897</c:v>
+                      </c:pt>
+                      <c:pt idx="356">
+                        <c:v>1060.9319086708001</c:v>
+                      </c:pt>
+                      <c:pt idx="357">
+                        <c:v>1067.2453908376101</c:v>
+                      </c:pt>
+                      <c:pt idx="358">
+                        <c:v>1073.58660785283</c:v>
+                      </c:pt>
+                      <c:pt idx="359">
+                        <c:v>1079.9556355125601</c:v>
+                      </c:pt>
+                      <c:pt idx="360">
+                        <c:v>1086.35254933952</c:v>
+                      </c:pt>
+                      <c:pt idx="361">
+                        <c:v>1092.7774245770399</c:v>
+                      </c:pt>
+                      <c:pt idx="362">
+                        <c:v>1099.2303361829099</c:v>
+                      </c:pt>
+                      <c:pt idx="363">
+                        <c:v>1105.7113588233201</c:v>
+                      </c:pt>
+                      <c:pt idx="364">
+                        <c:v>1112.22056686663</c:v>
+                      </c:pt>
+                      <c:pt idx="365">
+                        <c:v>1118.7580343771699</c:v>
+                      </c:pt>
+                      <c:pt idx="366">
+                        <c:v>1125.3238351089899</c:v>
+                      </c:pt>
+                      <c:pt idx="367">
+                        <c:v>1131.91804249955</c:v>
+                      </c:pt>
+                      <c:pt idx="368">
+                        <c:v>1138.5407296634201</c:v>
+                      </c:pt>
+                      <c:pt idx="369">
+                        <c:v>1145.1919693858799</c:v>
+                      </c:pt>
+                      <c:pt idx="370">
+                        <c:v>1151.8718341165199</c:v>
+                      </c:pt>
+                      <c:pt idx="371">
+                        <c:v>1158.5803959627899</c:v>
+                      </c:pt>
+                      <c:pt idx="372">
+                        <c:v>1165.3177266835</c:v>
+                      </c:pt>
+                      <c:pt idx="373">
+                        <c:v>1172.08389768232</c:v>
+                      </c:pt>
+                      <c:pt idx="374">
+                        <c:v>1178.87898000119</c:v>
+                      </c:pt>
+                      <c:pt idx="375">
+                        <c:v>1185.7030443137401</c:v>
+                      </c:pt>
+                      <c:pt idx="376">
+                        <c:v>1192.55616091864</c:v>
+                      </c:pt>
+                      <c:pt idx="377">
+                        <c:v>1199.4383997329101</c:v>
+                      </c:pt>
+                      <c:pt idx="378">
+                        <c:v>1206.3498302852599</c:v>
+                      </c:pt>
+                      <c:pt idx="379">
+                        <c:v>1213.29052170926</c:v>
+                      </c:pt>
+                      <c:pt idx="380">
+                        <c:v>1220.26054273663</c:v>
+                      </c:pt>
+                      <c:pt idx="381">
+                        <c:v>1227.2599616903799</c:v>
+                      </c:pt>
+                      <c:pt idx="382">
+                        <c:v>1234.2888464779601</c:v>
+                      </c:pt>
+                      <c:pt idx="383">
+                        <c:v>1241.3472645843799</c:v>
+                      </c:pt>
+                      <c:pt idx="384">
+                        <c:v>1248.4352830652499</c:v>
+                      </c:pt>
+                      <c:pt idx="385">
+                        <c:v>1255.5529685398801</c:v>
+                      </c:pt>
+                      <c:pt idx="386">
+                        <c:v>1262.7003871842001</c:v>
+                      </c:pt>
+                      <c:pt idx="387">
+                        <c:v>1269.87760472382</c:v>
+                      </c:pt>
+                      <c:pt idx="388">
+                        <c:v>1277.0846864268999</c:v>
+                      </c:pt>
+                      <c:pt idx="389">
+                        <c:v>1284.32169709709</c:v>
+                      </c:pt>
+                      <c:pt idx="390">
+                        <c:v>1291.5887010664001</c:v>
+                      </c:pt>
+                      <c:pt idx="391">
+                        <c:v>1298.8857621880099</c:v>
+                      </c:pt>
+                      <c:pt idx="392">
+                        <c:v>1306.2129438291199</c:v>
+                      </c:pt>
+                      <c:pt idx="393">
+                        <c:v>1313.5703088636801</c:v>
+                      </c:pt>
+                      <c:pt idx="394">
+                        <c:v>1320.9579196652001</c:v>
+                      </c:pt>
+                      <c:pt idx="395">
+                        <c:v>1328.37583809938</c:v>
+                      </c:pt>
+                      <c:pt idx="396">
+                        <c:v>1335.82412551688</c:v>
+                      </c:pt>
+                      <c:pt idx="397">
+                        <c:v>1343.3028427459201</c:v>
+                      </c:pt>
+                      <c:pt idx="398">
+                        <c:v>1350.81205008492</c:v>
+                      </c:pt>
+                      <c:pt idx="399">
+                        <c:v>1358.3518072950999</c:v>
+                      </c:pt>
+                      <c:pt idx="400">
+                        <c:v>1365.9221735930601</c:v>
+                      </c:pt>
+                      <c:pt idx="401">
+                        <c:v>1373.5232076433001</c:v>
+                      </c:pt>
+                      <c:pt idx="402">
+                        <c:v>1381.1549675507499</c:v>
+                      </c:pt>
+                      <c:pt idx="403">
+                        <c:v>1388.8175108532801</c:v>
+                      </c:pt>
+                      <c:pt idx="404">
+                        <c:v>1396.5108945140901</c:v>
+                      </c:pt>
+                      <c:pt idx="405">
+                        <c:v>1404.2351749142399</c:v>
+                      </c:pt>
+                      <c:pt idx="406">
+                        <c:v>1411.9904078449899</c:v>
+                      </c:pt>
+                      <c:pt idx="407">
+                        <c:v>1419.7766485002301</c:v>
+                      </c:pt>
+                      <c:pt idx="408">
+                        <c:v>1427.59395146883</c:v>
+                      </c:pt>
+                      <c:pt idx="409">
+                        <c:v>1435.44237072696</c:v>
+                      </c:pt>
+                      <c:pt idx="410">
+                        <c:v>1443.32195963045</c:v>
+                      </c:pt>
+                      <c:pt idx="411">
+                        <c:v>1451.2327709070501</c:v>
+                      </c:pt>
+                      <c:pt idx="412">
+                        <c:v>1459.1748566487499</c:v>
+                      </c:pt>
+                      <c:pt idx="413">
+                        <c:v>1467.1482683039701</c:v>
+                      </c:pt>
+                      <c:pt idx="414">
+                        <c:v>1475.15305666985</c:v>
+                      </c:pt>
+                      <c:pt idx="415">
+                        <c:v>1483.1892718844399</c:v>
+                      </c:pt>
+                      <c:pt idx="416">
+                        <c:v>1491.2569634189099</c:v>
+                      </c:pt>
+                      <c:pt idx="417">
+                        <c:v>1499.35618006971</c:v>
+                      </c:pt>
+                      <c:pt idx="418">
+                        <c:v>1507.4869699507501</c:v>
+                      </c:pt>
+                      <c:pt idx="419">
+                        <c:v>1515.6493804855299</c:v>
+                      </c:pt>
+                      <c:pt idx="420">
+                        <c:v>1523.8434583992901</c:v>
+                      </c:pt>
+                      <c:pt idx="421">
+                        <c:v>1532.0692497110999</c:v>
+                      </c:pt>
+                      <c:pt idx="422">
+                        <c:v>1540.32679972599</c:v>
+                      </c:pt>
+                      <c:pt idx="423">
+                        <c:v>1548.6161530269801</c:v>
+                      </c:pt>
+                      <c:pt idx="424">
+                        <c:v>1556.93735346722</c:v>
+                      </c:pt>
+                      <c:pt idx="425">
+                        <c:v>1565.2904441620201</c:v>
+                      </c:pt>
+                      <c:pt idx="426">
+                        <c:v>1573.6754674808899</c:v>
+                      </c:pt>
+                      <c:pt idx="427">
+                        <c:v>1582.09246503958</c:v>
+                      </c:pt>
+                      <c:pt idx="428">
+                        <c:v>1590.54147769215</c:v>
+                      </c:pt>
+                      <c:pt idx="429">
+                        <c:v>1599.0225455229199</c:v>
+                      </c:pt>
+                      <c:pt idx="430">
+                        <c:v>1607.53570783856</c:v>
+                      </c:pt>
+                      <c:pt idx="431">
+                        <c:v>1616.0810031600399</c:v>
+                      </c:pt>
+                      <c:pt idx="432">
+                        <c:v>1624.65846921463</c:v>
+                      </c:pt>
+                      <c:pt idx="433">
+                        <c:v>1633.2681429279501</c:v>
+                      </c:pt>
+                      <c:pt idx="434">
+                        <c:v>1641.91006041586</c:v>
+                      </c:pt>
+                      <c:pt idx="435">
+                        <c:v>1650.58425697657</c:v>
+                      </c:pt>
+                      <c:pt idx="436">
+                        <c:v>1659.2907670825</c:v>
+                      </c:pt>
+                      <c:pt idx="437">
+                        <c:v>1668.0296243723401</c:v>
+                      </c:pt>
+                      <c:pt idx="438">
+                        <c:v>1676.800861643</c:v>
+                      </c:pt>
+                      <c:pt idx="439">
+                        <c:v>1685.6045108415899</c:v>
+                      </c:pt>
+                      <c:pt idx="440">
+                        <c:v>1694.44060305741</c:v>
+                      </c:pt>
+                      <c:pt idx="441">
+                        <c:v>1703.3091685139</c:v>
+                      </c:pt>
+                      <c:pt idx="442">
+                        <c:v>1712.21023656068</c:v>
+                      </c:pt>
+                      <c:pt idx="443">
+                        <c:v>1721.1438356654801</c:v>
+                      </c:pt>
+                      <c:pt idx="444">
+                        <c:v>1730.1099934061699</c:v>
+                      </c:pt>
+                      <c:pt idx="445">
+                        <c:v>1739.1087364627299</c:v>
+                      </c:pt>
+                      <c:pt idx="446">
+                        <c:v>1748.1400906092899</c:v>
+                      </c:pt>
+                      <c:pt idx="447">
+                        <c:v>1757.2040807061101</c:v>
+                      </c:pt>
+                      <c:pt idx="448">
+                        <c:v>1766.3007306916099</c:v>
+                      </c:pt>
+                      <c:pt idx="449">
+                        <c:v>1775.43006357441</c:v>
+                      </c:pt>
+                      <c:pt idx="450">
+                        <c:v>1784.5921014253699</c:v>
+                      </c:pt>
+                      <c:pt idx="451">
+                        <c:v>1793.78686536962</c:v>
+                      </c:pt>
+                      <c:pt idx="452">
+                        <c:v>1803.0143755786601</c:v>
+                      </c:pt>
+                      <c:pt idx="453">
+                        <c:v>1812.2746512624201</c:v>
+                      </c:pt>
+                      <c:pt idx="454">
+                        <c:v>1821.56771066135</c:v>
+                      </c:pt>
+                      <c:pt idx="455">
+                        <c:v>1830.8935710385499</c:v>
+                      </c:pt>
+                      <c:pt idx="456">
+                        <c:v>1840.2522486718899</c:v>
+                      </c:pt>
+                      <c:pt idx="457">
+                        <c:v>1849.6437588461399</c:v>
+                      </c:pt>
+                      <c:pt idx="458">
+                        <c:v>1859.06811584516</c:v>
+                      </c:pt>
+                      <c:pt idx="459">
+                        <c:v>1868.52533294409</c:v>
+                      </c:pt>
+                      <c:pt idx="460">
+                        <c:v>1878.01542240151</c:v>
+                      </c:pt>
+                      <c:pt idx="461">
+                        <c:v>1887.5383954517299</c:v>
+                      </c:pt>
+                      <c:pt idx="462">
+                        <c:v>1897.0942622970399</c:v>
+                      </c:pt>
+                      <c:pt idx="463">
+                        <c:v>1906.68303209992</c:v>
+                      </c:pt>
+                      <c:pt idx="464">
+                        <c:v>1916.30471297545</c:v>
+                      </c:pt>
+                      <c:pt idx="465">
+                        <c:v>1925.9593119835499</c:v>
+                      </c:pt>
+                      <c:pt idx="466">
+                        <c:v>1935.6468351214201</c:v>
+                      </c:pt>
+                      <c:pt idx="467">
+                        <c:v>1945.36728731587</c:v>
+                      </c:pt>
+                      <c:pt idx="468">
+                        <c:v>1955.1206724157901</c:v>
+                      </c:pt>
+                      <c:pt idx="469">
+                        <c:v>1964.90699318457</c:v>
+                      </c:pt>
+                      <c:pt idx="470">
+                        <c:v>1974.72625129262</c:v>
+                      </c:pt>
+                      <c:pt idx="471">
+                        <c:v>1984.5784473098699</c:v>
+                      </c:pt>
+                      <c:pt idx="472">
+                        <c:v>1994.4635806983499</c:v>
+                      </c:pt>
+                      <c:pt idx="473">
+                        <c:v>2004.38164980478</c:v>
+                      </c:pt>
+                      <c:pt idx="474">
+                        <c:v>2014.3326518531901</c:v>
+                      </c:pt>
+                      <c:pt idx="475">
+                        <c:v>2024.3165829376401</c:v>
+                      </c:pt>
+                      <c:pt idx="476">
+                        <c:v>2034.3334380148699</c:v>
+                      </c:pt>
+                      <c:pt idx="477">
+                        <c:v>2044.3832108971301</c:v>
+                      </c:pt>
+                      <c:pt idx="478">
+                        <c:v>2054.46589424494</c:v>
+                      </c:pt>
+                      <c:pt idx="479">
+                        <c:v>2064.5814795599299</c:v>
+                      </c:pt>
+                      <c:pt idx="480">
+                        <c:v>2074.7299571777799</c:v>
+                      </c:pt>
+                      <c:pt idx="481">
+                        <c:v>2084.9113162611102</c:v>
+                      </c:pt>
+                      <c:pt idx="482">
+                        <c:v>2095.12554479252</c:v>
+                      </c:pt>
+                      <c:pt idx="483">
+                        <c:v>2105.3726295675601</c:v>
+                      </c:pt>
+                      <c:pt idx="484">
+                        <c:v>2115.6525561879098</c:v>
+                      </c:pt>
+                      <c:pt idx="485">
+                        <c:v>2125.9653090544598</c:v>
+                      </c:pt>
+                      <c:pt idx="486">
+                        <c:v>2136.3108713605102</c:v>
+                      </c:pt>
+                      <c:pt idx="487">
+                        <c:v>2146.6892250850701</c:v>
+                      </c:pt>
+                      <c:pt idx="488">
+                        <c:v>2157.1003509861198</c:v>
+                      </c:pt>
+                      <c:pt idx="489">
+                        <c:v>2167.5442285940198</c:v>
+                      </c:pt>
+                      <c:pt idx="490">
+                        <c:v>2178.0208362048802</c:v>
+                      </c:pt>
+                      <c:pt idx="491">
+                        <c:v>2188.53015087412</c:v>
+                      </c:pt>
+                      <c:pt idx="492">
+                        <c:v>2199.0721484099799</c:v>
+                      </c:pt>
+                      <c:pt idx="493">
+                        <c:v>2209.6468033671199</c:v>
+                      </c:pt>
+                      <c:pt idx="494">
+                        <c:v>2220.2540890403302</c:v>
+                      </c:pt>
+                      <c:pt idx="495">
+                        <c:v>2230.89397745825</c:v>
+                      </c:pt>
+                      <c:pt idx="496">
+                        <c:v>2241.5664393772299</c:v>
+                      </c:pt>
+                      <c:pt idx="497">
+                        <c:v>2252.2714442751098</c:v>
+                      </c:pt>
+                      <c:pt idx="498">
+                        <c:v>2263.0089603452998</c:v>
+                      </c:pt>
+                      <c:pt idx="499">
+                        <c:v>2273.7789544907</c:v>
+                      </c:pt>
+                      <c:pt idx="500">
+                        <c:v>2284.5813923178298</c:v>
+                      </c:pt>
+                      <c:pt idx="501">
+                        <c:v>2295.4162381310198</c:v>
+                      </c:pt>
+                      <c:pt idx="502">
+                        <c:v>2306.2834549266299</c:v>
+                      </c:pt>
+                      <c:pt idx="503">
+                        <c:v>2317.1830043873701</c:v>
+                      </c:pt>
+                      <c:pt idx="504">
+                        <c:v>2328.1148468767301</c:v>
+                      </c:pt>
+                      <c:pt idx="505">
+                        <c:v>2339.0789414334099</c:v>
+                      </c:pt>
+                      <c:pt idx="506">
+                        <c:v>2350.07524576593</c:v>
+                      </c:pt>
+                      <c:pt idx="507">
+                        <c:v>2361.1037162472498</c:v>
+                      </c:pt>
+                      <c:pt idx="508">
+                        <c:v>2372.1643079095002</c:v>
+                      </c:pt>
+                      <c:pt idx="509">
+                        <c:v>2383.2569744387802</c:v>
+                      </c:pt>
+                      <c:pt idx="510">
+                        <c:v>2394.3816681701001</c:v>
+                      </c:pt>
+                      <c:pt idx="511">
+                        <c:v>2405.5383400823198</c:v>
+                      </c:pt>
+                      <c:pt idx="512">
+                        <c:v>2416.72693979324</c:v>
+                      </c:pt>
+                      <c:pt idx="513">
+                        <c:v>2427.94741555478</c:v>
+                      </c:pt>
+                      <c:pt idx="514">
+                        <c:v>2439.1997142482301</c:v>
+                      </c:pt>
+                      <c:pt idx="515">
+                        <c:v>2450.4837813795998</c:v>
+                      </c:pt>
+                      <c:pt idx="516">
+                        <c:v>2461.79956107506</c:v>
+                      </c:pt>
+                      <c:pt idx="517">
+                        <c:v>2473.1469960764898</c:v>
+                      </c:pt>
+                      <c:pt idx="518">
+                        <c:v>2484.5260277371299</c:v>
+                      </c:pt>
+                      <c:pt idx="519">
+                        <c:v>2495.93659601729</c:v>
+                      </c:pt>
+                      <c:pt idx="520">
+                        <c:v>2507.37863948022</c:v>
+                      </c:pt>
+                      <c:pt idx="521">
+                        <c:v>2518.8520952880199</c:v>
+                      </c:pt>
+                      <c:pt idx="522">
+                        <c:v>2530.3568991976999</c:v>
+                      </c:pt>
+                      <c:pt idx="523">
+                        <c:v>2541.8929855573101</c:v>
+                      </c:pt>
+                      <c:pt idx="524">
+                        <c:v>2553.46028730221</c:v>
+                      </c:pt>
+                      <c:pt idx="525">
+                        <c:v>2565.0587359514202</c:v>
+                      </c:pt>
+                      <c:pt idx="526">
+                        <c:v>2576.6882616040598</c:v>
+                      </c:pt>
+                      <c:pt idx="527">
+                        <c:v>2588.3487929359699</c:v>
+                      </c:pt>
+                      <c:pt idx="528">
+                        <c:v>2600.04025719634</c:v>
+                      </c:pt>
+                      <c:pt idx="529">
+                        <c:v>2611.76258020457</c:v>
+                      </c:pt>
+                      <c:pt idx="530">
+                        <c:v>2623.5156863470902</c:v>
+                      </c:pt>
+                      <c:pt idx="531">
+                        <c:v>2635.2994985744799</c:v>
+                      </c:pt>
+                      <c:pt idx="532">
+                        <c:v>2647.1139383985301</c:v>
+                      </c:pt>
+                      <c:pt idx="533">
+                        <c:v>2658.9589258895198</c:v>
+                      </c:pt>
+                      <c:pt idx="534">
+                        <c:v>2670.8343796736199</c:v>
+                      </c:pt>
+                      <c:pt idx="535">
+                        <c:v>2682.74021693033</c:v>
+                      </c:pt>
+                      <c:pt idx="536">
+                        <c:v>2694.6763533901099</c:v>
+                      </c:pt>
+                      <c:pt idx="537">
+                        <c:v>2706.6427033321302</c:v>
+                      </c:pt>
+                      <c:pt idx="538">
+                        <c:v>2718.63917958209</c:v>
+                      </c:pt>
+                      <c:pt idx="539">
+                        <c:v>2730.6656935102301</c:v>
+                      </c:pt>
+                      <c:pt idx="540">
+                        <c:v>2742.7221550294098</c:v>
+                      </c:pt>
+                      <c:pt idx="541">
+                        <c:v>2754.8084725933199</c:v>
+                      </c:pt>
+                      <c:pt idx="542">
+                        <c:v>2766.9245531949</c:v>
+                      </c:pt>
+                      <c:pt idx="543">
+                        <c:v>2779.0703023647402</c:v>
+                      </c:pt>
+                      <c:pt idx="544">
+                        <c:v>2791.24562416975</c:v>
+                      </c:pt>
+                      <c:pt idx="545">
+                        <c:v>2803.45042121188</c:v>
+                      </c:pt>
+                      <c:pt idx="546">
+                        <c:v>2815.68459462698</c:v>
+                      </c:pt>
+                      <c:pt idx="547">
+                        <c:v>2827.9480440838402</c:v>
+                      </c:pt>
+                      <c:pt idx="548">
+                        <c:v>2840.2406677832901</c:v>
+                      </c:pt>
+                      <c:pt idx="549">
+                        <c:v>2852.5623624575001</c:v>
+                      </c:pt>
+                      <c:pt idx="550">
+                        <c:v>2864.91302336937</c:v>
+                      </c:pt>
+                      <c:pt idx="551">
+                        <c:v>2877.2925443120998</c:v>
+                      </c:pt>
+                      <c:pt idx="552">
+                        <c:v>2889.7008176088202</c:v>
+                      </c:pt>
+                      <c:pt idx="553">
+                        <c:v>2902.1377341124798</c:v>
+                      </c:pt>
+                      <c:pt idx="554">
+                        <c:v>2914.6031832057602</c:v>
+                      </c:pt>
+                      <c:pt idx="555">
+                        <c:v>2927.0970528011599</c:v>
+                      </c:pt>
+                      <c:pt idx="556">
+                        <c:v>2939.6192293412801</c:v>
+                      </c:pt>
+                      <c:pt idx="557">
+                        <c:v>2952.1695977991799</c:v>
+                      </c:pt>
+                      <c:pt idx="558">
+                        <c:v>2964.7480416789199</c:v>
+                      </c:pt>
+                      <c:pt idx="559">
+                        <c:v>2977.3544430161801</c:v>
+                      </c:pt>
+                      <c:pt idx="560">
+                        <c:v>2989.9886823791298</c:v>
+                      </c:pt>
+                      <c:pt idx="561">
+                        <c:v>3002.6506388693701</c:v>
+                      </c:pt>
+                      <c:pt idx="562">
+                        <c:v>3015.340190123</c:v>
+                      </c:pt>
+                      <c:pt idx="563">
+                        <c:v>3028.05721231193</c:v>
+                      </c:pt>
+                      <c:pt idx="564">
+                        <c:v>3040.8015801452202</c:v>
+                      </c:pt>
+                      <c:pt idx="565">
+                        <c:v>3053.5731668706499</c:v>
+                      </c:pt>
+                      <c:pt idx="566">
+                        <c:v>3066.3718442764198</c:v>
+                      </c:pt>
+                      <c:pt idx="567">
+                        <c:v>3079.197482693</c:v>
+                      </c:pt>
+                      <c:pt idx="568">
+                        <c:v>3092.0499509950801</c:v>
+                      </c:pt>
+                      <c:pt idx="569">
+                        <c:v>3104.9291166037601</c:v>
+                      </c:pt>
+                      <c:pt idx="570">
+                        <c:v>3117.8348454888401</c:v>
+                      </c:pt>
+                      <c:pt idx="571">
+                        <c:v>3130.7670021712602</c:v>
+                      </c:pt>
+                      <c:pt idx="572">
+                        <c:v>3143.7254497256599</c:v>
+                      </c:pt>
+                      <c:pt idx="573">
+                        <c:v>3156.7100497832298</c:v>
+                      </c:pt>
+                      <c:pt idx="574">
+                        <c:v>3169.7206625345102</c:v>
+                      </c:pt>
+                      <c:pt idx="575">
+                        <c:v>3182.7571467325201</c:v>
+                      </c:pt>
+                      <c:pt idx="576">
+                        <c:v>3195.81935969597</c:v>
+                      </c:pt>
+                      <c:pt idx="577">
+                        <c:v>3208.9071573125698</c:v>
+                      </c:pt>
+                      <c:pt idx="578">
+                        <c:v>3222.02039404265</c:v>
+                      </c:pt>
+                      <c:pt idx="579">
+                        <c:v>3235.1589229227502</c:v>
+                      </c:pt>
+                      <c:pt idx="580">
+                        <c:v>3248.3225955695202</c:v>
+                      </c:pt>
+                      <c:pt idx="581">
+                        <c:v>3261.5112621836902</c:v>
+                      </c:pt>
+                      <c:pt idx="582">
+                        <c:v>3274.7247715542098</c:v>
+                      </c:pt>
+                      <c:pt idx="583">
+                        <c:v>3287.96297106257</c:v>
+                      </c:pt>
+                      <c:pt idx="584">
+                        <c:v>3301.2257066872799</c:v>
+                      </c:pt>
+                      <c:pt idx="585">
+                        <c:v>3314.5128230084501</c:v>
+                      </c:pt>
+                      <c:pt idx="586">
+                        <c:v>3327.8241632126001</c:v>
+                      </c:pt>
+                      <c:pt idx="587">
+                        <c:v>3341.1595690976001</c:v>
+                      </c:pt>
+                      <c:pt idx="588">
+                        <c:v>3354.5188810777499</c:v>
+                      </c:pt>
+                      <c:pt idx="589">
+                        <c:v>3367.9019381890198</c:v>
+                      </c:pt>
+                      <c:pt idx="590">
+                        <c:v>3381.3085780944998</c:v>
+                      </c:pt>
+                      <c:pt idx="591">
+                        <c:v>3394.7386370899399</c:v>
+                      </c:pt>
+                      <c:pt idx="592">
+                        <c:v>3408.1919501094699</c:v>
+                      </c:pt>
+                      <c:pt idx="593">
+                        <c:v>3421.6683507315302</c:v>
+                      </c:pt>
+                      <c:pt idx="594">
+                        <c:v>3435.16767118485</c:v>
+                      </c:pt>
+                      <c:pt idx="595">
+                        <c:v>3448.6897423546998</c:v>
+                      </c:pt>
+                      <c:pt idx="596">
+                        <c:v>3462.2343937892501</c:v>
+                      </c:pt>
+                      <c:pt idx="597">
+                        <c:v>3475.8014537060299</c:v>
+                      </c:pt>
+                      <c:pt idx="598">
+                        <c:v>3489.39074899869</c:v>
+                      </c:pt>
+                      <c:pt idx="599">
+                        <c:v>3503.0021052437501</c:v>
+                      </c:pt>
+                      <c:pt idx="600">
+                        <c:v>3516.6353467076701</c:v>
+                      </c:pt>
+                      <c:pt idx="601">
+                        <c:v>3530.29029635392</c:v>
+                      </c:pt>
+                      <c:pt idx="602">
+                        <c:v>3543.9667758503301</c:v>
+                      </c:pt>
+                      <c:pt idx="603">
+                        <c:v>3557.66460557655</c:v>
+                      </c:pt>
+                      <c:pt idx="604">
+                        <c:v>3571.3836046316401</c:v>
+                      </c:pt>
+                      <c:pt idx="605">
+                        <c:v>3585.1235908418698</c:v>
+                      </c:pt>
+                      <c:pt idx="606">
+                        <c:v>3598.8843807686198</c:v>
+                      </c:pt>
+                      <c:pt idx="607">
+                        <c:v>3612.6657897165001</c:v>
+                      </c:pt>
+                      <c:pt idx="608">
+                        <c:v>3626.4676317415301</c:v>
+                      </c:pt>
+                      <c:pt idx="609">
+                        <c:v>3640.28971965961</c:v>
+                      </c:pt>
+                      <c:pt idx="610">
+                        <c:v>3654.1318650549802</c:v>
+                      </c:pt>
+                      <c:pt idx="611">
+                        <c:v>3667.9938782889699</c:v>
+                      </c:pt>
+                      <c:pt idx="612">
+                        <c:v>3681.8755685088499</c:v>
+                      </c:pt>
+                      <c:pt idx="613">
+                        <c:v>3695.7767436568101</c:v>
+                      </c:pt>
+                      <c:pt idx="614">
+                        <c:v>3709.6972104790998</c:v>
+                      </c:pt>
+                      <c:pt idx="615">
+                        <c:v>3723.63677453538</c:v>
+                      </c:pt>
+                      <c:pt idx="616">
+                        <c:v>3737.5952402081298</c:v>
+                      </c:pt>
+                      <c:pt idx="617">
+                        <c:v>3751.5724107122801</c:v>
+                      </c:pt>
+                      <c:pt idx="618">
+                        <c:v>3765.5680881049502</c:v>
+                      </c:pt>
+                      <c:pt idx="619">
+                        <c:v>3779.5820732953198</c:v>
+                      </c:pt>
+                      <c:pt idx="620">
+                        <c:v>3793.61416605473</c:v>
+                      </c:pt>
+                      <c:pt idx="621">
+                        <c:v>3807.6641650268102</c:v>
+                      </c:pt>
+                      <c:pt idx="622">
+                        <c:v>3821.7318677378698</c:v>
+                      </c:pt>
+                      <c:pt idx="623">
+                        <c:v>3835.8170706073402</c:v>
+                      </c:pt>
+                      <c:pt idx="624">
+                        <c:v>3849.9195689583898</c:v>
+                      </c:pt>
+                      <c:pt idx="625">
+                        <c:v>3864.0391570287202</c:v>
+                      </c:pt>
+                      <c:pt idx="626">
+                        <c:v>3878.1756279814499</c:v>
+                      </c:pt>
+                      <c:pt idx="627">
+                        <c:v>3892.3287739161501</c:v>
+                      </c:pt>
+                      <c:pt idx="628">
+                        <c:v>3906.4983858800701</c:v>
+                      </c:pt>
+                      <c:pt idx="629">
+                        <c:v>3920.6842538793799</c:v>
+                      </c:pt>
+                      <c:pt idx="630">
+                        <c:v>3934.8861668907198</c:v>
+                      </c:pt>
+                      <c:pt idx="631">
+                        <c:v>3949.1039128727298</c:v>
+                      </c:pt>
+                      <c:pt idx="632">
+                        <c:v>3963.3372787777798</c:v>
+                      </c:pt>
+                      <c:pt idx="633">
+                        <c:v>3977.5860505638698</c:v>
+                      </c:pt>
+                      <c:pt idx="634">
+                        <c:v>3991.8500132065701</c:v>
+                      </c:pt>
+                      <c:pt idx="635">
+                        <c:v>4006.1289507112001</c:v>
+                      </c:pt>
+                      <c:pt idx="636">
+                        <c:v>4020.42264612504</c:v>
+                      </c:pt>
+                      <c:pt idx="637">
+                        <c:v>4034.7308815496899</c:v>
+                      </c:pt>
+                      <c:pt idx="638">
+                        <c:v>4049.0534381536399</c:v>
+                      </c:pt>
+                      <c:pt idx="639">
+                        <c:v>4063.3900961848499</c:v>
+                      </c:pt>
+                      <c:pt idx="640">
+                        <c:v>4077.7406349835301</c:v>
+                      </c:pt>
+                      <c:pt idx="641">
+                        <c:v>4092.1048329949899</c:v>
+                      </c:pt>
+                      <c:pt idx="642">
+                        <c:v>4106.48246778267</c:v>
+                      </c:pt>
+                      <c:pt idx="643">
+                        <c:v>4120.8733160412103</c:v>
+                      </c:pt>
+                      <c:pt idx="644">
+                        <c:v>4135.2771536097598</c:v>
+                      </c:pt>
+                      <c:pt idx="645">
+                        <c:v>4149.6937554852302</c:v>
+                      </c:pt>
+                      <c:pt idx="646">
+                        <c:v>4164.1228958358497</c:v>
+                      </c:pt>
+                      <c:pt idx="647">
+                        <c:v>4178.56434801467</c:v>
+                      </c:pt>
+                      <c:pt idx="648">
+                        <c:v>4193.0178845733099</c:v>
+                      </c:pt>
+                      <c:pt idx="649">
+                        <c:v>4207.48327727571</c:v>
+                      </c:pt>
+                      <c:pt idx="650">
+                        <c:v>4221.9602971120803</c:v>
+                      </c:pt>
+                      <c:pt idx="651">
+                        <c:v>4236.4487143128599</c:v>
+                      </c:pt>
+                      <c:pt idx="652">
+                        <c:v>4250.9482983628805</c:v>
+                      </c:pt>
+                      <c:pt idx="653">
+                        <c:v>4265.4588180155497</c:v>
+                      </c:pt>
+                      <c:pt idx="654">
+                        <c:v>4279.9800413072198</c:v>
+                      </c:pt>
+                      <c:pt idx="655">
+                        <c:v>4294.5117355715402</c:v>
+                      </c:pt>
+                      <c:pt idx="656">
+                        <c:v>4309.0536674540199</c:v>
+                      </c:pt>
+                      <c:pt idx="657">
+                        <c:v>4323.6056029266301</c:v>
+                      </c:pt>
+                      <c:pt idx="658">
+                        <c:v>4338.1673073025004</c:v>
+                      </c:pt>
+                      <c:pt idx="659">
+                        <c:v>4352.7385452507197</c:v>
+                      </c:pt>
+                      <c:pt idx="660">
+                        <c:v>4367.3190808112104</c:v>
+                      </c:pt>
+                      <c:pt idx="661">
+                        <c:v>4381.9086774097304</c:v>
+                      </c:pt>
+                      <c:pt idx="662">
+                        <c:v>4396.5070978729</c:v>
+                      </c:pt>
+                      <c:pt idx="663">
+                        <c:v>4411.1141044433698</c:v>
+                      </c:pt>
+                      <c:pt idx="664">
+                        <c:v>4425.72945879501</c:v>
+                      </c:pt>
+                      <c:pt idx="665">
+                        <c:v>4440.3529220482496</c:v>
+                      </c:pt>
+                      <c:pt idx="666">
+                        <c:v>4454.9842547854596</c:v>
+                      </c:pt>
+                      <c:pt idx="667">
+                        <c:v>4469.6232170663698</c:v>
+                      </c:pt>
+                      <c:pt idx="668">
+                        <c:v>4484.2695684436403</c:v>
+                      </c:pt>
+                      <c:pt idx="669">
+                        <c:v>4498.9230679784296</c:v>
+                      </c:pt>
+                      <c:pt idx="670">
+                        <c:v>4513.5834742561001</c:v>
+                      </c:pt>
+                      <c:pt idx="671">
+                        <c:v>4528.2505454019401</c:v>
+                      </c:pt>
+                      <c:pt idx="672">
+                        <c:v>4542.9240390969399</c:v>
+                      </c:pt>
+                      <c:pt idx="673">
+                        <c:v>4557.60371259371</c:v>
+                      </c:pt>
+                      <c:pt idx="674">
+                        <c:v>4572.2893227323502</c:v>
+                      </c:pt>
+                      <c:pt idx="675">
+                        <c:v>4586.9806259564803</c:v>
+                      </c:pt>
+                      <c:pt idx="676">
+                        <c:v>4601.6773783292701</c:v>
+                      </c:pt>
+                      <c:pt idx="677">
+                        <c:v>4616.3793355495</c:v>
+                      </c:pt>
+                      <c:pt idx="678">
+                        <c:v>4631.0862529677597</c:v>
+                      </c:pt>
+                      <c:pt idx="679">
+                        <c:v>4645.7978856025802</c:v>
+                      </c:pt>
+                      <c:pt idx="680">
+                        <c:v>4660.5139881567502</c:v>
+                      </c:pt>
+                      <c:pt idx="681">
+                        <c:v>4675.23431503354</c:v>
+                      </c:pt>
+                      <c:pt idx="682">
+                        <c:v>4689.9586203530698</c:v>
+                      </c:pt>
+                      <c:pt idx="683">
+                        <c:v>4704.6866579686603</c:v>
+                      </c:pt>
+                      <c:pt idx="684">
+                        <c:v>4719.41818148325</c:v>
+                      </c:pt>
+                      <c:pt idx="685">
+                        <c:v>4734.1529442658402</c:v>
+                      </c:pt>
+                      <c:pt idx="686">
+                        <c:v>4748.8906994679601</c:v>
+                      </c:pt>
+                      <c:pt idx="687">
+                        <c:v>4763.6312000401704</c:v>
+                      </c:pt>
+                      <c:pt idx="688">
+                        <c:v>4778.3741987486501</c:v>
+                      </c:pt>
+                      <c:pt idx="689">
+                        <c:v>4793.11944819168</c:v>
+                      </c:pt>
+                      <c:pt idx="690">
+                        <c:v>4807.8667008163002</c:v>
+                      </c:pt>
+                      <c:pt idx="691">
+                        <c:v>4822.6157089348899</c:v>
+                      </c:pt>
+                      <c:pt idx="692">
+                        <c:v>4837.3662247417597</c:v>
+                      </c:pt>
+                      <c:pt idx="693">
+                        <c:v>4852.1180003298896</c:v>
+                      </c:pt>
+                      <c:pt idx="694">
+                        <c:v>4866.8707877074703</c:v>
+                      </c:pt>
+                      <c:pt idx="695">
+                        <c:v>4881.6243388146804</c:v>
+                      </c:pt>
+                      <c:pt idx="696">
+                        <c:v>4896.3784055403103</c:v>
+                      </c:pt>
+                      <c:pt idx="697">
+                        <c:v>4911.1327397384503</c:v>
+                      </c:pt>
+                      <c:pt idx="698">
+                        <c:v>4925.8870932452</c:v>
+                      </c:pt>
+                      <c:pt idx="699">
+                        <c:v>4940.6412178953597</c:v>
+                      </c:pt>
+                      <c:pt idx="700">
+                        <c:v>4955.3948655391396</c:v>
+                      </c:pt>
+                      <c:pt idx="701">
+                        <c:v>4970.14778805882</c:v>
+                      </c:pt>
+                      <c:pt idx="702">
+                        <c:v>4984.89973738549</c:v>
+                      </c:pt>
+                      <c:pt idx="703">
+                        <c:v>4999.6504655156596</c:v>
+                      </c:pt>
+                      <c:pt idx="704">
+                        <c:v>5014.3997245280198</c:v>
+                      </c:pt>
+                      <c:pt idx="705">
+                        <c:v>5029.14726660002</c:v>
+                      </c:pt>
+                      <c:pt idx="706">
+                        <c:v>5043.89284402458</c:v>
+                      </c:pt>
+                      <c:pt idx="707">
+                        <c:v>5058.63620922668</c:v>
+                      </c:pt>
+                      <c:pt idx="708">
+                        <c:v>5073.3771147799898</c:v>
+                      </c:pt>
+                      <c:pt idx="709">
+                        <c:v>5088.1153134234601</c:v>
+                      </c:pt>
+                      <c:pt idx="710">
+                        <c:v>5102.8505580778901</c:v>
+                      </c:pt>
+                      <c:pt idx="711">
+                        <c:v>5117.5826018624402</c:v>
+                      </c:pt>
+                      <c:pt idx="712">
+                        <c:v>5132.3111981111897</c:v>
+                      </c:pt>
+                      <c:pt idx="713">
+                        <c:v>5147.0361003895896</c:v>
+                      </c:pt>
+                      <c:pt idx="714">
+                        <c:v>5161.7570625109302</c:v>
+                      </c:pt>
+                      <c:pt idx="715">
+                        <c:v>5176.4738385527198</c:v>
+                      </c:pt>
+                      <c:pt idx="716">
+                        <c:v>5191.1861828731098</c:v>
+                      </c:pt>
+                      <c:pt idx="717">
+                        <c:v>5205.8938501271996</c:v>
+                      </c:pt>
+                      <c:pt idx="718">
+                        <c:v>5220.5965952833303</c:v>
+                      </c:pt>
+                      <c:pt idx="719">
+                        <c:v>5235.2941736393404</c:v>
+                      </c:pt>
+                      <c:pt idx="720">
+                        <c:v>5249.9863408387901</c:v>
+                      </c:pt>
+                      <c:pt idx="721">
+                        <c:v>5264.6728528870699</c:v>
+                      </c:pt>
+                      <c:pt idx="722">
+                        <c:v>5279.3534661675403</c:v>
+                      </c:pt>
+                      <c:pt idx="723">
+                        <c:v>5294.0279374575703</c:v>
+                      </c:pt>
+                      <c:pt idx="724">
+                        <c:v>5308.6960239445098</c:v>
+                      </c:pt>
+                      <c:pt idx="725">
+                        <c:v>5323.3574832416598</c:v>
+                      </c:pt>
+                      <c:pt idx="726">
+                        <c:v>5338.0120734041302</c:v>
+                      </c:pt>
+                      <c:pt idx="727">
+                        <c:v>5352.6595529446504</c:v>
+                      </c:pt>
+                      <c:pt idx="728">
+                        <c:v>5367.2996808493199</c:v>
+                      </c:pt>
+                      <c:pt idx="729">
+                        <c:v>5381.9322165932799</c:v>
+                      </c:pt>
+                      <c:pt idx="730">
+                        <c:v>5396.5569201563303</c:v>
+                      </c:pt>
+                      <c:pt idx="731">
+                        <c:v>5411.17355203851</c:v>
+                      </c:pt>
+                      <c:pt idx="732">
+                        <c:v>5425.7818732754904</c:v>
+                      </c:pt>
+                      <c:pt idx="733">
+                        <c:v>5440.3816454540402</c:v>
+                      </c:pt>
+                      <c:pt idx="734">
+                        <c:v>5454.9726307272704</c:v>
+                      </c:pt>
+                      <c:pt idx="735">
+                        <c:v>5469.5545918299604</c:v>
+                      </c:pt>
+                      <c:pt idx="736">
+                        <c:v>5484.1272920936199</c:v>
+                      </c:pt>
+                      <c:pt idx="737">
+                        <c:v>5498.6904954616302</c:v>
+                      </c:pt>
+                      <c:pt idx="738">
+                        <c:v>5513.2439665041902</c:v>
+                      </c:pt>
+                      <c:pt idx="739">
+                        <c:v>5527.7874704332498</c:v>
+                      </c:pt>
+                      <c:pt idx="740">
+                        <c:v>5542.3207731172697</c:v>
+                      </c:pt>
+                      <c:pt idx="741">
+                        <c:v>5556.8436410959903</c:v>
+                      </c:pt>
+                      <c:pt idx="742">
+                        <c:v>5571.3558415950401</c:v>
+                      </c:pt>
+                      <c:pt idx="743">
+                        <c:v>5585.8571425404598</c:v>
+                      </c:pt>
+                      <c:pt idx="744">
+                        <c:v>5600.3473125731398</c:v>
+                      </c:pt>
+                      <c:pt idx="745">
+                        <c:v>5614.8261210631499</c:v>
+                      </c:pt>
+                      <c:pt idx="746">
+                        <c:v>5629.29333812399</c:v>
+                      </c:pt>
+                      <c:pt idx="747">
+                        <c:v>5643.7487346266998</c:v>
+                      </c:pt>
+                      <c:pt idx="748">
+                        <c:v>5658.19208221393</c:v>
+                      </c:pt>
+                      <c:pt idx="749">
+                        <c:v>5672.6231533137898</c:v>
+                      </c:pt>
+                      <c:pt idx="750">
+                        <c:v>5687.0417211537497</c:v>
+                      </c:pt>
+                      <c:pt idx="751">
+                        <c:v>5701.4475597742603</c:v>
+                      </c:pt>
+                      <c:pt idx="752">
+                        <c:v>5715.8404440424201</c:v>
+                      </c:pt>
+                      <c:pt idx="753">
+                        <c:v>5730.2201496654197</c:v>
+                      </c:pt>
+                      <c:pt idx="754">
+                        <c:v>5744.5864532039204</c:v>
+                      </c:pt>
+                      <c:pt idx="755">
+                        <c:v>5758.9391320853001</c:v>
+                      </c:pt>
+                      <c:pt idx="756">
+                        <c:v>5773.2779646167801</c:v>
+                      </c:pt>
+                      <c:pt idx="757">
+                        <c:v>5787.6027299984698</c:v>
+                      </c:pt>
+                      <c:pt idx="758">
+                        <c:v>5801.9132083362401</c:v>
+                      </c:pt>
+                      <c:pt idx="759">
+                        <c:v>5816.2091806544804</c:v>
+                      </c:pt>
+                      <c:pt idx="760">
+                        <c:v>5830.4904289087899</c:v>
+                      </c:pt>
+                      <c:pt idx="761">
+                        <c:v>5844.7567359984696</c:v>
+                      </c:pt>
+                      <c:pt idx="762">
+                        <c:v>5859.0078857789404</c:v>
+                      </c:pt>
+                      <c:pt idx="763">
+                        <c:v>5873.2436630740003</c:v>
+                      </c:pt>
+                      <c:pt idx="764">
+                        <c:v>5887.4638536879802</c:v>
+                      </c:pt>
+                      <c:pt idx="765">
+                        <c:v>5901.6682444177404</c:v>
+                      </c:pt>
+                      <c:pt idx="766">
+                        <c:v>5915.8566230645602</c:v>
+                      </c:pt>
+                      <c:pt idx="767">
+                        <c:v>5930.0287784458897</c:v>
+                      </c:pt>
+                      <c:pt idx="768">
+                        <c:v>5944.1845004069701</c:v>
+                      </c:pt>
+                      <c:pt idx="769">
+                        <c:v>5958.3235798322703</c:v>
+                      </c:pt>
+                      <c:pt idx="770">
+                        <c:v>5972.4458086568802</c:v>
+                      </c:pt>
+                      <c:pt idx="771">
+                        <c:v>5986.5509798776902</c:v>
+                      </c:pt>
+                      <c:pt idx="772">
+                        <c:v>6000.6388875644698</c:v>
+                      </c:pt>
+                      <c:pt idx="773">
+                        <c:v>6014.7093268707804</c:v>
+                      </c:pt>
+                      <c:pt idx="774">
+                        <c:v>6028.7620940447496</c:v>
+                      </c:pt>
+                      <c:pt idx="775">
+                        <c:v>6042.7969864397501</c:v>
+                      </c:pt>
+                      <c:pt idx="776">
+                        <c:v>6056.81380252487</c:v>
+                      </c:pt>
+                      <c:pt idx="777">
+                        <c:v>6070.81234189528</c:v>
+                      </c:pt>
+                      <c:pt idx="778">
+                        <c:v>6084.7924052824701</c:v>
+                      </c:pt>
+                      <c:pt idx="779">
+                        <c:v>6098.7537945642498</c:v>
+                      </c:pt>
+                      <c:pt idx="780">
+                        <c:v>6112.6963127747304</c:v>
+                      </c:pt>
+                      <c:pt idx="781">
+                        <c:v>6126.6197641140998</c:v>
+                      </c:pt>
+                      <c:pt idx="782">
+                        <c:v>6140.5239539581898</c:v>
+                      </c:pt>
+                      <c:pt idx="783">
+                        <c:v>6154.4086888680204</c:v>
+                      </c:pt>
+                      <c:pt idx="784">
+                        <c:v>6168.2737765990496</c:v>
+                      </c:pt>
+                      <c:pt idx="785">
+                        <c:v>6182.1190261104502</c:v>
+                      </c:pt>
+                      <c:pt idx="786">
+                        <c:v>6195.9442475740198</c:v>
+                      </c:pt>
+                      <c:pt idx="787">
+                        <c:v>6209.7492523831597</c:v>
+                      </c:pt>
+                      <c:pt idx="788">
+                        <c:v>6223.5338531615198</c:v>
+                      </c:pt>
+                      <c:pt idx="789">
+                        <c:v>6237.2978637716096</c:v>
+                      </c:pt>
+                      <c:pt idx="790">
+                        <c:v>6251.0410993231899</c:v>
+                      </c:pt>
+                      <c:pt idx="791">
+                        <c:v>6264.7633761815396</c:v>
+                      </c:pt>
+                      <c:pt idx="792">
+                        <c:v>6278.4645119755796</c:v>
+                      </c:pt>
+                      <c:pt idx="793">
+                        <c:v>6292.1443256058001</c:v>
+                      </c:pt>
+                      <c:pt idx="794">
+                        <c:v>6305.8026372520699</c:v>
+                      </c:pt>
+                      <c:pt idx="795">
+                        <c:v>6319.4392683812703</c:v>
+                      </c:pt>
+                      <c:pt idx="796">
+                        <c:v>6333.05404175478</c:v>
+                      </c:pt>
+                      <c:pt idx="797">
+                        <c:v>6346.6467814358202</c:v>
+                      </c:pt>
+                      <c:pt idx="798">
+                        <c:v>6360.2173127965998</c:v>
+                      </c:pt>
+                      <c:pt idx="799">
+                        <c:v>6373.7654625253399</c:v>
+                      </c:pt>
+                      <c:pt idx="800">
+                        <c:v>6387.29105863314</c:v>
+                      </c:pt>
+                      <c:pt idx="801">
+                        <c:v>6400.7939304606698</c:v>
+                      </c:pt>
+                      <c:pt idx="802">
+                        <c:v>6414.2739086846996</c:v>
+                      </c:pt>
+                      <c:pt idx="803">
+                        <c:v>6427.7308253245201</c:v>
+                      </c:pt>
+                      <c:pt idx="804">
+                        <c:v>6441.16451374811</c:v>
+                      </c:pt>
+                      <c:pt idx="805">
+                        <c:v>6454.5748086782696</c:v>
+                      </c:pt>
+                      <c:pt idx="806">
+                        <c:v>6467.9615461984904</c:v>
+                      </c:pt>
+                      <c:pt idx="807">
+                        <c:v>6481.3245637587097</c:v>
+                      </c:pt>
+                      <c:pt idx="808">
+                        <c:v>6494.6637001809204</c:v>
+                      </c:pt>
+                      <c:pt idx="809">
+                        <c:v>6507.9787956645796</c:v>
+                      </c:pt>
+                      <c:pt idx="810">
+                        <c:v>6521.2696917919202</c:v>
+                      </c:pt>
+                      <c:pt idx="811">
+                        <c:v>6534.5362315330503</c:v>
+                      </c:pt>
+                      <c:pt idx="812">
+                        <c:v>6547.7782592509102</c:v>
+                      </c:pt>
+                      <c:pt idx="813">
+                        <c:v>6560.9956207060904</c:v>
+                      </c:pt>
+                      <c:pt idx="814">
+                        <c:v>6574.1881630614598</c:v>
+                      </c:pt>
+                      <c:pt idx="815">
+                        <c:v>6587.3557348866898</c:v>
+                      </c:pt>
+                      <c:pt idx="816">
+                        <c:v>6600.4981861625301</c:v>
+                      </c:pt>
+                      <c:pt idx="817">
+                        <c:v>6613.6153682850399</c:v>
+                      </c:pt>
+                      <c:pt idx="818">
+                        <c:v>6626.7071340695502</c:v>
+                      </c:pt>
+                      <c:pt idx="819">
+                        <c:v>6639.7733377545901</c:v>
+                      </c:pt>
+                      <c:pt idx="820">
+                        <c:v>6652.8138350055297</c:v>
+                      </c:pt>
+                      <c:pt idx="821">
+                        <c:v>6665.8284829181703</c:v>
+                      </c:pt>
+                      <c:pt idx="822">
+                        <c:v>6678.8171400221199</c:v>
+                      </c:pt>
+                      <c:pt idx="823">
+                        <c:v>6691.7796662840301</c:v>
+                      </c:pt>
+                      <c:pt idx="824">
+                        <c:v>6704.7159231106998</c:v>
+                      </c:pt>
+                      <c:pt idx="825">
+                        <c:v>6717.6257733519897</c:v>
+                      </c:pt>
+                      <c:pt idx="826">
+                        <c:v>6730.5090813036004</c:v>
+                      </c:pt>
+                      <c:pt idx="827">
+                        <c:v>6743.3657127097104</c:v>
+                      </c:pt>
+                      <c:pt idx="828">
+                        <c:v>6756.1955347654102</c:v>
+                      </c:pt>
+                      <c:pt idx="829">
+                        <c:v>6768.9984161190896</c:v>
+                      </c:pt>
+                      <c:pt idx="830">
+                        <c:v>6781.7742268745296</c:v>
+                      </c:pt>
+                      <c:pt idx="831">
+                        <c:v>6794.5228385929604</c:v>
+                      </c:pt>
+                      <c:pt idx="832">
+                        <c:v>6807.2441242949299</c:v>
+                      </c:pt>
+                      <c:pt idx="833">
+                        <c:v>6819.9379584620201</c:v>
+                      </c:pt>
+                      <c:pt idx="834">
+                        <c:v>6832.6042170383898</c:v>
+                      </c:pt>
+                      <c:pt idx="835">
+                        <c:v>6845.2427774322196</c:v>
+                      </c:pt>
+                      <c:pt idx="836">
+                        <c:v>6857.8535185169803</c:v>
+                      </c:pt>
+                      <c:pt idx="837">
+                        <c:v>6870.4363206325697</c:v>
+                      </c:pt>
+                      <c:pt idx="838">
+                        <c:v>6882.9910655862604</c:v>
+                      </c:pt>
+                      <c:pt idx="839">
+                        <c:v>6895.5176366535597</c:v>
+                      </c:pt>
+                      <c:pt idx="840">
+                        <c:v>6908.0159185788998</c:v>
+                      </c:pt>
+                      <c:pt idx="841">
+                        <c:v>6920.4857975761697</c:v>
+                      </c:pt>
+                      <c:pt idx="842">
+                        <c:v>6932.9271613291403</c:v>
+                      </c:pt>
+                      <c:pt idx="843">
+                        <c:v>6945.3398989916996</c:v>
+                      </c:pt>
+                      <c:pt idx="844">
+                        <c:v>6957.7239011879901</c:v>
+                      </c:pt>
+                      <c:pt idx="845">
+                        <c:v>6970.0790600124001</c:v>
+                      </c:pt>
+                      <c:pt idx="846">
+                        <c:v>6982.4052690293802</c:v>
+                      </c:pt>
+                      <c:pt idx="847">
+                        <c:v>6994.7024232731601</c:v>
+                      </c:pt>
+                      <c:pt idx="848">
+                        <c:v>7006.97041924731</c:v>
+                      </c:pt>
+                      <c:pt idx="849">
+                        <c:v>7019.2091549241604</c:v>
+                      </c:pt>
+                      <c:pt idx="850">
+                        <c:v>7031.41852974414</c:v>
+                      </c:pt>
+                      <c:pt idx="851">
+                        <c:v>7043.5984446148595</c:v>
+                      </c:pt>
+                      <c:pt idx="852">
+                        <c:v>7055.7488019102202</c:v>
+                      </c:pt>
+                      <c:pt idx="853">
+                        <c:v>7067.8695054692198</c:v>
+                      </c:pt>
+                      <c:pt idx="854">
+                        <c:v>7079.9604605947998</c:v>
+                      </c:pt>
+                      <c:pt idx="855">
+                        <c:v>7092.02157405242</c:v>
+                      </c:pt>
+                      <c:pt idx="856">
+                        <c:v>7104.0527540685898</c:v>
+                      </c:pt>
+                      <c:pt idx="857">
+                        <c:v>7116.0539103292103</c:v>
+                      </c:pt>
+                      <c:pt idx="858">
+                        <c:v>7128.0249539778497</c:v>
+                      </c:pt>
+                      <c:pt idx="859">
+                        <c:v>7139.9657976138797</c:v>
+                      </c:pt>
+                      <c:pt idx="860">
+                        <c:v>7151.8763552904102</c:v>
+                      </c:pt>
+                      <c:pt idx="861">
+                        <c:v>7163.7565425122202</c:v>
+                      </c:pt>
+                      <c:pt idx="862">
+                        <c:v>7175.6062762334996</c:v>
+                      </c:pt>
+                      <c:pt idx="863">
+                        <c:v>7187.4254748554304</c:v>
+                      </c:pt>
+                      <c:pt idx="864">
+                        <c:v>7199.2140582237598</c:v>
+                      </c:pt>
+                      <c:pt idx="865">
+                        <c:v>7210.9719476261598</c:v>
+                      </c:pt>
+                      <c:pt idx="866">
+                        <c:v>7222.6990657894703</c:v>
+                      </c:pt>
+                      <c:pt idx="867">
+                        <c:v>7234.3953368769198</c:v>
+                      </c:pt>
+                      <c:pt idx="868">
+                        <c:v>7246.0606864850997</c:v>
+                      </c:pt>
+                      <c:pt idx="869">
+                        <c:v>7257.69504164092</c:v>
+                      </c:pt>
+                      <c:pt idx="870">
+                        <c:v>7269.2983307984496</c:v>
+                      </c:pt>
+                      <c:pt idx="871">
+                        <c:v>7280.8704838355397</c:v>
+                      </c:pt>
+                      <c:pt idx="872">
+                        <c:v>7292.4114320504996</c:v>
+                      </c:pt>
+                      <c:pt idx="873">
+                        <c:v>7303.9211081585299</c:v>
+                      </c:pt>
+                      <c:pt idx="874">
+                        <c:v>7315.3994462880901</c:v>
+                      </c:pt>
+                      <c:pt idx="875">
+                        <c:v>7326.8463819771896</c:v>
+                      </c:pt>
+                      <c:pt idx="876">
+                        <c:v>7338.2618521695604</c:v>
+                      </c:pt>
+                      <c:pt idx="877">
+                        <c:v>7349.6457952106603</c:v>
+                      </c:pt>
+                      <c:pt idx="878">
+                        <c:v>7360.9981508436904</c:v>
+                      </c:pt>
+                      <c:pt idx="879">
+                        <c:v>7372.3188602053997</c:v>
+                      </c:pt>
+                      <c:pt idx="880">
+                        <c:v>7383.6078658218803</c:v>
+                      </c:pt>
+                      <c:pt idx="881">
+                        <c:v>7394.8651116041801</c:v>
+                      </c:pt>
+                      <c:pt idx="882">
+                        <c:v>7406.09054284389</c:v>
+                      </c:pt>
+                      <c:pt idx="883">
+                        <c:v>7417.2841062086</c:v>
+                      </c:pt>
+                      <c:pt idx="884">
+                        <c:v>7428.4457497372396</c:v>
+                      </c:pt>
+                      <c:pt idx="885">
+                        <c:v>7439.5754228353999</c:v>
+                      </c:pt>
+                      <c:pt idx="886">
+                        <c:v>7450.6730762704601</c:v>
+                      </c:pt>
+                      <c:pt idx="887">
+                        <c:v>7461.7386621667301</c:v>
+                      </c:pt>
+                      <c:pt idx="888">
+                        <c:v>7472.77213400039</c:v>
+                      </c:pt>
+                      <c:pt idx="889">
+                        <c:v>7483.7734465944604</c:v>
+                      </c:pt>
+                      <c:pt idx="890">
+                        <c:v>7494.7425561135997</c:v>
+                      </c:pt>
+                      <c:pt idx="891">
+                        <c:v>7505.6794200588502</c:v>
+                      </c:pt>
+                      <c:pt idx="892">
+                        <c:v>7516.5839972622898</c:v>
+                      </c:pt>
+                      <c:pt idx="893">
+                        <c:v>7527.4562478815997</c:v>
+                      </c:pt>
+                      <c:pt idx="894">
+                        <c:v>7538.2961333945896</c:v>
+                      </c:pt>
+                      <c:pt idx="895">
+                        <c:v>7549.1036165935702</c:v>
+                      </c:pt>
+                      <c:pt idx="896">
+                        <c:v>7559.8786615796898</c:v>
+                      </c:pt>
+                      <c:pt idx="897">
+                        <c:v>7570.6212337572497</c:v>
+                      </c:pt>
+                      <c:pt idx="898">
+                        <c:v>7581.3312998278097</c:v>
+                      </c:pt>
+                      <c:pt idx="899">
+                        <c:v>7592.0088277843197</c:v>
+                      </c:pt>
+                      <c:pt idx="900">
+                        <c:v>7602.6537869051799</c:v>
+                      </c:pt>
+                      <c:pt idx="901">
+                        <c:v>7613.2661477481697</c:v>
+                      </c:pt>
+                      <c:pt idx="902">
+                        <c:v>7623.8458821443601</c:v>
+                      </c:pt>
+                      <c:pt idx="903">
+                        <c:v>7634.39296319192</c:v>
+                      </c:pt>
+                      <c:pt idx="904">
+                        <c:v>7644.9073652499001</c:v>
+                      </c:pt>
+                      <c:pt idx="905">
+                        <c:v>7655.3890639318697</c:v>
+                      </c:pt>
+                      <c:pt idx="906">
+                        <c:v>7665.8380360995798</c:v>
+                      </c:pt>
+                      <c:pt idx="907">
+                        <c:v>7676.2542598565396</c:v>
+                      </c:pt>
+                      <c:pt idx="908">
+                        <c:v>7686.6377145414599</c:v>
+                      </c:pt>
+                      <c:pt idx="909">
+                        <c:v>7696.9883807217302</c:v>
+                      </c:pt>
+                      <c:pt idx="910">
+                        <c:v>7707.3062401867801</c:v>
+                      </c:pt>
+                      <c:pt idx="911">
+                        <c:v>7717.5912759414095</c:v>
+                      </c:pt>
+                      <c:pt idx="912">
+                        <c:v>7727.8434721990598</c:v>
+                      </c:pt>
+                      <c:pt idx="913">
+                        <c:v>7738.06281437496</c:v>
+                      </c:pt>
+                      <c:pt idx="914">
+                        <c:v>7748.2492890793801</c:v>
+                      </c:pt>
+                      <c:pt idx="915">
+                        <c:v>7758.4028841106301</c:v>
+                      </c:pt>
+                      <c:pt idx="916">
+                        <c:v>7768.5235884481799</c:v>
+                      </c:pt>
+                      <c:pt idx="917">
+                        <c:v>7778.6113922456198</c:v>
+                      </c:pt>
+                      <c:pt idx="918">
+                        <c:v>7788.6662868236299</c:v>
+                      </c:pt>
+                      <c:pt idx="919">
+                        <c:v>7798.6882646628601</c:v>
+                      </c:pt>
+                      <c:pt idx="920">
+                        <c:v>7808.6773193968002</c:v>
+                      </c:pt>
+                      <c:pt idx="921">
+                        <c:v>7818.6334458045903</c:v>
+                      </c:pt>
+                      <c:pt idx="922">
+                        <c:v>7828.5566398037699</c:v>
+                      </c:pt>
+                      <c:pt idx="923">
+                        <c:v>7838.4468984430296</c:v>
+                      </c:pt>
+                      <c:pt idx="924">
+                        <c:v>7848.3042198948597</c:v>
+                      </c:pt>
+                      <c:pt idx="925">
+                        <c:v>7858.12860344823</c:v>
+                      </c:pt>
+                      <c:pt idx="926">
+                        <c:v>7867.9200495011601</c:v>
+                      </c:pt>
+                      <c:pt idx="927">
+                        <c:v>7877.6785595533001</c:v>
+                      </c:pt>
+                      <c:pt idx="928">
+                        <c:v>7887.40413619846</c:v>
+                      </c:pt>
+                      <c:pt idx="929">
+                        <c:v>7897.0967831171001</c:v>
+                      </c:pt>
+                      <c:pt idx="930">
+                        <c:v>7906.7565050687999</c:v>
+                      </c:pt>
+                      <c:pt idx="931">
+                        <c:v>7916.3833078847001</c:v>
+                      </c:pt>
+                      <c:pt idx="932">
+                        <c:v>7925.9771984598401</c:v>
+                      </c:pt>
+                      <c:pt idx="933">
+                        <c:v>7935.5381847456101</c:v>
+                      </c:pt>
+                      <c:pt idx="934">
+                        <c:v>7945.0662757420296</c:v>
+                      </c:pt>
+                      <c:pt idx="935">
+                        <c:v>7954.56148149008</c:v>
+                      </c:pt>
+                      <c:pt idx="936">
+                        <c:v>7964.02381306396</c:v>
+                      </c:pt>
+                      <c:pt idx="937">
+                        <c:v>7973.4532825634196</c:v>
+                      </c:pt>
+                      <c:pt idx="938">
+                        <c:v>7982.84990310589</c:v>
+                      </c:pt>
+                      <c:pt idx="939">
+                        <c:v>7992.2136888187897</c:v>
+                      </c:pt>
+                      <c:pt idx="940">
+                        <c:v>8001.5446548316504</c:v>
+                      </c:pt>
+                      <c:pt idx="941">
+                        <c:v>8010.8428172683298</c:v>
+                      </c:pt>
+                      <c:pt idx="942">
+                        <c:v>8020.1081932391198</c:v>
+                      </c:pt>
+                      <c:pt idx="943">
+                        <c:v>8029.3408008329097</c:v>
+                      </c:pt>
+                      <c:pt idx="944">
+                        <c:v>8038.5406591092897</c:v>
+                      </c:pt>
+                      <c:pt idx="945">
+                        <c:v>8047.70778809064</c:v>
+                      </c:pt>
+                      <c:pt idx="946">
+                        <c:v>8056.8422087542303</c:v>
+                      </c:pt>
+                      <c:pt idx="947">
+                        <c:v>8065.9439430242801</c:v>
+                      </c:pt>
+                      <c:pt idx="948">
+                        <c:v>8075.0130137639899</c:v>
+                      </c:pt>
+                      <c:pt idx="949">
+                        <c:v>8084.0494447676301</c:v>
+                      </c:pt>
+                      <c:pt idx="950">
+                        <c:v>8093.0532607525402</c:v>
+                      </c:pt>
+                      <c:pt idx="951">
+                        <c:v>8102.0244873511501</c:v>
+                      </c:pt>
+                      <c:pt idx="952">
+                        <c:v>8110.9631511030302</c:v>
+                      </c:pt>
+                      <c:pt idx="953">
+                        <c:v>8119.8692794468398</c:v>
+                      </c:pt>
+                      <c:pt idx="954">
+                        <c:v>8128.7429007123701</c:v>
+                      </c:pt>
+                      <c:pt idx="955">
+                        <c:v>8137.5840441125301</c:v>
+                      </c:pt>
+                      <c:pt idx="956">
+                        <c:v>8146.39273973532</c:v>
+                      </c:pt>
+                      <c:pt idx="957">
+                        <c:v>8155.1690185358202</c:v>
+                      </c:pt>
+                      <c:pt idx="958">
+                        <c:v>8163.9129123282</c:v>
+                      </c:pt>
+                      <c:pt idx="959">
+                        <c:v>8172.6244537776502</c:v>
+                      </c:pt>
+                      <c:pt idx="960">
+                        <c:v>8181.3036763923901</c:v>
+                      </c:pt>
+                      <c:pt idx="961">
+                        <c:v>8189.9506145156502</c:v>
+                      </c:pt>
+                      <c:pt idx="962">
+                        <c:v>8198.5653033176404</c:v>
+                      </c:pt>
+                      <c:pt idx="963">
+                        <c:v>8207.1477787875392</c:v>
+                      </c:pt>
+                      <c:pt idx="964">
+                        <c:v>8215.6980777254703</c:v>
+                      </c:pt>
+                      <c:pt idx="965">
+                        <c:v>8224.2162377344903</c:v>
+                      </c:pt>
+                      <c:pt idx="966">
+                        <c:v>8232.7022972125997</c:v>
+                      </c:pt>
+                      <c:pt idx="967">
+                        <c:v>8241.1562953446992</c:v>
+                      </c:pt>
+                      <c:pt idx="968">
+                        <c:v>8249.5782720946609</c:v>
+                      </c:pt>
+                      <c:pt idx="969">
+                        <c:v>8257.9682681972699</c:v>
+                      </c:pt>
+                      <c:pt idx="970">
+                        <c:v>8266.3263251502703</c:v>
+                      </c:pt>
+                      <c:pt idx="971">
+                        <c:v>8274.6524852064194</c:v>
+                      </c:pt>
+                      <c:pt idx="972">
+                        <c:v>8282.9467913654807</c:v>
+                      </c:pt>
+                      <c:pt idx="973">
+                        <c:v>8291.2092873663205</c:v>
+                      </c:pt>
+                      <c:pt idx="974">
+                        <c:v>8299.4400176789004</c:v>
+                      </c:pt>
+                      <c:pt idx="975">
+                        <c:v>8307.6390274964197</c:v>
+                      </c:pt>
+                      <c:pt idx="976">
+                        <c:v>8315.8063627273605</c:v>
+                      </c:pt>
+                      <c:pt idx="977">
+                        <c:v>8323.94206998759</c:v>
+                      </c:pt>
+                      <c:pt idx="978">
+                        <c:v>8332.0461965924696</c:v>
+                      </c:pt>
+                      <c:pt idx="979">
+                        <c:v>8340.1187905489896</c:v>
+                      </c:pt>
+                      <c:pt idx="980">
+                        <c:v>8348.1599005479093</c:v>
+                      </c:pt>
+                      <c:pt idx="981">
+                        <c:v>8356.1695759559207</c:v>
+                      </c:pt>
+                      <c:pt idx="982">
+                        <c:v>8364.1478668078198</c:v>
+                      </c:pt>
+                      <c:pt idx="983">
+                        <c:v>8372.0948237986795</c:v>
+                      </c:pt>
+                      <c:pt idx="984">
+                        <c:v>8380.0104982761095</c:v>
+                      </c:pt>
+                      <c:pt idx="985">
+                        <c:v>8387.8949422324495</c:v>
+                      </c:pt>
+                      <c:pt idx="986">
+                        <c:v>8395.74820829702</c:v>
+                      </c:pt>
+                      <c:pt idx="987">
+                        <c:v>8403.5703497284303</c:v>
+                      </c:pt>
+                      <c:pt idx="988">
+                        <c:v>8411.3614204068199</c:v>
+                      </c:pt>
+                      <c:pt idx="989">
+                        <c:v>8419.1214748262391</c:v>
+                      </c:pt>
+                      <c:pt idx="990">
+                        <c:v>8426.8505680869093</c:v>
+                      </c:pt>
+                      <c:pt idx="991">
+                        <c:v>8434.5487558876503</c:v>
+                      </c:pt>
+                      <c:pt idx="992">
+                        <c:v>8442.2160945182295</c:v>
+                      </c:pt>
+                      <c:pt idx="993">
+                        <c:v>8449.8526408517791</c:v>
+                      </c:pt>
+                      <c:pt idx="994">
+                        <c:v>8457.4584523372196</c:v>
+                      </c:pt>
+                      <c:pt idx="995">
+                        <c:v>8465.0335869917399</c:v>
+                      </c:pt>
+                      <c:pt idx="996">
+                        <c:v>8472.5781033932599</c:v>
+                      </c:pt>
+                      <c:pt idx="997">
+                        <c:v>8480.0920606729596</c:v>
+                      </c:pt>
+                      <c:pt idx="998">
+                        <c:v>8487.5755185077996</c:v>
+                      </c:pt>
+                      <c:pt idx="999">
+                        <c:v>8495.0285371130994</c:v>
+                      </c:pt>
+                      <c:pt idx="1000">
+                        <c:v>8502.4511772351198</c:v>
+                      </c:pt>
+                      <c:pt idx="1001">
+                        <c:v>8509.8435001436992</c:v>
+                      </c:pt>
+                      <c:pt idx="1002">
+                        <c:v>8517.2055676248801</c:v>
+                      </c:pt>
+                      <c:pt idx="1003">
+                        <c:v>8524.5374419736199</c:v>
+                      </c:pt>
+                      <c:pt idx="1004">
+                        <c:v>8531.8391859864896</c:v>
+                      </c:pt>
+                      <c:pt idx="1005">
+                        <c:v>8539.1108629543996</c:v>
+                      </c:pt>
+                      <c:pt idx="1006">
+                        <c:v>8546.3525366553895</c:v>
+                      </c:pt>
+                      <c:pt idx="1007">
+                        <c:v>8553.5642713474208</c:v>
+                      </c:pt>
+                      <c:pt idx="1008">
+                        <c:v>8560.7461317612197</c:v>
+                      </c:pt>
+                      <c:pt idx="1009">
+                        <c:v>8567.8981830931498</c:v>
+                      </c:pt>
+                      <c:pt idx="1010">
+                        <c:v>8575.0204909980694</c:v>
+                      </c:pt>
+                      <c:pt idx="1011">
+                        <c:v>8582.1131215823298</c:v>
+                      </c:pt>
+                      <c:pt idx="1012">
+                        <c:v>8589.1761413966797</c:v>
+                      </c:pt>
+                      <c:pt idx="1013">
+                        <c:v>8596.2096174293201</c:v>
+                      </c:pt>
+                      <c:pt idx="1014">
+                        <c:v>8603.2136170988906</c:v>
+                      </c:pt>
+                      <c:pt idx="1015">
+                        <c:v>8610.1882082475495</c:v>
+                      </c:pt>
+                      <c:pt idx="1016">
+                        <c:v>8617.1334591340892</c:v>
+                      </c:pt>
+                      <c:pt idx="1017">
+                        <c:v>8624.0494384271005</c:v>
+                      </c:pt>
+                      <c:pt idx="1018">
+                        <c:v>8630.9362151980495</c:v>
+                      </c:pt>
+                      <c:pt idx="1019">
+                        <c:v>8637.7938589146106</c:v>
+                      </c:pt>
+                      <c:pt idx="1020">
+                        <c:v>8644.6224394338296</c:v>
+                      </c:pt>
+                      <c:pt idx="1021">
+                        <c:v>8651.4220269954094</c:v>
+                      </c:pt>
+                      <c:pt idx="1022">
+                        <c:v>8658.1926922150797</c:v>
+                      </c:pt>
+                      <c:pt idx="1023">
+                        <c:v>8664.9345060778996</c:v>
+                      </c:pt>
+                      <c:pt idx="1024">
+                        <c:v>8671.6475399316896</c:v>
+                      </c:pt>
+                      <c:pt idx="1025">
+                        <c:v>8678.3318654804207</c:v>
+                      </c:pt>
+                      <c:pt idx="1026">
+                        <c:v>8684.9875547777192</c:v>
+                      </c:pt>
+                      <c:pt idx="1027">
+                        <c:v>8691.6146802203493</c:v>
+                      </c:pt>
+                      <c:pt idx="1028">
+                        <c:v>8698.2133145417993</c:v>
+                      </c:pt>
+                      <c:pt idx="1029">
+                        <c:v>8704.7835308058002</c:v>
+                      </c:pt>
+                      <c:pt idx="1030">
+                        <c:v>8711.3254023999907</c:v>
+                      </c:pt>
+                      <c:pt idx="1031">
+                        <c:v>8717.8390030295704</c:v>
+                      </c:pt>
+                      <c:pt idx="1032">
+                        <c:v>8724.3244067109899</c:v>
+                      </c:pt>
+                      <c:pt idx="1033">
+                        <c:v>8730.7816877657297</c:v>
+                      </c:pt>
+                      <c:pt idx="1034">
+                        <c:v>8737.21092081401</c:v>
+                      </c:pt>
+                      <c:pt idx="1035">
+                        <c:v>8743.6121807686795</c:v>
+                      </c:pt>
+                      <c:pt idx="1036">
+                        <c:v>8749.9855428290193</c:v>
+                      </c:pt>
+                      <c:pt idx="1037">
+                        <c:v>8756.3310824746895</c:v>
+                      </c:pt>
+                      <c:pt idx="1038">
+                        <c:v>8762.6488754596303</c:v>
+                      </c:pt>
+                      <c:pt idx="1039">
+                        <c:v>8768.9389978060499</c:v>
+                      </c:pt>
+                      <c:pt idx="1040">
+                        <c:v>8775.2015257984895</c:v>
+                      </c:pt>
+                      <c:pt idx="1041">
+                        <c:v>8781.4365359778094</c:v>
+                      </c:pt>
+                      <c:pt idx="1042">
+                        <c:v>8787.6441051353504</c:v>
+                      </c:pt>
+                      <c:pt idx="1043">
+                        <c:v>8793.8243103070399</c:v>
+                      </c:pt>
+                      <c:pt idx="1044">
+                        <c:v>8799.9772287676205</c:v>
+                      </c:pt>
+                      <c:pt idx="1045">
+                        <c:v>8806.1029380248292</c:v>
+                      </c:pt>
+                      <c:pt idx="1046">
+                        <c:v>8812.2015158136801</c:v>
+                      </c:pt>
+                      <c:pt idx="1047">
+                        <c:v>8818.2730400907894</c:v>
+                      </c:pt>
+                      <c:pt idx="1048">
+                        <c:v>8824.3175890287093</c:v>
+                      </c:pt>
+                      <c:pt idx="1049">
+                        <c:v>8830.3352410103107</c:v>
+                      </c:pt>
+                      <c:pt idx="1050">
+                        <c:v>8836.3260746232409</c:v>
+                      </c:pt>
+                      <c:pt idx="1051">
+                        <c:v>8842.2901686543792</c:v>
+                      </c:pt>
+                      <c:pt idx="1052">
+                        <c:v>8848.2276020843801</c:v>
+                      </c:pt>
+                      <c:pt idx="1053">
+                        <c:v>8854.13845408218</c:v>
+                      </c:pt>
+                      <c:pt idx="1054">
+                        <c:v>8860.02280399964</c:v>
+                      </c:pt>
+                      <c:pt idx="1055">
+                        <c:v>8865.8807313662091</c:v>
+                      </c:pt>
+                      <c:pt idx="1056">
+                        <c:v>8871.7123158835402</c:v>
+                      </c:pt>
+                      <c:pt idx="1057">
+                        <c:v>8877.5176374202802</c:v>
+                      </c:pt>
+                      <c:pt idx="1058">
+                        <c:v>8883.2967760067895</c:v>
+                      </c:pt>
+                      <c:pt idx="1059">
+                        <c:v>8889.0498118300093</c:v>
+                      </c:pt>
+                      <c:pt idx="1060">
+                        <c:v>8894.7768252282494</c:v>
+                      </c:pt>
+                      <c:pt idx="1061">
+                        <c:v>8900.4778966861395</c:v>
+                      </c:pt>
+                      <c:pt idx="1062">
+                        <c:v>8906.1531068295408</c:v>
+                      </c:pt>
+                      <c:pt idx="1063">
+                        <c:v>8911.8025364205096</c:v>
+                      </c:pt>
+                      <c:pt idx="1064">
+                        <c:v>8917.4262663523696</c:v>
+                      </c:pt>
+                      <c:pt idx="1065">
+                        <c:v>8923.0243776447096</c:v>
+                      </c:pt>
+                      <c:pt idx="1066">
+                        <c:v>8928.5969514385306</c:v>
+                      </c:pt>
+                      <c:pt idx="1067">
+                        <c:v>8934.1440689913998</c:v>
+                      </c:pt>
+                      <c:pt idx="1068">
+                        <c:v>8939.6658116726194</c:v>
+                      </c:pt>
+                      <c:pt idx="1069">
+                        <c:v>8945.1622609584392</c:v>
+                      </c:pt>
+                      <c:pt idx="1070">
+                        <c:v>8950.6334984273999</c:v>
+                      </c:pt>
+                      <c:pt idx="1071">
+                        <c:v>8956.0796057555708</c:v>
+                      </c:pt>
+                      <c:pt idx="1072">
+                        <c:v>8961.5006647119408</c:v>
+                      </c:pt>
+                      <c:pt idx="1073">
+                        <c:v>8966.8967571538305</c:v>
+                      </c:pt>
+                      <c:pt idx="1074">
+                        <c:v>8972.2679650223199</c:v>
+                      </c:pt>
+                      <c:pt idx="1075">
+                        <c:v>8977.6143703377202</c:v>
+                      </c:pt>
+                      <c:pt idx="1076">
+                        <c:v>8982.9360551950995</c:v>
+                      </c:pt>
+                      <c:pt idx="1077">
+                        <c:v>8988.2331017598899</c:v>
+                      </c:pt>
+                      <c:pt idx="1078">
+                        <c:v>8993.5055922634292</c:v>
+                      </c:pt>
+                      <c:pt idx="1079">
+                        <c:v>8998.7536089986497</c:v>
+                      </c:pt>
+                      <c:pt idx="1080">
+                        <c:v>9003.9772343157692</c:v>
+                      </c:pt>
+                      <c:pt idx="1081">
+                        <c:v>9009.1765506180109</c:v>
+                      </c:pt>
+                      <c:pt idx="1082">
+                        <c:v>9014.3516403573594</c:v>
+                      </c:pt>
+                      <c:pt idx="1083">
+                        <c:v>9019.5025860304304</c:v>
+                      </c:pt>
+                      <c:pt idx="1084">
+                        <c:v>9024.6294701742499</c:v>
+                      </c:pt>
+                      <c:pt idx="1085">
+                        <c:v>9029.7323753622095</c:v>
+                      </c:pt>
+                      <c:pt idx="1086">
+                        <c:v>9034.8113841999493</c:v>
+                      </c:pt>
+                      <c:pt idx="1087">
+                        <c:v>9039.8665793213895</c:v>
+                      </c:pt>
+                      <c:pt idx="1088">
+                        <c:v>9044.8980433847191</c:v>
+                      </c:pt>
+                      <c:pt idx="1089">
+                        <c:v>9049.9058590684399</c:v>
+                      </c:pt>
+                      <c:pt idx="1090">
+                        <c:v>9054.8901090674899</c:v>
+                      </c:pt>
+                      <c:pt idx="1091">
+                        <c:v>9059.8508760893692</c:v>
+                      </c:pt>
+                      <c:pt idx="1092">
+                        <c:v>9064.7882428502999</c:v>
+                      </c:pt>
+                      <c:pt idx="1093">
+                        <c:v>9069.7022920714699</c:v>
+                      </c:pt>
+                      <c:pt idx="1094">
+                        <c:v>9074.5931064753004</c:v>
+                      </c:pt>
+                      <c:pt idx="1095">
+                        <c:v>9079.4607687817006</c:v>
+                      </c:pt>
+                      <c:pt idx="1096">
+                        <c:v>9084.3053617044097</c:v>
+                      </c:pt>
+                      <c:pt idx="1097">
+                        <c:v>9089.1269679474408</c:v>
+                      </c:pt>
+                      <c:pt idx="1098">
+                        <c:v>9093.9256702013899</c:v>
+                      </c:pt>
+                      <c:pt idx="1099">
+                        <c:v>9098.7015511399604</c:v>
+                      </c:pt>
+                      <c:pt idx="1100">
+                        <c:v>9103.4546934164391</c:v>
+                      </c:pt>
+                      <c:pt idx="1101">
+                        <c:v>9108.1851796602296</c:v>
+                      </c:pt>
+                      <c:pt idx="1102">
+                        <c:v>9112.8930924734104</c:v>
+                      </c:pt>
+                      <c:pt idx="1103">
+                        <c:v>9117.5785144273395</c:v>
+                      </c:pt>
+                      <c:pt idx="1104">
+                        <c:v>9122.2415280593195</c:v>
+                      </c:pt>
+                      <c:pt idx="1105">
+                        <c:v>9126.8822158692892</c:v>
+                      </c:pt>
+                      <c:pt idx="1106">
+                        <c:v>9131.5006603165002</c:v>
+                      </c:pt>
+                      <c:pt idx="1107">
+                        <c:v>9136.0969438163193</c:v>
+                      </c:pt>
+                      <c:pt idx="1108">
+                        <c:v>9140.6711487369994</c:v>
+                      </c:pt>
+                      <c:pt idx="1109">
+                        <c:v>9145.2233573965495</c:v>
+                      </c:pt>
+                      <c:pt idx="1110">
+                        <c:v>9149.7536520595604</c:v>
+                      </c:pt>
+                      <c:pt idx="1111">
+                        <c:v>9154.2621149341503</c:v>
+                      </c:pt>
+                      <c:pt idx="1112">
+                        <c:v>9158.7488281688893</c:v>
+                      </c:pt>
+                      <c:pt idx="1113">
+                        <c:v>9163.2138738497797</c:v>
+                      </c:pt>
+                      <c:pt idx="1114">
+                        <c:v>9167.6573339973202</c:v>
+                      </c:pt>
+                      <c:pt idx="1115">
+                        <c:v>9172.0792905634808</c:v>
+                      </c:pt>
+                      <c:pt idx="1116">
+                        <c:v>9176.4798254288598</c:v>
+                      </c:pt>
+                      <c:pt idx="1117">
+                        <c:v>9180.8590203997792</c:v>
+                      </c:pt>
+                      <c:pt idx="1118">
+                        <c:v>9185.2169572054809</c:v>
+                      </c:pt>
+                      <c:pt idx="1119">
+                        <c:v>9189.5537174952606</c:v>
+                      </c:pt>
+                      <c:pt idx="1120">
+                        <c:v>9193.8693828357791</c:v>
+                      </c:pt>
+                      <c:pt idx="1121">
+                        <c:v>9198.1640347082794</c:v>
+                      </c:pt>
+                      <c:pt idx="1122">
+                        <c:v>9202.4377545058906</c:v>
+                      </c:pt>
+                      <c:pt idx="1123">
+                        <c:v>9206.6906235310107</c:v>
+                      </c:pt>
+                      <c:pt idx="1124">
+                        <c:v>9210.9227229926291</c:v>
+                      </c:pt>
+                      <c:pt idx="1125">
+                        <c:v>9215.1341340037507</c:v>
+                      </c:pt>
+                      <c:pt idx="1126">
+                        <c:v>9219.32493757886</c:v>
+                      </c:pt>
+                      <c:pt idx="1127">
+                        <c:v>9223.4952146313608</c:v>
+                      </c:pt>
+                      <c:pt idx="1128">
+                        <c:v>9227.6450459711104</c:v>
+                      </c:pt>
+                      <c:pt idx="1129">
+                        <c:v>9231.7745123019504</c:v>
+                      </c:pt>
+                      <c:pt idx="1130">
+                        <c:v>9235.8836942192902</c:v>
+                      </c:pt>
+                      <c:pt idx="1131">
+                        <c:v>9239.9726722076994</c:v>
+                      </c:pt>
+                      <c:pt idx="1132">
+                        <c:v>9244.0415266386008</c:v>
+                      </c:pt>
+                      <c:pt idx="1133">
+                        <c:v>9248.0903377678496</c:v>
+                      </c:pt>
+                      <c:pt idx="1134">
+                        <c:v>9252.1191857335398</c:v>
+                      </c:pt>
+                      <c:pt idx="1135">
+                        <c:v>9256.1281505537008</c:v>
+                      </c:pt>
+                      <c:pt idx="1136">
+                        <c:v>9260.1173121240499</c:v>
+                      </c:pt>
+                      <c:pt idx="1137">
+                        <c:v>9264.0867502158399</c:v>
+                      </c:pt>
+                      <c:pt idx="1138">
+                        <c:v>9268.0365444736399</c:v>
+                      </c:pt>
+                      <c:pt idx="1139">
+                        <c:v>9271.9667744132803</c:v>
+                      </c:pt>
+                      <c:pt idx="1140">
+                        <c:v>9275.8775194196496</c:v>
+                      </c:pt>
+                      <c:pt idx="1141">
+                        <c:v>9279.7688587447192</c:v>
+                      </c:pt>
+                      <c:pt idx="1142">
+                        <c:v>9283.6408715054404</c:v>
+                      </c:pt>
+                      <c:pt idx="1143">
+                        <c:v>9287.4936366817492</c:v>
+                      </c:pt>
+                      <c:pt idx="1144">
+                        <c:v>9291.3272331146309</c:v>
+                      </c:pt>
+                      <c:pt idx="1145">
+                        <c:v>9295.1417395040808</c:v>
+                      </c:pt>
+                      <c:pt idx="1146">
+                        <c:v>9298.9372344072799</c:v>
+                      </c:pt>
+                      <c:pt idx="1147">
+                        <c:v>9302.7137962366396</c:v>
+                      </c:pt>
+                      <c:pt idx="1148">
+                        <c:v>9306.4715032579697</c:v>
+                      </c:pt>
+                      <c:pt idx="1149">
+                        <c:v>9310.2104335886506</c:v>
+                      </c:pt>
+                      <c:pt idx="1150">
+                        <c:v>9313.9306651958104</c:v>
+                      </c:pt>
+                      <c:pt idx="1151">
+                        <c:v>9317.6322758945807</c:v>
+                      </c:pt>
+                      <c:pt idx="1152">
+                        <c:v>9321.3153433463303</c:v>
+                      </c:pt>
+                      <c:pt idx="1153">
+                        <c:v>9324.9799450569608</c:v>
+                      </c:pt>
+                      <c:pt idx="1154">
+                        <c:v>9328.6261583752093</c:v>
+                      </c:pt>
+                      <c:pt idx="1155">
+                        <c:v>9332.2540604909991</c:v>
+                      </c:pt>
+                      <c:pt idx="1156">
+                        <c:v>9335.8637284338001</c:v>
+                      </c:pt>
+                      <c:pt idx="1157">
+                        <c:v>9339.4552390710505</c:v>
+                      </c:pt>
+                      <c:pt idx="1158">
+                        <c:v>9343.0286691065303</c:v>
+                      </c:pt>
+                      <c:pt idx="1159">
+                        <c:v>9346.5840950788406</c:v>
+                      </c:pt>
+                      <c:pt idx="1160">
+                        <c:v>9350.1215933598996</c:v>
+                      </c:pt>
+                      <c:pt idx="1161">
+                        <c:v>9353.6412401534308</c:v>
+                      </c:pt>
+                      <c:pt idx="1162">
+                        <c:v>9357.1431114934494</c:v>
+                      </c:pt>
+                      <c:pt idx="1163">
+                        <c:v>9360.6272832429095</c:v>
+                      </c:pt>
+                      <c:pt idx="1164">
+                        <c:v>9364.0938310922102</c:v>
+                      </c:pt>
+                      <c:pt idx="1165">
+                        <c:v>9367.5428305578298</c:v>
+                      </c:pt>
+                      <c:pt idx="1166">
+                        <c:v>9370.9743569809798</c:v>
+                      </c:pt>
+                      <c:pt idx="1167">
+                        <c:v>9374.3884855262204</c:v>
+                      </c:pt>
+                      <c:pt idx="1168">
+                        <c:v>9377.7852911802001</c:v>
+                      </c:pt>
+                      <c:pt idx="1169">
+                        <c:v>9381.1648487503207</c:v>
+                      </c:pt>
+                      <c:pt idx="1170">
+                        <c:v>9384.5272328634892</c:v>
+                      </c:pt>
+                      <c:pt idx="1171">
+                        <c:v>9387.87251796487</c:v>
+                      </c:pt>
+                      <c:pt idx="1172">
+                        <c:v>9391.2007783166991</c:v>
+                      </c:pt>
+                      <c:pt idx="1173">
+                        <c:v>9394.5120879970309</c:v>
+                      </c:pt>
+                      <c:pt idx="1174">
+                        <c:v>9397.80652089865</c:v>
+                      </c:pt>
+                      <c:pt idx="1175">
+                        <c:v>9401.0841507278401</c:v>
+                      </c:pt>
+                      <c:pt idx="1176">
+                        <c:v>9404.3450510033308</c:v>
+                      </c:pt>
+                      <c:pt idx="1177">
+                        <c:v>9407.5892950551697</c:v>
+                      </c:pt>
+                      <c:pt idx="1178">
+                        <c:v>9410.8169560236602</c:v>
+                      </c:pt>
+                      <c:pt idx="1179">
+                        <c:v>9414.0281068582808</c:v>
+                      </c:pt>
+                      <c:pt idx="1180">
+                        <c:v>9417.2228203166906</c:v>
+                      </c:pt>
+                      <c:pt idx="1181">
+                        <c:v>9420.4011689637191</c:v>
+                      </c:pt>
+                      <c:pt idx="1182">
+                        <c:v>9423.5632251703501</c:v>
+                      </c:pt>
+                      <c:pt idx="1183">
+                        <c:v>9426.7090611127896</c:v>
+                      </c:pt>
+                      <c:pt idx="1184">
+                        <c:v>9429.8387487715208</c:v>
+                      </c:pt>
+                      <c:pt idx="1185">
+                        <c:v>9432.9523599303793</c:v>
+                      </c:pt>
+                      <c:pt idx="1186">
+                        <c:v>9436.0499661756494</c:v>
+                      </c:pt>
+                      <c:pt idx="1187">
+                        <c:v>9439.1316388952</c:v>
+                      </c:pt>
+                      <c:pt idx="1188">
+                        <c:v>9442.1974492776208</c:v>
+                      </c:pt>
+                      <c:pt idx="1189">
+                        <c:v>9445.2474683113996</c:v>
+                      </c:pt>
+                      <c:pt idx="1190">
+                        <c:v>9448.2817667840809</c:v>
+                      </c:pt>
+                      <c:pt idx="1191">
+                        <c:v>9451.3004152815101</c:v>
+                      </c:pt>
+                      <c:pt idx="1192">
+                        <c:v>9454.3034841870394</c:v>
+                      </c:pt>
+                      <c:pt idx="1193">
+                        <c:v>9457.2910436807597</c:v>
+                      </c:pt>
+                      <c:pt idx="1194">
+                        <c:v>9460.2631637388004</c:v>
+                      </c:pt>
+                      <c:pt idx="1195">
+                        <c:v>9463.2199141325891</c:v>
+                      </c:pt>
+                      <c:pt idx="1196">
+                        <c:v>9466.1613644281806</c:v>
+                      </c:pt>
+                      <c:pt idx="1197">
+                        <c:v>9469.0875839855398</c:v>
+                      </c:pt>
+                      <c:pt idx="1198">
+                        <c:v>9471.9986419579509</c:v>
+                      </c:pt>
+                      <c:pt idx="1199">
+                        <c:v>9474.8946072913095</c:v>
+                      </c:pt>
+                      <c:pt idx="1200">
+                        <c:v>9477.7755487235609</c:v>
+                      </c:pt>
+                      <c:pt idx="1201">
+                        <c:v>9480.6415347840593</c:v>
+                      </c:pt>
+                      <c:pt idx="1202">
+                        <c:v>9483.4926337929992</c:v>
+                      </c:pt>
+                      <c:pt idx="1203">
+                        <c:v>9486.3289138608907</c:v>
+                      </c:pt>
+                      <c:pt idx="1204">
+                        <c:v>9489.1504428879307</c:v>
+                      </c:pt>
+                      <c:pt idx="1205">
+                        <c:v>9491.9572885635407</c:v>
+                      </c:pt>
+                      <c:pt idx="1206">
+                        <c:v>9494.7495183658502</c:v>
+                      </c:pt>
+                      <c:pt idx="1207">
+                        <c:v>9497.5271995611802</c:v>
+                      </c:pt>
+                      <c:pt idx="1208">
+                        <c:v>9500.2903992035608</c:v>
+                      </c:pt>
+                      <c:pt idx="1209">
+                        <c:v>9503.0391841343098</c:v>
+                      </c:pt>
+                      <c:pt idx="1210">
+                        <c:v>9505.7736209815503</c:v>
+                      </c:pt>
+                      <c:pt idx="1211">
+                        <c:v>9508.4937761598103</c:v>
+                      </c:pt>
+                      <c:pt idx="1212">
+                        <c:v>9511.1997158696195</c:v>
+                      </c:pt>
+                      <c:pt idx="1213">
+                        <c:v>9513.8915060970703</c:v>
+                      </c:pt>
+                      <c:pt idx="1214">
+                        <c:v>9516.5692126134909</c:v>
+                      </c:pt>
+                      <c:pt idx="1215">
+                        <c:v>9519.2329009750592</c:v>
+                      </c:pt>
+                      <c:pt idx="1216">
+                        <c:v>9521.8826365224704</c:v>
+                      </c:pt>
+                      <c:pt idx="1217">
+                        <c:v>9524.5184843805691</c:v>
+                      </c:pt>
+                      <c:pt idx="1218">
+                        <c:v>9527.1405094581096</c:v>
+                      </c:pt>
+                      <c:pt idx="1219">
+                        <c:v>9529.7487764473699</c:v>
+                      </c:pt>
+                      <c:pt idx="1220">
+                        <c:v>9532.3433498239192</c:v>
+                      </c:pt>
+                      <c:pt idx="1221">
+                        <c:v>9534.9242938463503</c:v>
+                      </c:pt>
+                      <c:pt idx="1222">
+                        <c:v>9537.4916725559797</c:v>
+                      </c:pt>
+                      <c:pt idx="1223">
+                        <c:v>9540.0455497766707</c:v>
+                      </c:pt>
+                      <c:pt idx="1224">
+                        <c:v>9542.5859891145501</c:v>
+                      </c:pt>
+                      <c:pt idx="1225">
+                        <c:v>9545.1130539578207</c:v>
+                      </c:pt>
+                      <c:pt idx="1226">
+                        <c:v>9547.6268074765703</c:v>
+                      </c:pt>
+                      <c:pt idx="1227">
+                        <c:v>9550.1273126225606</c:v>
+                      </c:pt>
+                      <c:pt idx="1228">
+                        <c:v>9552.6146321290798</c:v>
+                      </c:pt>
+                      <c:pt idx="1229">
+                        <c:v>9555.0888285107994</c:v>
+                      </c:pt>
+                      <c:pt idx="1230">
+                        <c:v>9557.5499640635808</c:v>
+                      </c:pt>
+                      <c:pt idx="1231">
+                        <c:v>9559.9981008643808</c:v>
+                      </c:pt>
+                      <c:pt idx="1232">
+                        <c:v>9562.4333007711302</c:v>
+                      </c:pt>
+                      <c:pt idx="1233">
+                        <c:v>9564.8556254226205</c:v>
+                      </c:pt>
+                      <c:pt idx="1234">
+                        <c:v>9567.2651362384004</c:v>
+                      </c:pt>
+                      <c:pt idx="1235">
+                        <c:v>9569.6618944187394</c:v>
+                      </c:pt>
+                      <c:pt idx="1236">
+                        <c:v>9572.0459609445006</c:v>
+                      </c:pt>
+                      <c:pt idx="1237">
+                        <c:v>9574.4173965771406</c:v>
+                      </c:pt>
+                      <c:pt idx="1238">
+                        <c:v>9576.7762618586203</c:v>
+                      </c:pt>
+                      <c:pt idx="1239">
+                        <c:v>9579.1226171113994</c:v>
+                      </c:pt>
+                      <c:pt idx="1240">
+                        <c:v>9581.4565224384205</c:v>
+                      </c:pt>
+                      <c:pt idx="1241">
+                        <c:v>9583.7780377230902</c:v>
+                      </c:pt>
+                      <c:pt idx="1242">
+                        <c:v>9586.0872226292595</c:v>
+                      </c:pt>
+                      <c:pt idx="1243">
+                        <c:v>9588.3841366013003</c:v>
+                      </c:pt>
+                      <c:pt idx="1244">
+                        <c:v>9590.6688388640596</c:v>
+                      </c:pt>
+                      <c:pt idx="1245">
+                        <c:v>9592.9413884229707</c:v>
+                      </c:pt>
+                      <c:pt idx="1246">
+                        <c:v>9595.2018440640095</c:v>
+                      </c:pt>
+                      <c:pt idx="1247">
+                        <c:v>9597.4502643538599</c:v>
+                      </c:pt>
+                      <c:pt idx="1248">
+                        <c:v>9599.6867076398703</c:v>
+                      </c:pt>
+                      <c:pt idx="1249">
+                        <c:v>9601.9112320502409</c:v>
+                      </c:pt>
+                      <c:pt idx="1250">
+                        <c:v>9604.1238954940309</c:v>
+                      </c:pt>
+                      <c:pt idx="1251">
+                        <c:v>9606.3247556613096</c:v>
+                      </c:pt>
+                      <c:pt idx="1252">
+                        <c:v>9608.5138700232201</c:v>
+                      </c:pt>
+                      <c:pt idx="1253">
+                        <c:v>9610.69129583215</c:v>
+                      </c:pt>
+                      <c:pt idx="1254">
+                        <c:v>9612.8570901218409</c:v>
+                      </c:pt>
+                      <c:pt idx="1255">
+                        <c:v>9615.0113097074991</c:v>
+                      </c:pt>
+                      <c:pt idx="1256">
+                        <c:v>9617.1540111859904</c:v>
+                      </c:pt>
+                      <c:pt idx="1257">
+                        <c:v>9619.28525093596</c:v>
+                      </c:pt>
+                      <c:pt idx="1258">
+                        <c:v>9621.40508511804</c:v>
+                      </c:pt>
+                      <c:pt idx="1259">
+                        <c:v>9623.5135696749803</c:v>
+                      </c:pt>
+                      <c:pt idx="1260">
+                        <c:v>9625.6107603318505</c:v>
+                      </c:pt>
+                      <c:pt idx="1261">
+                        <c:v>9627.6967125962601</c:v>
+                      </c:pt>
+                      <c:pt idx="1262">
+                        <c:v>9629.7714817585402</c:v>
+                      </c:pt>
+                      <c:pt idx="1263">
+                        <c:v>9631.83512289194</c:v>
+                      </c:pt>
+                      <c:pt idx="1264">
+                        <c:v>9633.8876908528691</c:v>
+                      </c:pt>
+                      <c:pt idx="1265">
+                        <c:v>9635.9292402811097</c:v>
+                      </c:pt>
+                      <c:pt idx="1266">
+                        <c:v>9637.95982560009</c:v>
+                      </c:pt>
+                      <c:pt idx="1267">
+                        <c:v>9639.9795010170601</c:v>
+                      </c:pt>
+                      <c:pt idx="1268">
+                        <c:v>9641.98832052342</c:v>
+                      </c:pt>
+                      <c:pt idx="1269">
+                        <c:v>9643.9863378949194</c:v>
+                      </c:pt>
+                      <c:pt idx="1270">
+                        <c:v>9645.9736066919704</c:v>
+                      </c:pt>
+                      <c:pt idx="1271">
+                        <c:v>9647.9501802598897</c:v>
+                      </c:pt>
+                      <c:pt idx="1272">
+                        <c:v>9649.9161117292006</c:v>
+                      </c:pt>
+                      <c:pt idx="1273">
+                        <c:v>9651.8714540159199</c:v>
+                      </c:pt>
+                      <c:pt idx="1274">
+                        <c:v>9653.8162598218496</c:v>
+                      </c:pt>
+                      <c:pt idx="1275">
+                        <c:v>9655.7505816348894</c:v>
+                      </c:pt>
+                      <c:pt idx="1276">
+                        <c:v>9657.6744717293495</c:v>
+                      </c:pt>
+                      <c:pt idx="1277">
+                        <c:v>9659.5879821662693</c:v>
+                      </c:pt>
+                      <c:pt idx="1278">
+                        <c:v>9661.4911647937097</c:v>
+                      </c:pt>
+                      <c:pt idx="1279">
+                        <c:v>9663.3840712471501</c:v>
+                      </c:pt>
+                      <c:pt idx="1280">
+                        <c:v>9665.2667529497794</c:v>
+                      </c:pt>
+                      <c:pt idx="1281">
+                        <c:v>9667.1392611128504</c:v>
+                      </c:pt>
+                      <c:pt idx="1282">
+                        <c:v>9669.0016467360401</c:v>
+                      </c:pt>
+                      <c:pt idx="1283">
+                        <c:v>9670.8539606077793</c:v>
+                      </c:pt>
+                      <c:pt idx="1284">
+                        <c:v>9672.6962533056994</c:v>
+                      </c:pt>
+                      <c:pt idx="1285">
+                        <c:v>9674.5285751968695</c:v>
+                      </c:pt>
+                      <c:pt idx="1286">
+                        <c:v>9676.3509764382907</c:v>
+                      </c:pt>
+                      <c:pt idx="1287">
+                        <c:v>9678.1635069772401</c:v>
+                      </c:pt>
+                      <c:pt idx="1288">
+                        <c:v>9679.9662165516202</c:v>
+                      </c:pt>
+                      <c:pt idx="1289">
+                        <c:v>9681.7591546904005</c:v>
+                      </c:pt>
+                      <c:pt idx="1290">
+                        <c:v>9683.5423707140199</c:v>
+                      </c:pt>
+                      <c:pt idx="1291">
+                        <c:v>9685.3159137347393</c:v>
+                      </c:pt>
+                      <c:pt idx="1292">
+                        <c:v>9687.0798326571003</c:v>
+                      </c:pt>
+                      <c:pt idx="1293">
+                        <c:v>9688.8341761783195</c:v>
+                      </c:pt>
+                      <c:pt idx="1294">
+                        <c:v>9690.5789927887308</c:v>
+                      </c:pt>
+                      <c:pt idx="1295">
+                        <c:v>9692.3143307721493</c:v>
+                      </c:pt>
+                      <c:pt idx="1296">
+                        <c:v>9694.0402382064094</c:v>
+                      </c:pt>
+                      <c:pt idx="1297">
+                        <c:v>9695.7567629636796</c:v>
+                      </c:pt>
+                      <c:pt idx="1298">
+                        <c:v>9697.4639527109794</c:v>
+                      </c:pt>
+                      <c:pt idx="1299">
+                        <c:v>9699.1618549106206</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="595812704"/>
+        <c:axId val="-2129550448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12475,7 +12461,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595813248"/>
+        <c:crossAx val="-2129539568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12483,7 +12469,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="595813248"/>
+        <c:axId val="-2129539568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12534,7 +12520,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595812704"/>
+        <c:crossAx val="-2129550448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13471,8 +13457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13539,7 +13525,7 @@
         <v>3.02533649772622</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E3:E66" si="0">(A4-A3-1300*(B4-B3)/10000)^2/(1300*(B4-B3)/10000)</f>
+        <f t="shared" ref="E4:E66" si="0">(A4-A3-1300*(B4-B3)/10000)^2/(1300*(B4-B3)/10000)</f>
         <v>0.10557422936603791</v>
       </c>
       <c r="O4" t="s">
@@ -13709,6 +13695,10 @@
       <c r="E15">
         <f t="shared" si="0"/>
         <v>6.9796258045809703</v>
+      </c>
+      <c r="G15">
+        <f>PEARSON(A1:A1300,B1:B1300)</f>
+        <v>0.99975991477127746</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
